--- a/original/7-8_システム要件定義/8_システム要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DS-201_画面機能要件定義(サンプル＆ガイド).xlsx
+++ b/original/7-8_システム要件定義/8_システム要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DS-201_画面機能要件定義(サンプル＆ガイド).xlsx
@@ -2220,16 +2220,6 @@
     <phoneticPr fontId="13"/>
   </si>
   <si>
-    <t>TIS株式会社</t>
-    <rPh sb="1" eb="3">
-      <t>カブシキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カイシャ</t>
-    </rPh>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
     <t xml:space="preserve">この 作品 は </t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2461,6 +2451,13 @@
     </rPh>
     <rPh sb="58" eb="60">
       <t>キジュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要件定義フレームワーク©2018 TIS INC. クリエイティブ・コモンズ・ライセンス（表示-継承 4.0 国際）</t>
+    <rPh sb="0" eb="1">
+      <t>ヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -9884,9 +9881,7 @@
       <c r="G31" s="30"/>
       <c r="H31" s="27"/>
       <c r="J31" s="31"/>
-      <c r="R31" s="32" t="s">
-        <v>168</v>
-      </c>
+      <c r="R31" s="32"/>
     </row>
     <row r="32" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F32" s="27"/>
@@ -9926,20 +9921,24 @@
     </row>
     <row r="39" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="E39" s="39" t="s">
         <v>169</v>
-      </c>
-      <c r="E39" s="39" t="s">
-        <v>170</v>
       </c>
       <c r="O39" s="36"/>
       <c r="P39" s="36"/>
       <c r="Q39" s="37"/>
       <c r="R39" s="37" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="S39" s="36"/>
     </row>
-    <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="23" t="s">
+        <v>177</v>
+      </c>
+    </row>
     <row r="41" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="42" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="43" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10414,7 +10413,7 @@
     <hyperlink ref="E39" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
@@ -10468,7 +10467,7 @@
     </row>
     <row r="10" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -10644,7 +10643,7 @@
       <c r="G23" s="43"/>
       <c r="H23" s="44"/>
       <c r="I23" s="42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J23" s="43"/>
       <c r="K23" s="43"/>
@@ -10686,7 +10685,7 @@
       <c r="G24" s="43"/>
       <c r="H24" s="44"/>
       <c r="I24" s="42" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J24" s="43"/>
       <c r="K24" s="43"/>
@@ -11388,7 +11387,7 @@
       <c r="G54" s="43"/>
       <c r="H54" s="44"/>
       <c r="I54" s="42" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J54" s="43"/>
       <c r="K54" s="43"/>
@@ -11565,7 +11564,7 @@
       <c r="G63" s="43"/>
       <c r="H63" s="44"/>
       <c r="I63" s="42" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J63" s="43"/>
       <c r="K63" s="43"/>
@@ -11744,7 +11743,7 @@
     <row r="68" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B68" s="19"/>
       <c r="C68" s="22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D68" s="19"/>
       <c r="E68" s="19"/>

--- a/original/7-8_システム要件定義/8_システム要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DS-201_画面機能要件定義(サンプル＆ガイド).xlsx
+++ b/original/7-8_システム要件定義/8_システム要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DS-201_画面機能要件定義(サンプル＆ガイド).xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F12E72C-6503-4194-B2D7-FEAE2F739FF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="180" windowWidth="10575" windowHeight="5655"/>
+    <workbookView xWindow="9660" yWindow="6030" windowWidth="18150" windowHeight="7395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="5" r:id="rId1"/>
@@ -21,12 +22,22 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'サンプル（画面一覧）'!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'サンプル（個別画面機能要件）'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621" calcMode="manual"/>
+  <calcPr calcId="191029" calcMode="manual"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="174">
   <si>
     <t>記述内容</t>
     <rPh sb="0" eb="2">
@@ -2218,17 +2229,6 @@
   <si>
     <t>2018年08月29日</t>
     <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t xml:space="preserve">この 作品 は </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>クリエイティブ・コモンズ 表示 - 継承 4.0 国際 ライセンス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>の下に提供されています。</t>
   </si>
   <si>
     <t>・業務利用に適した画面遷移であること。</t>
@@ -2454,18 +2454,11 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
-  <si>
-    <t>要件定義フレームワーク©2018 TIS INC. クリエイティブ・コモンズ・ライセンス（表示-継承 4.0 国際）</t>
-    <rPh sb="0" eb="1">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
@@ -3114,18 +3107,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3134,6 +3115,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3153,58 +3143,34 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3225,6 +3191,15 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3234,19 +3209,115 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3256,24 +3327,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3287,6 +3340,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3327,80 +3386,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3481,6 +3474,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -3502,7 +3498,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Text Box 7610"/>
+        <xdr:cNvPr id="2" name="Text Box 7610">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3600,52 +3602,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>94137</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="276225" y="6715125"/>
-          <a:ext cx="838200" cy="265587"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3666,7 +3622,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3725,7 +3687,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="正方形/長方形 24"/>
+        <xdr:cNvPr id="25" name="正方形/長方形 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3817,7 +3785,13 @@
     <xdr:ext cx="1005403" cy="492443"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="テキスト ボックス 22"/>
+        <xdr:cNvPr id="23" name="テキスト ボックス 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3907,7 +3881,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="正方形/長方形 9"/>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3988,7 +3968,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="直線矢印コネクタ 10"/>
+        <xdr:cNvPr id="11" name="直線矢印コネクタ 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="3" idx="3"/>
           <a:endCxn id="10" idx="1"/>
@@ -4033,7 +4019,13 @@
     <xdr:ext cx="1005403" cy="359073"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="テキスト ボックス 14"/>
+        <xdr:cNvPr id="15" name="テキスト ボックス 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4110,7 +4102,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Rectangle 274"/>
+        <xdr:cNvPr id="14" name="Rectangle 274">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4210,7 +4208,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="16" name="グループ化 15"/>
+        <xdr:cNvPr id="16" name="グループ化 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -4223,7 +4227,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="17" name="円/楕円 16"/>
+          <xdr:cNvPr id="17" name="円/楕円 16">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4261,7 +4271,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="18" name="円/楕円 17"/>
+          <xdr:cNvPr id="18" name="円/楕円 17">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4316,7 +4332,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="直線矢印コネクタ 19"/>
+        <xdr:cNvPr id="20" name="直線矢印コネクタ 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4363,7 +4385,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="Text Box 13"/>
+        <xdr:cNvPr id="21" name="Text Box 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4441,7 +4469,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="円/楕円 21"/>
+        <xdr:cNvPr id="22" name="円/楕円 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4496,7 +4530,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="正方形/長方形 23"/>
+        <xdr:cNvPr id="24" name="正方形/長方形 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4593,7 +4633,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="正方形/長方形 25"/>
+        <xdr:cNvPr id="26" name="正方形/長方形 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4690,7 +4736,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="直線矢印コネクタ 3"/>
+        <xdr:cNvPr id="4" name="直線矢印コネクタ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="26" idx="2"/>
           <a:endCxn id="3" idx="0"/>
@@ -4735,7 +4787,13 @@
     <xdr:ext cx="1107996" cy="225703"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="テキスト ボックス 26"/>
+        <xdr:cNvPr id="27" name="テキスト ボックス 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4799,7 +4857,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="カギ線コネクタ 5"/>
+        <xdr:cNvPr id="6" name="カギ線コネクタ 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="24" idx="3"/>
           <a:endCxn id="3" idx="1"/>
@@ -4849,7 +4913,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="28" name="カギ線コネクタ 27"/>
+        <xdr:cNvPr id="28" name="カギ線コネクタ 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="25" idx="3"/>
           <a:endCxn id="3" idx="1"/>
@@ -4894,7 +4964,13 @@
     <xdr:ext cx="902811" cy="359073"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="テキスト ボックス 28"/>
+        <xdr:cNvPr id="29" name="テキスト ボックス 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4976,7 +5052,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="65" name="線吹き出し 1 (枠付き) 64"/>
+        <xdr:cNvPr id="65" name="線吹き出し 1 (枠付き) 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000041000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5122,7 +5204,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="66" name="線吹き出し 1 (枠付き) 65"/>
+        <xdr:cNvPr id="66" name="線吹き出し 1 (枠付き) 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000042000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5273,7 +5361,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="138" name="山形 137"/>
+        <xdr:cNvPr id="138" name="山形 137">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00008A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5332,7 +5426,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="142" name="山形 141"/>
+        <xdr:cNvPr id="142" name="山形 141">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00008E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5391,7 +5491,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="155" name="山形 154"/>
+        <xdr:cNvPr id="155" name="山形 154">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00009B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5450,7 +5556,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="156" name="正方形/長方形 155"/>
+        <xdr:cNvPr id="156" name="正方形/長方形 155">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00009C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5503,7 +5615,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="160" name="正方形/長方形 159"/>
+        <xdr:cNvPr id="160" name="正方形/長方形 159">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000A0000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5556,7 +5674,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="164" name="正方形/長方形 163"/>
+        <xdr:cNvPr id="164" name="正方形/長方形 163">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000A4000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5609,7 +5733,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="174" name="正方形/長方形 173"/>
+        <xdr:cNvPr id="174" name="正方形/長方形 173">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000AE000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5673,7 +5803,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="175" name="正方形/長方形 174"/>
+        <xdr:cNvPr id="175" name="正方形/長方形 174">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000AF000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5726,7 +5862,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="176" name="正方形/長方形 175"/>
+        <xdr:cNvPr id="176" name="正方形/長方形 175">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000B0000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5779,7 +5921,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="177" name="正方形/長方形 176"/>
+        <xdr:cNvPr id="177" name="正方形/長方形 176">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000B1000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5832,7 +5980,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="178" name="正方形/長方形 177"/>
+        <xdr:cNvPr id="178" name="正方形/長方形 177">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000B2000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5885,7 +6039,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="179" name="正方形/長方形 178"/>
+        <xdr:cNvPr id="179" name="正方形/長方形 178">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000B3000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5938,7 +6098,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="180" name="正方形/長方形 179"/>
+        <xdr:cNvPr id="180" name="正方形/長方形 179">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000B4000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5991,7 +6157,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="181" name="正方形/長方形 180"/>
+        <xdr:cNvPr id="181" name="正方形/長方形 180">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000B5000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6044,7 +6216,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="182" name="正方形/長方形 181"/>
+        <xdr:cNvPr id="182" name="正方形/長方形 181">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000B6000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6103,7 +6281,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="183" name="直線コネクタ 182"/>
+        <xdr:cNvPr id="183" name="直線コネクタ 182">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000B7000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -6142,7 +6326,13 @@
     <xdr:ext cx="2707857" cy="267381"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="184" name="テキスト ボックス 183"/>
+        <xdr:cNvPr id="184" name="テキスト ボックス 183">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000B8000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6211,7 +6401,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="185" name="正方形/長方形 184"/>
+        <xdr:cNvPr id="185" name="正方形/長方形 184">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000B9000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6275,7 +6471,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="186" name="正方形/長方形 185"/>
+        <xdr:cNvPr id="186" name="正方形/長方形 185">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000BA000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6339,7 +6541,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="187" name="正方形/長方形 186"/>
+        <xdr:cNvPr id="187" name="正方形/長方形 186">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000BB000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6403,7 +6611,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="188" name="正方形/長方形 187"/>
+        <xdr:cNvPr id="188" name="正方形/長方形 187">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000BC000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6456,7 +6670,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="189" name="正方形/長方形 188"/>
+        <xdr:cNvPr id="189" name="正方形/長方形 188">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000BD000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6515,7 +6735,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="190" name="正方形/長方形 189"/>
+        <xdr:cNvPr id="190" name="正方形/長方形 189">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000BE000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6568,7 +6794,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="191" name="テキスト ボックス 190"/>
+        <xdr:cNvPr id="191" name="テキスト ボックス 190">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000BF000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6651,7 +6883,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="192" name="テキスト ボックス 191"/>
+        <xdr:cNvPr id="192" name="テキスト ボックス 191">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000C0000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6719,7 +6957,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="193" name="正方形/長方形 192"/>
+        <xdr:cNvPr id="193" name="正方形/長方形 192">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000C1000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6772,7 +7016,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="199" name="AutoShape 270"/>
+        <xdr:cNvPr id="199" name="AutoShape 270">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000C7000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -6831,7 +7081,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="201" name="Rectangle 274"/>
+        <xdr:cNvPr id="201" name="Rectangle 274">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000C9000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -6956,7 +7212,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="202" name="Rectangle 274"/>
+        <xdr:cNvPr id="202" name="Rectangle 274">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000CA000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -7042,7 +7304,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="203" name="Rectangle 274"/>
+        <xdr:cNvPr id="203" name="Rectangle 274">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000CB000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -7128,7 +7396,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="204" name="Rectangle 274"/>
+        <xdr:cNvPr id="204" name="Rectangle 274">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000CC000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -7214,7 +7488,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="205" name="Text Box 13"/>
+        <xdr:cNvPr id="205" name="Text Box 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000CD000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -7325,7 +7605,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="206" name="カギ線コネクタ 205"/>
+        <xdr:cNvPr id="206" name="カギ線コネクタ 205">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000CE000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="201" idx="2"/>
           <a:endCxn id="202" idx="1"/>
@@ -7375,7 +7661,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="207" name="直線矢印コネクタ 206"/>
+        <xdr:cNvPr id="207" name="直線矢印コネクタ 206">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000CF000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -7422,7 +7714,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="208" name="直線矢印コネクタ 207"/>
+        <xdr:cNvPr id="208" name="直線矢印コネクタ 207">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000D0000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="203" idx="3"/>
           <a:endCxn id="204" idx="1"/>
@@ -7472,7 +7770,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="209" name="Rectangle 274"/>
+        <xdr:cNvPr id="209" name="Rectangle 274">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000D1000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -7597,7 +7901,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="210" name="カギ線コネクタ 209"/>
+        <xdr:cNvPr id="210" name="カギ線コネクタ 209">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000D2000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="204" idx="3"/>
           <a:endCxn id="209" idx="2"/>
@@ -7647,7 +7957,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="211" name="直線矢印コネクタ 210"/>
+        <xdr:cNvPr id="211" name="直線矢印コネクタ 210">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000D3000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="209" idx="3"/>
           <a:endCxn id="2" idx="2"/>
@@ -7697,7 +8013,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="212" name="Text Box 13"/>
+        <xdr:cNvPr id="212" name="Text Box 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000D4000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -7808,7 +8130,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="213" name="Text Box 13"/>
+        <xdr:cNvPr id="213" name="Text Box 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000D5000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -7919,7 +8247,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="214" name="Text Box 13"/>
+        <xdr:cNvPr id="214" name="Text Box 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000D6000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -8030,7 +8364,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="215" name="グループ化 214"/>
+        <xdr:cNvPr id="215" name="グループ化 214">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000D7000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -8043,7 +8383,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="216" name="正方形/長方形 215"/>
+          <xdr:cNvPr id="216" name="正方形/長方形 215">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000D8000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8105,7 +8451,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="217" name="Rectangle 274"/>
+          <xdr:cNvPr id="217" name="Rectangle 274">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000D9000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -8190,7 +8542,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="218" name="Rectangle 274"/>
+          <xdr:cNvPr id="218" name="Rectangle 274">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000DA000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -8276,7 +8634,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="219" name="テキスト ボックス 218"/>
+          <xdr:cNvPr id="219" name="テキスト ボックス 218">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000DB000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8321,7 +8685,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="220" name="テキスト ボックス 219"/>
+          <xdr:cNvPr id="220" name="テキスト ボックス 219">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000DC000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8366,7 +8736,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="221" name="AutoShape 270"/>
+          <xdr:cNvPr id="221" name="AutoShape 270">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000DD000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -8410,7 +8786,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="222" name="テキスト ボックス 221"/>
+          <xdr:cNvPr id="222" name="テキスト ボックス 221">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000DE000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8471,7 +8853,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="223" name="Rectangle 274"/>
+        <xdr:cNvPr id="223" name="Rectangle 274">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000DF000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -8552,7 +8940,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="224" name="直線矢印コネクタ 223"/>
+        <xdr:cNvPr id="224" name="直線矢印コネクタ 223">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000E0000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -8599,7 +8993,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="225" name="直線矢印コネクタ 224"/>
+        <xdr:cNvPr id="225" name="直線矢印コネクタ 224">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000E1000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -8647,7 +9047,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="226" name="Text Box 13"/>
+        <xdr:cNvPr id="226" name="Text Box 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000E2000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -8758,7 +9164,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="227" name="Text Box 13"/>
+        <xdr:cNvPr id="227" name="Text Box 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-0000E3000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -8869,7 +9281,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="直線矢印コネクタ 2"/>
+        <xdr:cNvPr id="3" name="直線矢印コネクタ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -8916,7 +9334,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="59" name="Text Box 13"/>
+        <xdr:cNvPr id="59" name="Text Box 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00003B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -9027,7 +9451,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="4" name="グループ化 3"/>
+        <xdr:cNvPr id="4" name="グループ化 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -9040,7 +9470,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="2" name="円/楕円 1"/>
+          <xdr:cNvPr id="2" name="円/楕円 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -9078,7 +9514,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="60" name="円/楕円 59"/>
+          <xdr:cNvPr id="60" name="円/楕円 59">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00003C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -9133,7 +9575,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="62" name="直線矢印コネクタ 61"/>
+        <xdr:cNvPr id="62" name="直線矢印コネクタ 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00003E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="69" idx="6"/>
           <a:endCxn id="201" idx="1"/>
@@ -9183,7 +9631,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="69" name="円/楕円 68"/>
+        <xdr:cNvPr id="69" name="円/楕円 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000045000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9238,7 +9692,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="72" name="直線矢印コネクタ 71"/>
+        <xdr:cNvPr id="72" name="直線矢印コネクタ 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000048000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -9285,7 +9745,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="73" name="Text Box 13"/>
+        <xdr:cNvPr id="73" name="Text Box 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000049000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -9363,7 +9829,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="71" name="線吹き出し 1 (枠付き) 70"/>
+        <xdr:cNvPr id="71" name="線吹き出し 1 (枠付き) 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000047000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9501,7 +9973,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -9543,7 +10015,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -9576,9 +10048,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -9611,6 +10100,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -9786,7 +10292,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -9895,58 +10401,47 @@
       <c r="R32" s="35"/>
       <c r="S32" s="36"/>
     </row>
-    <row r="33" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="34" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="35" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="36" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O36" s="33"/>
       <c r="P36" s="33"/>
       <c r="Q36" s="36"/>
       <c r="R36" s="36"/>
       <c r="S36" s="36"/>
     </row>
-    <row r="37" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O37" s="37"/>
       <c r="P37" s="36"/>
       <c r="Q37" s="37"/>
       <c r="R37" s="36"/>
       <c r="S37" s="38"/>
     </row>
-    <row r="38" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O38" s="37"/>
       <c r="P38" s="36"/>
       <c r="Q38" s="37"/>
       <c r="R38" s="36"/>
       <c r="S38" s="37"/>
     </row>
-    <row r="39" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="E39" s="39" t="s">
-        <v>169</v>
-      </c>
+    <row r="39" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E39" s="39"/>
       <c r="O39" s="36"/>
       <c r="P39" s="36"/>
       <c r="Q39" s="37"/>
-      <c r="R39" s="37" t="s">
-        <v>170</v>
-      </c>
+      <c r="R39" s="37"/>
       <c r="S39" s="36"/>
     </row>
-    <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="23" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="41" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10409,17 +10904,14 @@
     <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="E39" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AH72"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
@@ -10467,7 +10959,7 @@
     </row>
     <row r="10" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -10507,85 +10999,85 @@
       <c r="B20" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="49" t="s">
+      <c r="C20" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="49" t="s">
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="J20" s="50"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="50"/>
-      <c r="N20" s="50"/>
-      <c r="O20" s="50"/>
-      <c r="P20" s="50"/>
-      <c r="Q20" s="50"/>
-      <c r="R20" s="50"/>
-      <c r="S20" s="50"/>
-      <c r="T20" s="50"/>
-      <c r="U20" s="50"/>
-      <c r="V20" s="50"/>
-      <c r="W20" s="50"/>
-      <c r="X20" s="50"/>
-      <c r="Y20" s="51"/>
-      <c r="Z20" s="49" t="s">
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="46"/>
+      <c r="O20" s="46"/>
+      <c r="P20" s="46"/>
+      <c r="Q20" s="46"/>
+      <c r="R20" s="46"/>
+      <c r="S20" s="46"/>
+      <c r="T20" s="46"/>
+      <c r="U20" s="46"/>
+      <c r="V20" s="46"/>
+      <c r="W20" s="46"/>
+      <c r="X20" s="46"/>
+      <c r="Y20" s="47"/>
+      <c r="Z20" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="AA20" s="50"/>
-      <c r="AB20" s="50"/>
-      <c r="AC20" s="50"/>
-      <c r="AD20" s="50"/>
-      <c r="AE20" s="50"/>
-      <c r="AF20" s="50"/>
-      <c r="AG20" s="50"/>
-      <c r="AH20" s="51"/>
+      <c r="AA20" s="46"/>
+      <c r="AB20" s="46"/>
+      <c r="AC20" s="46"/>
+      <c r="AD20" s="46"/>
+      <c r="AE20" s="46"/>
+      <c r="AF20" s="46"/>
+      <c r="AG20" s="46"/>
+      <c r="AH20" s="47"/>
     </row>
     <row r="21" spans="1:34" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B21" s="41">
         <v>1</v>
       </c>
-      <c r="C21" s="58" t="s">
+      <c r="C21" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="58" t="s">
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="48" t="s">
         <v>153</v>
       </c>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="59"/>
-      <c r="M21" s="59"/>
-      <c r="N21" s="59"/>
-      <c r="O21" s="59"/>
-      <c r="P21" s="59"/>
-      <c r="Q21" s="59"/>
-      <c r="R21" s="59"/>
-      <c r="S21" s="59"/>
-      <c r="T21" s="59"/>
-      <c r="U21" s="59"/>
-      <c r="V21" s="59"/>
-      <c r="W21" s="59"/>
-      <c r="X21" s="59"/>
-      <c r="Y21" s="60"/>
-      <c r="Z21" s="58"/>
-      <c r="AA21" s="59"/>
-      <c r="AB21" s="59"/>
-      <c r="AC21" s="59"/>
-      <c r="AD21" s="59"/>
-      <c r="AE21" s="59"/>
-      <c r="AF21" s="59"/>
-      <c r="AG21" s="59"/>
-      <c r="AH21" s="60"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="49"/>
+      <c r="N21" s="49"/>
+      <c r="O21" s="49"/>
+      <c r="P21" s="49"/>
+      <c r="Q21" s="49"/>
+      <c r="R21" s="49"/>
+      <c r="S21" s="49"/>
+      <c r="T21" s="49"/>
+      <c r="U21" s="49"/>
+      <c r="V21" s="49"/>
+      <c r="W21" s="49"/>
+      <c r="X21" s="49"/>
+      <c r="Y21" s="50"/>
+      <c r="Z21" s="48"/>
+      <c r="AA21" s="49"/>
+      <c r="AB21" s="49"/>
+      <c r="AC21" s="49"/>
+      <c r="AD21" s="49"/>
+      <c r="AE21" s="49"/>
+      <c r="AF21" s="49"/>
+      <c r="AG21" s="49"/>
+      <c r="AH21" s="50"/>
     </row>
     <row r="22" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="41">
@@ -10643,7 +11135,7 @@
       <c r="G23" s="43"/>
       <c r="H23" s="44"/>
       <c r="I23" s="42" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J23" s="43"/>
       <c r="K23" s="43"/>
@@ -10685,7 +11177,7 @@
       <c r="G24" s="43"/>
       <c r="H24" s="44"/>
       <c r="I24" s="42" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J24" s="43"/>
       <c r="K24" s="43"/>
@@ -10895,87 +11387,87 @@
       <c r="B34" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="C34" s="49" t="s">
+      <c r="C34" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="D34" s="50"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="50"/>
-      <c r="G34" s="50"/>
-      <c r="H34" s="51"/>
-      <c r="I34" s="52" t="s">
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="J34" s="52"/>
-      <c r="K34" s="52"/>
-      <c r="L34" s="52"/>
-      <c r="M34" s="52"/>
-      <c r="N34" s="52"/>
-      <c r="O34" s="52"/>
-      <c r="P34" s="52"/>
-      <c r="Q34" s="52"/>
-      <c r="R34" s="52"/>
-      <c r="S34" s="52"/>
-      <c r="T34" s="52"/>
-      <c r="U34" s="52"/>
-      <c r="V34" s="52"/>
-      <c r="W34" s="52"/>
-      <c r="X34" s="52" t="s">
+      <c r="J34" s="51"/>
+      <c r="K34" s="51"/>
+      <c r="L34" s="51"/>
+      <c r="M34" s="51"/>
+      <c r="N34" s="51"/>
+      <c r="O34" s="51"/>
+      <c r="P34" s="51"/>
+      <c r="Q34" s="51"/>
+      <c r="R34" s="51"/>
+      <c r="S34" s="51"/>
+      <c r="T34" s="51"/>
+      <c r="U34" s="51"/>
+      <c r="V34" s="51"/>
+      <c r="W34" s="51"/>
+      <c r="X34" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="Y34" s="52"/>
-      <c r="Z34" s="52"/>
-      <c r="AA34" s="52"/>
-      <c r="AB34" s="52" t="s">
+      <c r="Y34" s="51"/>
+      <c r="Z34" s="51"/>
+      <c r="AA34" s="51"/>
+      <c r="AB34" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="AC34" s="52"/>
-      <c r="AD34" s="52"/>
-      <c r="AE34" s="52"/>
-      <c r="AF34" s="52"/>
-      <c r="AG34" s="52"/>
-      <c r="AH34" s="52"/>
+      <c r="AC34" s="51"/>
+      <c r="AD34" s="51"/>
+      <c r="AE34" s="51"/>
+      <c r="AF34" s="51"/>
+      <c r="AG34" s="51"/>
+      <c r="AH34" s="51"/>
     </row>
     <row r="35" spans="2:34" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B35" s="18">
         <v>1</v>
       </c>
-      <c r="C35" s="53" t="s">
+      <c r="C35" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="D35" s="54"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="54"/>
-      <c r="G35" s="54"/>
-      <c r="H35" s="55"/>
-      <c r="I35" s="56" t="s">
+      <c r="D35" s="53"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="53"/>
+      <c r="H35" s="54"/>
+      <c r="I35" s="55" t="s">
         <v>119</v>
       </c>
-      <c r="J35" s="56"/>
-      <c r="K35" s="56"/>
-      <c r="L35" s="56"/>
-      <c r="M35" s="56"/>
-      <c r="N35" s="56"/>
-      <c r="O35" s="56"/>
-      <c r="P35" s="56"/>
-      <c r="Q35" s="56"/>
-      <c r="R35" s="56"/>
-      <c r="S35" s="56"/>
-      <c r="T35" s="56"/>
-      <c r="U35" s="56"/>
-      <c r="V35" s="56"/>
-      <c r="W35" s="56"/>
-      <c r="X35" s="57"/>
-      <c r="Y35" s="57"/>
-      <c r="Z35" s="57"/>
-      <c r="AA35" s="57"/>
-      <c r="AB35" s="53"/>
-      <c r="AC35" s="54"/>
-      <c r="AD35" s="54"/>
-      <c r="AE35" s="54"/>
-      <c r="AF35" s="54"/>
-      <c r="AG35" s="54"/>
-      <c r="AH35" s="55"/>
+      <c r="J35" s="55"/>
+      <c r="K35" s="55"/>
+      <c r="L35" s="55"/>
+      <c r="M35" s="55"/>
+      <c r="N35" s="55"/>
+      <c r="O35" s="55"/>
+      <c r="P35" s="55"/>
+      <c r="Q35" s="55"/>
+      <c r="R35" s="55"/>
+      <c r="S35" s="55"/>
+      <c r="T35" s="55"/>
+      <c r="U35" s="55"/>
+      <c r="V35" s="55"/>
+      <c r="W35" s="55"/>
+      <c r="X35" s="56"/>
+      <c r="Y35" s="56"/>
+      <c r="Z35" s="56"/>
+      <c r="AA35" s="56"/>
+      <c r="AB35" s="52"/>
+      <c r="AC35" s="53"/>
+      <c r="AD35" s="53"/>
+      <c r="AE35" s="53"/>
+      <c r="AF35" s="53"/>
+      <c r="AG35" s="53"/>
+      <c r="AH35" s="54"/>
     </row>
     <row r="36" spans="2:34" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="41">
@@ -10990,34 +11482,34 @@
       <c r="F36" s="43"/>
       <c r="G36" s="43"/>
       <c r="H36" s="44"/>
-      <c r="I36" s="45" t="s">
+      <c r="I36" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="J36" s="45"/>
-      <c r="K36" s="45"/>
-      <c r="L36" s="45"/>
-      <c r="M36" s="45"/>
-      <c r="N36" s="45"/>
-      <c r="O36" s="45"/>
-      <c r="P36" s="45"/>
-      <c r="Q36" s="45"/>
-      <c r="R36" s="45"/>
-      <c r="S36" s="45"/>
-      <c r="T36" s="45"/>
-      <c r="U36" s="45"/>
-      <c r="V36" s="45"/>
-      <c r="W36" s="45"/>
-      <c r="X36" s="47"/>
-      <c r="Y36" s="47"/>
-      <c r="Z36" s="47"/>
-      <c r="AA36" s="47"/>
-      <c r="AB36" s="47"/>
-      <c r="AC36" s="47"/>
-      <c r="AD36" s="47"/>
-      <c r="AE36" s="47"/>
-      <c r="AF36" s="47"/>
-      <c r="AG36" s="47"/>
-      <c r="AH36" s="47"/>
+      <c r="J36" s="57"/>
+      <c r="K36" s="57"/>
+      <c r="L36" s="57"/>
+      <c r="M36" s="57"/>
+      <c r="N36" s="57"/>
+      <c r="O36" s="57"/>
+      <c r="P36" s="57"/>
+      <c r="Q36" s="57"/>
+      <c r="R36" s="57"/>
+      <c r="S36" s="57"/>
+      <c r="T36" s="57"/>
+      <c r="U36" s="57"/>
+      <c r="V36" s="57"/>
+      <c r="W36" s="57"/>
+      <c r="X36" s="58"/>
+      <c r="Y36" s="58"/>
+      <c r="Z36" s="58"/>
+      <c r="AA36" s="58"/>
+      <c r="AB36" s="58"/>
+      <c r="AC36" s="58"/>
+      <c r="AD36" s="58"/>
+      <c r="AE36" s="58"/>
+      <c r="AF36" s="58"/>
+      <c r="AG36" s="58"/>
+      <c r="AH36" s="58"/>
     </row>
     <row r="37" spans="2:34" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="41">
@@ -11032,34 +11524,34 @@
       <c r="F37" s="43"/>
       <c r="G37" s="43"/>
       <c r="H37" s="44"/>
-      <c r="I37" s="45" t="s">
+      <c r="I37" s="57" t="s">
         <v>122</v>
       </c>
-      <c r="J37" s="45"/>
-      <c r="K37" s="45"/>
-      <c r="L37" s="45"/>
-      <c r="M37" s="45"/>
-      <c r="N37" s="45"/>
-      <c r="O37" s="45"/>
-      <c r="P37" s="45"/>
-      <c r="Q37" s="45"/>
-      <c r="R37" s="45"/>
-      <c r="S37" s="45"/>
-      <c r="T37" s="45"/>
-      <c r="U37" s="45"/>
-      <c r="V37" s="45"/>
-      <c r="W37" s="45"/>
-      <c r="X37" s="47"/>
-      <c r="Y37" s="47"/>
-      <c r="Z37" s="47"/>
-      <c r="AA37" s="47"/>
-      <c r="AB37" s="47"/>
-      <c r="AC37" s="47"/>
-      <c r="AD37" s="47"/>
-      <c r="AE37" s="47"/>
-      <c r="AF37" s="47"/>
-      <c r="AG37" s="47"/>
-      <c r="AH37" s="47"/>
+      <c r="J37" s="57"/>
+      <c r="K37" s="57"/>
+      <c r="L37" s="57"/>
+      <c r="M37" s="57"/>
+      <c r="N37" s="57"/>
+      <c r="O37" s="57"/>
+      <c r="P37" s="57"/>
+      <c r="Q37" s="57"/>
+      <c r="R37" s="57"/>
+      <c r="S37" s="57"/>
+      <c r="T37" s="57"/>
+      <c r="U37" s="57"/>
+      <c r="V37" s="57"/>
+      <c r="W37" s="57"/>
+      <c r="X37" s="58"/>
+      <c r="Y37" s="58"/>
+      <c r="Z37" s="58"/>
+      <c r="AA37" s="58"/>
+      <c r="AB37" s="58"/>
+      <c r="AC37" s="58"/>
+      <c r="AD37" s="58"/>
+      <c r="AE37" s="58"/>
+      <c r="AF37" s="58"/>
+      <c r="AG37" s="58"/>
+      <c r="AH37" s="58"/>
     </row>
     <row r="38" spans="2:34" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="41">
@@ -11074,34 +11566,34 @@
       <c r="F38" s="43"/>
       <c r="G38" s="43"/>
       <c r="H38" s="44"/>
-      <c r="I38" s="45" t="s">
+      <c r="I38" s="57" t="s">
         <v>124</v>
       </c>
-      <c r="J38" s="45"/>
-      <c r="K38" s="45"/>
-      <c r="L38" s="45"/>
-      <c r="M38" s="45"/>
-      <c r="N38" s="45"/>
-      <c r="O38" s="45"/>
-      <c r="P38" s="45"/>
-      <c r="Q38" s="45"/>
-      <c r="R38" s="45"/>
-      <c r="S38" s="45"/>
-      <c r="T38" s="45"/>
-      <c r="U38" s="45"/>
-      <c r="V38" s="45"/>
-      <c r="W38" s="45"/>
-      <c r="X38" s="46"/>
-      <c r="Y38" s="46"/>
-      <c r="Z38" s="46"/>
-      <c r="AA38" s="46"/>
-      <c r="AB38" s="47"/>
-      <c r="AC38" s="47"/>
-      <c r="AD38" s="47"/>
-      <c r="AE38" s="47"/>
-      <c r="AF38" s="47"/>
-      <c r="AG38" s="47"/>
-      <c r="AH38" s="47"/>
+      <c r="J38" s="57"/>
+      <c r="K38" s="57"/>
+      <c r="L38" s="57"/>
+      <c r="M38" s="57"/>
+      <c r="N38" s="57"/>
+      <c r="O38" s="57"/>
+      <c r="P38" s="57"/>
+      <c r="Q38" s="57"/>
+      <c r="R38" s="57"/>
+      <c r="S38" s="57"/>
+      <c r="T38" s="57"/>
+      <c r="U38" s="57"/>
+      <c r="V38" s="57"/>
+      <c r="W38" s="57"/>
+      <c r="X38" s="59"/>
+      <c r="Y38" s="59"/>
+      <c r="Z38" s="59"/>
+      <c r="AA38" s="59"/>
+      <c r="AB38" s="58"/>
+      <c r="AC38" s="58"/>
+      <c r="AD38" s="58"/>
+      <c r="AE38" s="58"/>
+      <c r="AF38" s="58"/>
+      <c r="AG38" s="58"/>
+      <c r="AH38" s="58"/>
     </row>
     <row r="39" spans="2:34" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="41">
@@ -11116,27 +11608,27 @@
       <c r="F39" s="43"/>
       <c r="G39" s="43"/>
       <c r="H39" s="44"/>
-      <c r="I39" s="45" t="s">
+      <c r="I39" s="57" t="s">
         <v>126</v>
       </c>
-      <c r="J39" s="45"/>
-      <c r="K39" s="45"/>
-      <c r="L39" s="45"/>
-      <c r="M39" s="45"/>
-      <c r="N39" s="45"/>
-      <c r="O39" s="45"/>
-      <c r="P39" s="45"/>
-      <c r="Q39" s="45"/>
-      <c r="R39" s="45"/>
-      <c r="S39" s="45"/>
-      <c r="T39" s="45"/>
-      <c r="U39" s="45"/>
-      <c r="V39" s="45"/>
-      <c r="W39" s="45"/>
-      <c r="X39" s="48"/>
-      <c r="Y39" s="48"/>
-      <c r="Z39" s="48"/>
-      <c r="AA39" s="48"/>
+      <c r="J39" s="57"/>
+      <c r="K39" s="57"/>
+      <c r="L39" s="57"/>
+      <c r="M39" s="57"/>
+      <c r="N39" s="57"/>
+      <c r="O39" s="57"/>
+      <c r="P39" s="57"/>
+      <c r="Q39" s="57"/>
+      <c r="R39" s="57"/>
+      <c r="S39" s="57"/>
+      <c r="T39" s="57"/>
+      <c r="U39" s="57"/>
+      <c r="V39" s="57"/>
+      <c r="W39" s="57"/>
+      <c r="X39" s="60"/>
+      <c r="Y39" s="60"/>
+      <c r="Z39" s="60"/>
+      <c r="AA39" s="60"/>
       <c r="AB39" s="42"/>
       <c r="AC39" s="43"/>
       <c r="AD39" s="43"/>
@@ -11209,85 +11701,85 @@
       <c r="B50" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C50" s="49" t="s">
+      <c r="C50" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="D50" s="50"/>
-      <c r="E50" s="50"/>
-      <c r="F50" s="50"/>
-      <c r="G50" s="50"/>
-      <c r="H50" s="51"/>
-      <c r="I50" s="49" t="s">
+      <c r="D50" s="46"/>
+      <c r="E50" s="46"/>
+      <c r="F50" s="46"/>
+      <c r="G50" s="46"/>
+      <c r="H50" s="47"/>
+      <c r="I50" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="J50" s="50"/>
-      <c r="K50" s="50"/>
-      <c r="L50" s="50"/>
-      <c r="M50" s="50"/>
-      <c r="N50" s="50"/>
-      <c r="O50" s="50"/>
-      <c r="P50" s="50"/>
-      <c r="Q50" s="50"/>
-      <c r="R50" s="50"/>
-      <c r="S50" s="50"/>
-      <c r="T50" s="50"/>
-      <c r="U50" s="50"/>
-      <c r="V50" s="50"/>
-      <c r="W50" s="50"/>
-      <c r="X50" s="50"/>
-      <c r="Y50" s="51"/>
-      <c r="Z50" s="49" t="s">
+      <c r="J50" s="46"/>
+      <c r="K50" s="46"/>
+      <c r="L50" s="46"/>
+      <c r="M50" s="46"/>
+      <c r="N50" s="46"/>
+      <c r="O50" s="46"/>
+      <c r="P50" s="46"/>
+      <c r="Q50" s="46"/>
+      <c r="R50" s="46"/>
+      <c r="S50" s="46"/>
+      <c r="T50" s="46"/>
+      <c r="U50" s="46"/>
+      <c r="V50" s="46"/>
+      <c r="W50" s="46"/>
+      <c r="X50" s="46"/>
+      <c r="Y50" s="47"/>
+      <c r="Z50" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="AA50" s="50"/>
-      <c r="AB50" s="50"/>
-      <c r="AC50" s="50"/>
-      <c r="AD50" s="50"/>
-      <c r="AE50" s="50"/>
-      <c r="AF50" s="50"/>
-      <c r="AG50" s="50"/>
-      <c r="AH50" s="51"/>
+      <c r="AA50" s="46"/>
+      <c r="AB50" s="46"/>
+      <c r="AC50" s="46"/>
+      <c r="AD50" s="46"/>
+      <c r="AE50" s="46"/>
+      <c r="AF50" s="46"/>
+      <c r="AG50" s="46"/>
+      <c r="AH50" s="47"/>
     </row>
     <row r="51" spans="2:34" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B51" s="41">
         <v>1</v>
       </c>
-      <c r="C51" s="58" t="s">
+      <c r="C51" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="D51" s="59"/>
-      <c r="E51" s="59"/>
-      <c r="F51" s="59"/>
-      <c r="G51" s="59"/>
-      <c r="H51" s="60"/>
-      <c r="I51" s="58" t="s">
+      <c r="D51" s="49"/>
+      <c r="E51" s="49"/>
+      <c r="F51" s="49"/>
+      <c r="G51" s="49"/>
+      <c r="H51" s="50"/>
+      <c r="I51" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="J51" s="59"/>
-      <c r="K51" s="59"/>
-      <c r="L51" s="59"/>
-      <c r="M51" s="59"/>
-      <c r="N51" s="59"/>
-      <c r="O51" s="59"/>
-      <c r="P51" s="59"/>
-      <c r="Q51" s="59"/>
-      <c r="R51" s="59"/>
-      <c r="S51" s="59"/>
-      <c r="T51" s="59"/>
-      <c r="U51" s="59"/>
-      <c r="V51" s="59"/>
-      <c r="W51" s="59"/>
-      <c r="X51" s="59"/>
-      <c r="Y51" s="60"/>
-      <c r="Z51" s="58"/>
-      <c r="AA51" s="59"/>
-      <c r="AB51" s="59"/>
-      <c r="AC51" s="59"/>
-      <c r="AD51" s="59"/>
-      <c r="AE51" s="59"/>
-      <c r="AF51" s="59"/>
-      <c r="AG51" s="59"/>
-      <c r="AH51" s="60"/>
+      <c r="J51" s="49"/>
+      <c r="K51" s="49"/>
+      <c r="L51" s="49"/>
+      <c r="M51" s="49"/>
+      <c r="N51" s="49"/>
+      <c r="O51" s="49"/>
+      <c r="P51" s="49"/>
+      <c r="Q51" s="49"/>
+      <c r="R51" s="49"/>
+      <c r="S51" s="49"/>
+      <c r="T51" s="49"/>
+      <c r="U51" s="49"/>
+      <c r="V51" s="49"/>
+      <c r="W51" s="49"/>
+      <c r="X51" s="49"/>
+      <c r="Y51" s="50"/>
+      <c r="Z51" s="48"/>
+      <c r="AA51" s="49"/>
+      <c r="AB51" s="49"/>
+      <c r="AC51" s="49"/>
+      <c r="AD51" s="49"/>
+      <c r="AE51" s="49"/>
+      <c r="AF51" s="49"/>
+      <c r="AG51" s="49"/>
+      <c r="AH51" s="50"/>
     </row>
     <row r="52" spans="2:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B52" s="41">
@@ -11387,7 +11879,7 @@
       <c r="G54" s="43"/>
       <c r="H54" s="44"/>
       <c r="I54" s="42" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J54" s="43"/>
       <c r="K54" s="43"/>
@@ -11471,85 +11963,85 @@
       <c r="B61" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C61" s="49" t="s">
+      <c r="C61" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="D61" s="50"/>
-      <c r="E61" s="50"/>
-      <c r="F61" s="50"/>
-      <c r="G61" s="50"/>
-      <c r="H61" s="51"/>
-      <c r="I61" s="49" t="s">
+      <c r="D61" s="46"/>
+      <c r="E61" s="46"/>
+      <c r="F61" s="46"/>
+      <c r="G61" s="46"/>
+      <c r="H61" s="47"/>
+      <c r="I61" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="J61" s="50"/>
-      <c r="K61" s="50"/>
-      <c r="L61" s="50"/>
-      <c r="M61" s="50"/>
-      <c r="N61" s="50"/>
-      <c r="O61" s="50"/>
-      <c r="P61" s="50"/>
-      <c r="Q61" s="50"/>
-      <c r="R61" s="50"/>
-      <c r="S61" s="50"/>
-      <c r="T61" s="50"/>
-      <c r="U61" s="50"/>
-      <c r="V61" s="50"/>
-      <c r="W61" s="50"/>
-      <c r="X61" s="50"/>
-      <c r="Y61" s="51"/>
-      <c r="Z61" s="49" t="s">
+      <c r="J61" s="46"/>
+      <c r="K61" s="46"/>
+      <c r="L61" s="46"/>
+      <c r="M61" s="46"/>
+      <c r="N61" s="46"/>
+      <c r="O61" s="46"/>
+      <c r="P61" s="46"/>
+      <c r="Q61" s="46"/>
+      <c r="R61" s="46"/>
+      <c r="S61" s="46"/>
+      <c r="T61" s="46"/>
+      <c r="U61" s="46"/>
+      <c r="V61" s="46"/>
+      <c r="W61" s="46"/>
+      <c r="X61" s="46"/>
+      <c r="Y61" s="47"/>
+      <c r="Z61" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="AA61" s="50"/>
-      <c r="AB61" s="50"/>
-      <c r="AC61" s="50"/>
-      <c r="AD61" s="50"/>
-      <c r="AE61" s="50"/>
-      <c r="AF61" s="50"/>
-      <c r="AG61" s="50"/>
-      <c r="AH61" s="51"/>
+      <c r="AA61" s="46"/>
+      <c r="AB61" s="46"/>
+      <c r="AC61" s="46"/>
+      <c r="AD61" s="46"/>
+      <c r="AE61" s="46"/>
+      <c r="AF61" s="46"/>
+      <c r="AG61" s="46"/>
+      <c r="AH61" s="47"/>
     </row>
     <row r="62" spans="2:34" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B62" s="41">
         <v>1</v>
       </c>
-      <c r="C62" s="58" t="s">
+      <c r="C62" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="D62" s="59"/>
-      <c r="E62" s="59"/>
-      <c r="F62" s="59"/>
-      <c r="G62" s="59"/>
-      <c r="H62" s="60"/>
-      <c r="I62" s="58" t="s">
+      <c r="D62" s="49"/>
+      <c r="E62" s="49"/>
+      <c r="F62" s="49"/>
+      <c r="G62" s="49"/>
+      <c r="H62" s="50"/>
+      <c r="I62" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="J62" s="59"/>
-      <c r="K62" s="59"/>
-      <c r="L62" s="59"/>
-      <c r="M62" s="59"/>
-      <c r="N62" s="59"/>
-      <c r="O62" s="59"/>
-      <c r="P62" s="59"/>
-      <c r="Q62" s="59"/>
-      <c r="R62" s="59"/>
-      <c r="S62" s="59"/>
-      <c r="T62" s="59"/>
-      <c r="U62" s="59"/>
-      <c r="V62" s="59"/>
-      <c r="W62" s="59"/>
-      <c r="X62" s="59"/>
-      <c r="Y62" s="60"/>
-      <c r="Z62" s="58"/>
-      <c r="AA62" s="59"/>
-      <c r="AB62" s="59"/>
-      <c r="AC62" s="59"/>
-      <c r="AD62" s="59"/>
-      <c r="AE62" s="59"/>
-      <c r="AF62" s="59"/>
-      <c r="AG62" s="59"/>
-      <c r="AH62" s="60"/>
+      <c r="J62" s="49"/>
+      <c r="K62" s="49"/>
+      <c r="L62" s="49"/>
+      <c r="M62" s="49"/>
+      <c r="N62" s="49"/>
+      <c r="O62" s="49"/>
+      <c r="P62" s="49"/>
+      <c r="Q62" s="49"/>
+      <c r="R62" s="49"/>
+      <c r="S62" s="49"/>
+      <c r="T62" s="49"/>
+      <c r="U62" s="49"/>
+      <c r="V62" s="49"/>
+      <c r="W62" s="49"/>
+      <c r="X62" s="49"/>
+      <c r="Y62" s="50"/>
+      <c r="Z62" s="48"/>
+      <c r="AA62" s="49"/>
+      <c r="AB62" s="49"/>
+      <c r="AC62" s="49"/>
+      <c r="AD62" s="49"/>
+      <c r="AE62" s="49"/>
+      <c r="AF62" s="49"/>
+      <c r="AG62" s="49"/>
+      <c r="AH62" s="50"/>
     </row>
     <row r="63" spans="2:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B63" s="41">
@@ -11564,7 +12056,7 @@
       <c r="G63" s="43"/>
       <c r="H63" s="44"/>
       <c r="I63" s="42" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J63" s="43"/>
       <c r="K63" s="43"/>
@@ -11743,7 +12235,7 @@
     <row r="68" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B68" s="19"/>
       <c r="C68" s="22" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D68" s="19"/>
       <c r="E68" s="19"/>
@@ -11825,71 +12317,6 @@
     </row>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="C26:H26"/>
-    <mergeCell ref="I26:Y26"/>
-    <mergeCell ref="Z26:AH26"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="I22:Y22"/>
-    <mergeCell ref="Z22:AH22"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="I24:Y24"/>
-    <mergeCell ref="Z24:AH24"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="I23:Y23"/>
-    <mergeCell ref="Z23:AH23"/>
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="I25:Y25"/>
-    <mergeCell ref="Z25:AH25"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="I20:Y20"/>
-    <mergeCell ref="Z20:AH20"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="I21:Y21"/>
-    <mergeCell ref="Z21:AH21"/>
-    <mergeCell ref="C63:H63"/>
-    <mergeCell ref="I63:Y63"/>
-    <mergeCell ref="Z63:AH63"/>
-    <mergeCell ref="C61:H61"/>
-    <mergeCell ref="I61:Y61"/>
-    <mergeCell ref="Z61:AH61"/>
-    <mergeCell ref="C62:H62"/>
-    <mergeCell ref="I62:Y62"/>
-    <mergeCell ref="Z62:AH62"/>
-    <mergeCell ref="C50:H50"/>
-    <mergeCell ref="I50:Y50"/>
-    <mergeCell ref="Z50:AH50"/>
-    <mergeCell ref="C51:H51"/>
-    <mergeCell ref="I51:Y51"/>
-    <mergeCell ref="Z51:AH51"/>
-    <mergeCell ref="C52:H52"/>
-    <mergeCell ref="I52:Y52"/>
-    <mergeCell ref="Z52:AH52"/>
-    <mergeCell ref="C53:H53"/>
-    <mergeCell ref="I53:Y53"/>
-    <mergeCell ref="Z53:AH53"/>
-    <mergeCell ref="C54:H54"/>
-    <mergeCell ref="I54:Y54"/>
-    <mergeCell ref="Z54:AH54"/>
-    <mergeCell ref="C55:H55"/>
-    <mergeCell ref="I55:Y55"/>
-    <mergeCell ref="Z55:AH55"/>
-    <mergeCell ref="C34:H34"/>
-    <mergeCell ref="I34:W34"/>
-    <mergeCell ref="X34:AA34"/>
-    <mergeCell ref="AB34:AH34"/>
-    <mergeCell ref="C35:H35"/>
-    <mergeCell ref="I35:W35"/>
-    <mergeCell ref="X35:AA35"/>
-    <mergeCell ref="AB35:AH35"/>
-    <mergeCell ref="AB39:AH39"/>
-    <mergeCell ref="C36:H36"/>
-    <mergeCell ref="I36:W36"/>
-    <mergeCell ref="X36:AA36"/>
-    <mergeCell ref="AB36:AH36"/>
-    <mergeCell ref="C37:H37"/>
-    <mergeCell ref="I37:W37"/>
-    <mergeCell ref="X37:AA37"/>
-    <mergeCell ref="AB37:AH37"/>
     <mergeCell ref="C64:H64"/>
     <mergeCell ref="I64:Y64"/>
     <mergeCell ref="Z64:AH64"/>
@@ -11906,6 +12333,71 @@
     <mergeCell ref="C39:H39"/>
     <mergeCell ref="I39:W39"/>
     <mergeCell ref="X39:AA39"/>
+    <mergeCell ref="AB39:AH39"/>
+    <mergeCell ref="C36:H36"/>
+    <mergeCell ref="I36:W36"/>
+    <mergeCell ref="X36:AA36"/>
+    <mergeCell ref="AB36:AH36"/>
+    <mergeCell ref="C37:H37"/>
+    <mergeCell ref="I37:W37"/>
+    <mergeCell ref="X37:AA37"/>
+    <mergeCell ref="AB37:AH37"/>
+    <mergeCell ref="C34:H34"/>
+    <mergeCell ref="I34:W34"/>
+    <mergeCell ref="X34:AA34"/>
+    <mergeCell ref="AB34:AH34"/>
+    <mergeCell ref="C35:H35"/>
+    <mergeCell ref="I35:W35"/>
+    <mergeCell ref="X35:AA35"/>
+    <mergeCell ref="AB35:AH35"/>
+    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="I54:Y54"/>
+    <mergeCell ref="Z54:AH54"/>
+    <mergeCell ref="C55:H55"/>
+    <mergeCell ref="I55:Y55"/>
+    <mergeCell ref="Z55:AH55"/>
+    <mergeCell ref="C52:H52"/>
+    <mergeCell ref="I52:Y52"/>
+    <mergeCell ref="Z52:AH52"/>
+    <mergeCell ref="C53:H53"/>
+    <mergeCell ref="I53:Y53"/>
+    <mergeCell ref="Z53:AH53"/>
+    <mergeCell ref="C50:H50"/>
+    <mergeCell ref="I50:Y50"/>
+    <mergeCell ref="Z50:AH50"/>
+    <mergeCell ref="C51:H51"/>
+    <mergeCell ref="I51:Y51"/>
+    <mergeCell ref="Z51:AH51"/>
+    <mergeCell ref="C63:H63"/>
+    <mergeCell ref="I63:Y63"/>
+    <mergeCell ref="Z63:AH63"/>
+    <mergeCell ref="C61:H61"/>
+    <mergeCell ref="I61:Y61"/>
+    <mergeCell ref="Z61:AH61"/>
+    <mergeCell ref="C62:H62"/>
+    <mergeCell ref="I62:Y62"/>
+    <mergeCell ref="Z62:AH62"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="I20:Y20"/>
+    <mergeCell ref="Z20:AH20"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="I21:Y21"/>
+    <mergeCell ref="Z21:AH21"/>
+    <mergeCell ref="C26:H26"/>
+    <mergeCell ref="I26:Y26"/>
+    <mergeCell ref="Z26:AH26"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="I22:Y22"/>
+    <mergeCell ref="Z22:AH22"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="I24:Y24"/>
+    <mergeCell ref="Z24:AH24"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="I23:Y23"/>
+    <mergeCell ref="Z23:AH23"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="I25:Y25"/>
+    <mergeCell ref="Z25:AH25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
@@ -11923,7 +12415,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AW35"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
@@ -11953,1651 +12445,1779 @@
     </row>
     <row r="5" spans="1:49" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="6" spans="1:49" s="4" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="85" t="s">
+      <c r="B6" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52" t="s">
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52" t="s">
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="49" t="s">
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="N6" s="50"/>
-      <c r="O6" s="50"/>
-      <c r="P6" s="50"/>
-      <c r="Q6" s="50"/>
-      <c r="R6" s="51"/>
-      <c r="S6" s="49" t="s">
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="46"/>
+      <c r="Q6" s="46"/>
+      <c r="R6" s="47"/>
+      <c r="S6" s="45" t="s">
         <v>159</v>
       </c>
-      <c r="T6" s="50"/>
-      <c r="U6" s="51"/>
-      <c r="V6" s="52" t="s">
+      <c r="T6" s="46"/>
+      <c r="U6" s="47"/>
+      <c r="V6" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="W6" s="52"/>
-      <c r="X6" s="52"/>
-      <c r="Y6" s="52"/>
-      <c r="Z6" s="52"/>
-      <c r="AA6" s="52"/>
-      <c r="AB6" s="52"/>
-      <c r="AC6" s="52"/>
-      <c r="AD6" s="52"/>
-      <c r="AE6" s="52"/>
-      <c r="AF6" s="52"/>
-      <c r="AG6" s="52"/>
-      <c r="AH6" s="52"/>
-      <c r="AI6" s="52"/>
-      <c r="AJ6" s="86" t="s">
+      <c r="W6" s="51"/>
+      <c r="X6" s="51"/>
+      <c r="Y6" s="51"/>
+      <c r="Z6" s="51"/>
+      <c r="AA6" s="51"/>
+      <c r="AB6" s="51"/>
+      <c r="AC6" s="51"/>
+      <c r="AD6" s="51"/>
+      <c r="AE6" s="51"/>
+      <c r="AF6" s="51"/>
+      <c r="AG6" s="51"/>
+      <c r="AH6" s="51"/>
+      <c r="AI6" s="51"/>
+      <c r="AJ6" s="62" t="s">
         <v>144</v>
       </c>
-      <c r="AK6" s="87"/>
-      <c r="AL6" s="88"/>
-      <c r="AM6" s="89" t="s">
+      <c r="AK6" s="63"/>
+      <c r="AL6" s="64"/>
+      <c r="AM6" s="65" t="s">
         <v>145</v>
       </c>
-      <c r="AN6" s="89"/>
-      <c r="AO6" s="89"/>
-      <c r="AP6" s="89"/>
-      <c r="AQ6" s="89"/>
-      <c r="AR6" s="52" t="s">
+      <c r="AN6" s="65"/>
+      <c r="AO6" s="65"/>
+      <c r="AP6" s="65"/>
+      <c r="AQ6" s="65"/>
+      <c r="AR6" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="AS6" s="52"/>
-      <c r="AT6" s="52"/>
-      <c r="AU6" s="52"/>
-      <c r="AV6" s="52"/>
-      <c r="AW6" s="52"/>
+      <c r="AS6" s="51"/>
+      <c r="AT6" s="51"/>
+      <c r="AU6" s="51"/>
+      <c r="AV6" s="51"/>
+      <c r="AW6" s="51"/>
     </row>
     <row r="7" spans="1:49" s="4" customFormat="1" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56" t="s">
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="83" t="s">
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="77" t="s">
         <v>58</v>
       </c>
-      <c r="K7" s="83"/>
-      <c r="L7" s="83"/>
-      <c r="M7" s="83" t="s">
+      <c r="K7" s="77"/>
+      <c r="L7" s="77"/>
+      <c r="M7" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="N7" s="83"/>
-      <c r="O7" s="83"/>
-      <c r="P7" s="83"/>
-      <c r="Q7" s="83"/>
-      <c r="R7" s="83"/>
-      <c r="S7" s="58" t="s">
+      <c r="N7" s="77"/>
+      <c r="O7" s="77"/>
+      <c r="P7" s="77"/>
+      <c r="Q7" s="77"/>
+      <c r="R7" s="77"/>
+      <c r="S7" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="T7" s="59"/>
-      <c r="U7" s="60"/>
-      <c r="V7" s="83" t="s">
+      <c r="T7" s="49"/>
+      <c r="U7" s="50"/>
+      <c r="V7" s="77" t="s">
         <v>111</v>
       </c>
-      <c r="W7" s="83"/>
-      <c r="X7" s="83"/>
-      <c r="Y7" s="83"/>
-      <c r="Z7" s="83"/>
-      <c r="AA7" s="83"/>
-      <c r="AB7" s="83"/>
-      <c r="AC7" s="83"/>
-      <c r="AD7" s="83"/>
-      <c r="AE7" s="83"/>
-      <c r="AF7" s="83"/>
-      <c r="AG7" s="83"/>
-      <c r="AH7" s="83"/>
-      <c r="AI7" s="83"/>
-      <c r="AJ7" s="76" t="s">
+      <c r="W7" s="77"/>
+      <c r="X7" s="77"/>
+      <c r="Y7" s="77"/>
+      <c r="Z7" s="77"/>
+      <c r="AA7" s="77"/>
+      <c r="AB7" s="77"/>
+      <c r="AC7" s="77"/>
+      <c r="AD7" s="77"/>
+      <c r="AE7" s="77"/>
+      <c r="AF7" s="77"/>
+      <c r="AG7" s="77"/>
+      <c r="AH7" s="77"/>
+      <c r="AI7" s="77"/>
+      <c r="AJ7" s="67" t="s">
         <v>146</v>
       </c>
-      <c r="AK7" s="77"/>
-      <c r="AL7" s="78"/>
-      <c r="AM7" s="76" t="s">
+      <c r="AK7" s="68"/>
+      <c r="AL7" s="69"/>
+      <c r="AM7" s="67" t="s">
         <v>147</v>
       </c>
-      <c r="AN7" s="77"/>
-      <c r="AO7" s="77"/>
-      <c r="AP7" s="77"/>
-      <c r="AQ7" s="78"/>
-      <c r="AR7" s="84"/>
-      <c r="AS7" s="84"/>
-      <c r="AT7" s="84"/>
-      <c r="AU7" s="84"/>
-      <c r="AV7" s="84"/>
-      <c r="AW7" s="84"/>
+      <c r="AN7" s="68"/>
+      <c r="AO7" s="68"/>
+      <c r="AP7" s="68"/>
+      <c r="AQ7" s="69"/>
+      <c r="AR7" s="78"/>
+      <c r="AS7" s="78"/>
+      <c r="AT7" s="78"/>
+      <c r="AU7" s="78"/>
+      <c r="AV7" s="78"/>
+      <c r="AW7" s="78"/>
     </row>
     <row r="8" spans="1:49" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="82"/>
-      <c r="C8" s="82"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="82"/>
-      <c r="J8" s="45" t="s">
+      <c r="B8" s="76"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45" t="s">
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="N8" s="45"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="45"/>
-      <c r="R8" s="45"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="57"/>
+      <c r="Q8" s="57"/>
+      <c r="R8" s="57"/>
       <c r="S8" s="42" t="s">
         <v>156</v>
       </c>
       <c r="T8" s="43"/>
       <c r="U8" s="44"/>
-      <c r="V8" s="45" t="s">
+      <c r="V8" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="W8" s="45"/>
-      <c r="X8" s="45"/>
-      <c r="Y8" s="45"/>
-      <c r="Z8" s="45"/>
-      <c r="AA8" s="45"/>
-      <c r="AB8" s="45"/>
-      <c r="AC8" s="45"/>
-      <c r="AD8" s="45"/>
-      <c r="AE8" s="45"/>
-      <c r="AF8" s="45"/>
-      <c r="AG8" s="45"/>
-      <c r="AH8" s="45"/>
-      <c r="AI8" s="45"/>
-      <c r="AJ8" s="79"/>
-      <c r="AK8" s="80"/>
-      <c r="AL8" s="81"/>
-      <c r="AM8" s="79"/>
-      <c r="AN8" s="80"/>
-      <c r="AO8" s="80"/>
-      <c r="AP8" s="80"/>
-      <c r="AQ8" s="81"/>
-      <c r="AR8" s="45"/>
-      <c r="AS8" s="45"/>
-      <c r="AT8" s="45"/>
-      <c r="AU8" s="45"/>
-      <c r="AV8" s="45"/>
-      <c r="AW8" s="45"/>
+      <c r="W8" s="57"/>
+      <c r="X8" s="57"/>
+      <c r="Y8" s="57"/>
+      <c r="Z8" s="57"/>
+      <c r="AA8" s="57"/>
+      <c r="AB8" s="57"/>
+      <c r="AC8" s="57"/>
+      <c r="AD8" s="57"/>
+      <c r="AE8" s="57"/>
+      <c r="AF8" s="57"/>
+      <c r="AG8" s="57"/>
+      <c r="AH8" s="57"/>
+      <c r="AI8" s="57"/>
+      <c r="AJ8" s="70"/>
+      <c r="AK8" s="71"/>
+      <c r="AL8" s="72"/>
+      <c r="AM8" s="70"/>
+      <c r="AN8" s="71"/>
+      <c r="AO8" s="71"/>
+      <c r="AP8" s="71"/>
+      <c r="AQ8" s="72"/>
+      <c r="AR8" s="57"/>
+      <c r="AS8" s="57"/>
+      <c r="AT8" s="57"/>
+      <c r="AU8" s="57"/>
+      <c r="AV8" s="57"/>
+      <c r="AW8" s="57"/>
     </row>
     <row r="9" spans="1:49" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="68"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="45" t="s">
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="45" t="s">
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="N9" s="45"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="45"/>
-      <c r="Q9" s="45"/>
-      <c r="R9" s="45"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="57"/>
+      <c r="Q9" s="57"/>
+      <c r="R9" s="57"/>
       <c r="S9" s="42" t="s">
         <v>157</v>
       </c>
       <c r="T9" s="43"/>
       <c r="U9" s="44"/>
-      <c r="V9" s="45" t="s">
+      <c r="V9" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="W9" s="45"/>
-      <c r="X9" s="45"/>
-      <c r="Y9" s="45"/>
-      <c r="Z9" s="45"/>
-      <c r="AA9" s="45"/>
-      <c r="AB9" s="45"/>
-      <c r="AC9" s="45"/>
-      <c r="AD9" s="45"/>
-      <c r="AE9" s="45"/>
-      <c r="AF9" s="45"/>
-      <c r="AG9" s="45"/>
-      <c r="AH9" s="45"/>
-      <c r="AI9" s="45"/>
-      <c r="AJ9" s="72"/>
-      <c r="AK9" s="73"/>
-      <c r="AL9" s="74"/>
-      <c r="AM9" s="72"/>
-      <c r="AN9" s="73"/>
-      <c r="AO9" s="73"/>
-      <c r="AP9" s="73"/>
-      <c r="AQ9" s="74"/>
-      <c r="AR9" s="45"/>
-      <c r="AS9" s="45"/>
-      <c r="AT9" s="45"/>
-      <c r="AU9" s="45"/>
-      <c r="AV9" s="45"/>
-      <c r="AW9" s="45"/>
+      <c r="W9" s="57"/>
+      <c r="X9" s="57"/>
+      <c r="Y9" s="57"/>
+      <c r="Z9" s="57"/>
+      <c r="AA9" s="57"/>
+      <c r="AB9" s="57"/>
+      <c r="AC9" s="57"/>
+      <c r="AD9" s="57"/>
+      <c r="AE9" s="57"/>
+      <c r="AF9" s="57"/>
+      <c r="AG9" s="57"/>
+      <c r="AH9" s="57"/>
+      <c r="AI9" s="57"/>
+      <c r="AJ9" s="73"/>
+      <c r="AK9" s="74"/>
+      <c r="AL9" s="75"/>
+      <c r="AM9" s="73"/>
+      <c r="AN9" s="74"/>
+      <c r="AO9" s="74"/>
+      <c r="AP9" s="74"/>
+      <c r="AQ9" s="75"/>
+      <c r="AR9" s="57"/>
+      <c r="AS9" s="57"/>
+      <c r="AT9" s="57"/>
+      <c r="AU9" s="57"/>
+      <c r="AV9" s="57"/>
+      <c r="AW9" s="57"/>
     </row>
     <row r="10" spans="1:49" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="75" t="s">
+      <c r="B10" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="75"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="75" t="s">
+      <c r="C10" s="86"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="86" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="75"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="45" t="s">
+      <c r="F10" s="86"/>
+      <c r="G10" s="86"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="86"/>
+      <c r="J10" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="K10" s="45"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="45" t="s">
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="N10" s="45"/>
-      <c r="O10" s="45"/>
-      <c r="P10" s="45"/>
-      <c r="Q10" s="45"/>
-      <c r="R10" s="45"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="57"/>
+      <c r="Q10" s="57"/>
+      <c r="R10" s="57"/>
       <c r="S10" s="42" t="s">
         <v>155</v>
       </c>
       <c r="T10" s="43"/>
       <c r="U10" s="44"/>
-      <c r="V10" s="45" t="s">
+      <c r="V10" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="W10" s="45"/>
-      <c r="X10" s="45"/>
-      <c r="Y10" s="45"/>
-      <c r="Z10" s="45"/>
-      <c r="AA10" s="45"/>
-      <c r="AB10" s="45"/>
-      <c r="AC10" s="45"/>
-      <c r="AD10" s="45"/>
-      <c r="AE10" s="45"/>
-      <c r="AF10" s="45"/>
-      <c r="AG10" s="45"/>
-      <c r="AH10" s="45"/>
-      <c r="AI10" s="45"/>
-      <c r="AJ10" s="69" t="s">
+      <c r="W10" s="57"/>
+      <c r="X10" s="57"/>
+      <c r="Y10" s="57"/>
+      <c r="Z10" s="57"/>
+      <c r="AA10" s="57"/>
+      <c r="AB10" s="57"/>
+      <c r="AC10" s="57"/>
+      <c r="AD10" s="57"/>
+      <c r="AE10" s="57"/>
+      <c r="AF10" s="57"/>
+      <c r="AG10" s="57"/>
+      <c r="AH10" s="57"/>
+      <c r="AI10" s="57"/>
+      <c r="AJ10" s="83" t="s">
         <v>146</v>
       </c>
-      <c r="AK10" s="70"/>
-      <c r="AL10" s="71"/>
-      <c r="AM10" s="69" t="s">
+      <c r="AK10" s="84"/>
+      <c r="AL10" s="85"/>
+      <c r="AM10" s="83" t="s">
         <v>148</v>
       </c>
-      <c r="AN10" s="70"/>
-      <c r="AO10" s="70"/>
-      <c r="AP10" s="70"/>
-      <c r="AQ10" s="71"/>
-      <c r="AR10" s="45"/>
-      <c r="AS10" s="45"/>
-      <c r="AT10" s="45"/>
-      <c r="AU10" s="45"/>
-      <c r="AV10" s="45"/>
-      <c r="AW10" s="45"/>
+      <c r="AN10" s="84"/>
+      <c r="AO10" s="84"/>
+      <c r="AP10" s="84"/>
+      <c r="AQ10" s="85"/>
+      <c r="AR10" s="57"/>
+      <c r="AS10" s="57"/>
+      <c r="AT10" s="57"/>
+      <c r="AU10" s="57"/>
+      <c r="AV10" s="57"/>
+      <c r="AW10" s="57"/>
     </row>
     <row r="11" spans="1:49" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="68"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="68"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="45" t="s">
+      <c r="B11" s="66"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="K11" s="45"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="45" t="s">
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="N11" s="45"/>
-      <c r="O11" s="45"/>
-      <c r="P11" s="45"/>
-      <c r="Q11" s="45"/>
-      <c r="R11" s="45"/>
+      <c r="N11" s="57"/>
+      <c r="O11" s="57"/>
+      <c r="P11" s="57"/>
+      <c r="Q11" s="57"/>
+      <c r="R11" s="57"/>
       <c r="S11" s="42" t="s">
         <v>157</v>
       </c>
       <c r="T11" s="43"/>
       <c r="U11" s="44"/>
-      <c r="V11" s="45" t="s">
+      <c r="V11" s="57" t="s">
         <v>114</v>
       </c>
-      <c r="W11" s="45"/>
-      <c r="X11" s="45"/>
-      <c r="Y11" s="45"/>
-      <c r="Z11" s="45"/>
-      <c r="AA11" s="45"/>
-      <c r="AB11" s="45"/>
-      <c r="AC11" s="45"/>
-      <c r="AD11" s="45"/>
-      <c r="AE11" s="45"/>
-      <c r="AF11" s="45"/>
-      <c r="AG11" s="45"/>
-      <c r="AH11" s="45"/>
-      <c r="AI11" s="45"/>
-      <c r="AJ11" s="72"/>
-      <c r="AK11" s="73"/>
-      <c r="AL11" s="74"/>
-      <c r="AM11" s="72"/>
-      <c r="AN11" s="73"/>
-      <c r="AO11" s="73"/>
-      <c r="AP11" s="73"/>
-      <c r="AQ11" s="74"/>
-      <c r="AR11" s="45"/>
-      <c r="AS11" s="45"/>
-      <c r="AT11" s="45"/>
-      <c r="AU11" s="45"/>
-      <c r="AV11" s="45"/>
-      <c r="AW11" s="45"/>
+      <c r="W11" s="57"/>
+      <c r="X11" s="57"/>
+      <c r="Y11" s="57"/>
+      <c r="Z11" s="57"/>
+      <c r="AA11" s="57"/>
+      <c r="AB11" s="57"/>
+      <c r="AC11" s="57"/>
+      <c r="AD11" s="57"/>
+      <c r="AE11" s="57"/>
+      <c r="AF11" s="57"/>
+      <c r="AG11" s="57"/>
+      <c r="AH11" s="57"/>
+      <c r="AI11" s="57"/>
+      <c r="AJ11" s="73"/>
+      <c r="AK11" s="74"/>
+      <c r="AL11" s="75"/>
+      <c r="AM11" s="73"/>
+      <c r="AN11" s="74"/>
+      <c r="AO11" s="74"/>
+      <c r="AP11" s="74"/>
+      <c r="AQ11" s="75"/>
+      <c r="AR11" s="57"/>
+      <c r="AS11" s="57"/>
+      <c r="AT11" s="57"/>
+      <c r="AU11" s="57"/>
+      <c r="AV11" s="57"/>
+      <c r="AW11" s="57"/>
     </row>
     <row r="12" spans="1:49" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45" t="s">
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45" t="s">
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="K12" s="45"/>
-      <c r="L12" s="45"/>
-      <c r="M12" s="45" t="s">
+      <c r="K12" s="57"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="N12" s="45"/>
-      <c r="O12" s="45"/>
-      <c r="P12" s="45"/>
-      <c r="Q12" s="45"/>
-      <c r="R12" s="45"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="57"/>
+      <c r="Q12" s="57"/>
+      <c r="R12" s="57"/>
       <c r="S12" s="42"/>
       <c r="T12" s="43"/>
       <c r="U12" s="44"/>
-      <c r="V12" s="45" t="s">
+      <c r="V12" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="W12" s="45"/>
-      <c r="X12" s="45"/>
-      <c r="Y12" s="45"/>
-      <c r="Z12" s="45"/>
-      <c r="AA12" s="45"/>
-      <c r="AB12" s="45"/>
-      <c r="AC12" s="45"/>
-      <c r="AD12" s="45"/>
-      <c r="AE12" s="45"/>
-      <c r="AF12" s="45"/>
-      <c r="AG12" s="45"/>
-      <c r="AH12" s="45"/>
-      <c r="AI12" s="45"/>
-      <c r="AJ12" s="65"/>
-      <c r="AK12" s="66"/>
-      <c r="AL12" s="67"/>
-      <c r="AM12" s="64" t="s">
+      <c r="W12" s="57"/>
+      <c r="X12" s="57"/>
+      <c r="Y12" s="57"/>
+      <c r="Z12" s="57"/>
+      <c r="AA12" s="57"/>
+      <c r="AB12" s="57"/>
+      <c r="AC12" s="57"/>
+      <c r="AD12" s="57"/>
+      <c r="AE12" s="57"/>
+      <c r="AF12" s="57"/>
+      <c r="AG12" s="57"/>
+      <c r="AH12" s="57"/>
+      <c r="AI12" s="57"/>
+      <c r="AJ12" s="80"/>
+      <c r="AK12" s="81"/>
+      <c r="AL12" s="82"/>
+      <c r="AM12" s="79" t="s">
         <v>46</v>
       </c>
-      <c r="AN12" s="64"/>
-      <c r="AO12" s="64"/>
-      <c r="AP12" s="64"/>
-      <c r="AQ12" s="64"/>
-      <c r="AR12" s="45" t="s">
+      <c r="AN12" s="79"/>
+      <c r="AO12" s="79"/>
+      <c r="AP12" s="79"/>
+      <c r="AQ12" s="79"/>
+      <c r="AR12" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="AS12" s="45"/>
-      <c r="AT12" s="45"/>
-      <c r="AU12" s="45"/>
-      <c r="AV12" s="45"/>
-      <c r="AW12" s="45"/>
+      <c r="AS12" s="57"/>
+      <c r="AT12" s="57"/>
+      <c r="AU12" s="57"/>
+      <c r="AV12" s="57"/>
+      <c r="AW12" s="57"/>
     </row>
     <row r="13" spans="1:49" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="45"/>
-      <c r="M13" s="45"/>
-      <c r="N13" s="45"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="45"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="57"/>
+      <c r="N13" s="57"/>
+      <c r="O13" s="57"/>
+      <c r="P13" s="57"/>
+      <c r="Q13" s="57"/>
+      <c r="R13" s="57"/>
       <c r="S13" s="42"/>
       <c r="T13" s="43"/>
       <c r="U13" s="44"/>
-      <c r="V13" s="45"/>
-      <c r="W13" s="45"/>
-      <c r="X13" s="45"/>
-      <c r="Y13" s="45"/>
-      <c r="Z13" s="45"/>
-      <c r="AA13" s="45"/>
-      <c r="AB13" s="45"/>
-      <c r="AC13" s="45"/>
-      <c r="AD13" s="45"/>
-      <c r="AE13" s="45"/>
-      <c r="AF13" s="45"/>
-      <c r="AG13" s="45"/>
-      <c r="AH13" s="45"/>
-      <c r="AI13" s="45"/>
+      <c r="V13" s="57"/>
+      <c r="W13" s="57"/>
+      <c r="X13" s="57"/>
+      <c r="Y13" s="57"/>
+      <c r="Z13" s="57"/>
+      <c r="AA13" s="57"/>
+      <c r="AB13" s="57"/>
+      <c r="AC13" s="57"/>
+      <c r="AD13" s="57"/>
+      <c r="AE13" s="57"/>
+      <c r="AF13" s="57"/>
+      <c r="AG13" s="57"/>
+      <c r="AH13" s="57"/>
+      <c r="AI13" s="57"/>
       <c r="AJ13" s="42"/>
       <c r="AK13" s="43"/>
       <c r="AL13" s="44"/>
-      <c r="AM13" s="45"/>
-      <c r="AN13" s="45"/>
-      <c r="AO13" s="45"/>
-      <c r="AP13" s="45"/>
-      <c r="AQ13" s="45"/>
-      <c r="AR13" s="45"/>
-      <c r="AS13" s="45"/>
-      <c r="AT13" s="45"/>
-      <c r="AU13" s="45"/>
-      <c r="AV13" s="45"/>
-      <c r="AW13" s="45"/>
+      <c r="AM13" s="57"/>
+      <c r="AN13" s="57"/>
+      <c r="AO13" s="57"/>
+      <c r="AP13" s="57"/>
+      <c r="AQ13" s="57"/>
+      <c r="AR13" s="57"/>
+      <c r="AS13" s="57"/>
+      <c r="AT13" s="57"/>
+      <c r="AU13" s="57"/>
+      <c r="AV13" s="57"/>
+      <c r="AW13" s="57"/>
     </row>
     <row r="14" spans="1:49" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="45"/>
-      <c r="M14" s="45"/>
-      <c r="N14" s="45"/>
-      <c r="O14" s="45"/>
-      <c r="P14" s="45"/>
-      <c r="Q14" s="45"/>
-      <c r="R14" s="45"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="57"/>
+      <c r="P14" s="57"/>
+      <c r="Q14" s="57"/>
+      <c r="R14" s="57"/>
       <c r="S14" s="42"/>
       <c r="T14" s="43"/>
       <c r="U14" s="44"/>
-      <c r="V14" s="45"/>
-      <c r="W14" s="45"/>
-      <c r="X14" s="45"/>
-      <c r="Y14" s="45"/>
-      <c r="Z14" s="45"/>
-      <c r="AA14" s="45"/>
-      <c r="AB14" s="45"/>
-      <c r="AC14" s="45"/>
-      <c r="AD14" s="45"/>
-      <c r="AE14" s="45"/>
-      <c r="AF14" s="45"/>
-      <c r="AG14" s="45"/>
-      <c r="AH14" s="45"/>
-      <c r="AI14" s="45"/>
-      <c r="AJ14" s="61"/>
-      <c r="AK14" s="62"/>
-      <c r="AL14" s="63"/>
-      <c r="AM14" s="45"/>
-      <c r="AN14" s="45"/>
-      <c r="AO14" s="45"/>
-      <c r="AP14" s="45"/>
-      <c r="AQ14" s="45"/>
-      <c r="AR14" s="45"/>
-      <c r="AS14" s="45"/>
-      <c r="AT14" s="45"/>
-      <c r="AU14" s="45"/>
-      <c r="AV14" s="45"/>
-      <c r="AW14" s="45"/>
+      <c r="V14" s="57"/>
+      <c r="W14" s="57"/>
+      <c r="X14" s="57"/>
+      <c r="Y14" s="57"/>
+      <c r="Z14" s="57"/>
+      <c r="AA14" s="57"/>
+      <c r="AB14" s="57"/>
+      <c r="AC14" s="57"/>
+      <c r="AD14" s="57"/>
+      <c r="AE14" s="57"/>
+      <c r="AF14" s="57"/>
+      <c r="AG14" s="57"/>
+      <c r="AH14" s="57"/>
+      <c r="AI14" s="57"/>
+      <c r="AJ14" s="87"/>
+      <c r="AK14" s="88"/>
+      <c r="AL14" s="89"/>
+      <c r="AM14" s="57"/>
+      <c r="AN14" s="57"/>
+      <c r="AO14" s="57"/>
+      <c r="AP14" s="57"/>
+      <c r="AQ14" s="57"/>
+      <c r="AR14" s="57"/>
+      <c r="AS14" s="57"/>
+      <c r="AT14" s="57"/>
+      <c r="AU14" s="57"/>
+      <c r="AV14" s="57"/>
+      <c r="AW14" s="57"/>
     </row>
     <row r="15" spans="1:49" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="45"/>
-      <c r="M15" s="45"/>
-      <c r="N15" s="45"/>
-      <c r="O15" s="45"/>
-      <c r="P15" s="45"/>
-      <c r="Q15" s="45"/>
-      <c r="R15" s="45"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="57"/>
+      <c r="O15" s="57"/>
+      <c r="P15" s="57"/>
+      <c r="Q15" s="57"/>
+      <c r="R15" s="57"/>
       <c r="S15" s="42"/>
       <c r="T15" s="43"/>
       <c r="U15" s="44"/>
-      <c r="V15" s="45"/>
-      <c r="W15" s="45"/>
-      <c r="X15" s="45"/>
-      <c r="Y15" s="45"/>
-      <c r="Z15" s="45"/>
-      <c r="AA15" s="45"/>
-      <c r="AB15" s="45"/>
-      <c r="AC15" s="45"/>
-      <c r="AD15" s="45"/>
-      <c r="AE15" s="45"/>
-      <c r="AF15" s="45"/>
-      <c r="AG15" s="45"/>
-      <c r="AH15" s="45"/>
-      <c r="AI15" s="45"/>
-      <c r="AJ15" s="61"/>
-      <c r="AK15" s="62"/>
-      <c r="AL15" s="63"/>
-      <c r="AM15" s="45"/>
-      <c r="AN15" s="45"/>
-      <c r="AO15" s="45"/>
-      <c r="AP15" s="45"/>
-      <c r="AQ15" s="45"/>
-      <c r="AR15" s="45"/>
-      <c r="AS15" s="45"/>
-      <c r="AT15" s="45"/>
-      <c r="AU15" s="45"/>
-      <c r="AV15" s="45"/>
-      <c r="AW15" s="45"/>
+      <c r="V15" s="57"/>
+      <c r="W15" s="57"/>
+      <c r="X15" s="57"/>
+      <c r="Y15" s="57"/>
+      <c r="Z15" s="57"/>
+      <c r="AA15" s="57"/>
+      <c r="AB15" s="57"/>
+      <c r="AC15" s="57"/>
+      <c r="AD15" s="57"/>
+      <c r="AE15" s="57"/>
+      <c r="AF15" s="57"/>
+      <c r="AG15" s="57"/>
+      <c r="AH15" s="57"/>
+      <c r="AI15" s="57"/>
+      <c r="AJ15" s="87"/>
+      <c r="AK15" s="88"/>
+      <c r="AL15" s="89"/>
+      <c r="AM15" s="57"/>
+      <c r="AN15" s="57"/>
+      <c r="AO15" s="57"/>
+      <c r="AP15" s="57"/>
+      <c r="AQ15" s="57"/>
+      <c r="AR15" s="57"/>
+      <c r="AS15" s="57"/>
+      <c r="AT15" s="57"/>
+      <c r="AU15" s="57"/>
+      <c r="AV15" s="57"/>
+      <c r="AW15" s="57"/>
     </row>
     <row r="16" spans="1:49" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="45"/>
-      <c r="O16" s="45"/>
-      <c r="P16" s="45"/>
-      <c r="Q16" s="45"/>
-      <c r="R16" s="45"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="57"/>
+      <c r="P16" s="57"/>
+      <c r="Q16" s="57"/>
+      <c r="R16" s="57"/>
       <c r="S16" s="42"/>
       <c r="T16" s="43"/>
       <c r="U16" s="44"/>
-      <c r="V16" s="45"/>
-      <c r="W16" s="45"/>
-      <c r="X16" s="45"/>
-      <c r="Y16" s="45"/>
-      <c r="Z16" s="45"/>
-      <c r="AA16" s="45"/>
-      <c r="AB16" s="45"/>
-      <c r="AC16" s="45"/>
-      <c r="AD16" s="45"/>
-      <c r="AE16" s="45"/>
-      <c r="AF16" s="45"/>
-      <c r="AG16" s="45"/>
-      <c r="AH16" s="45"/>
-      <c r="AI16" s="45"/>
-      <c r="AJ16" s="61"/>
-      <c r="AK16" s="62"/>
-      <c r="AL16" s="63"/>
-      <c r="AM16" s="45"/>
-      <c r="AN16" s="45"/>
-      <c r="AO16" s="45"/>
-      <c r="AP16" s="45"/>
-      <c r="AQ16" s="45"/>
-      <c r="AR16" s="45"/>
-      <c r="AS16" s="45"/>
-      <c r="AT16" s="45"/>
-      <c r="AU16" s="45"/>
-      <c r="AV16" s="45"/>
-      <c r="AW16" s="45"/>
+      <c r="V16" s="57"/>
+      <c r="W16" s="57"/>
+      <c r="X16" s="57"/>
+      <c r="Y16" s="57"/>
+      <c r="Z16" s="57"/>
+      <c r="AA16" s="57"/>
+      <c r="AB16" s="57"/>
+      <c r="AC16" s="57"/>
+      <c r="AD16" s="57"/>
+      <c r="AE16" s="57"/>
+      <c r="AF16" s="57"/>
+      <c r="AG16" s="57"/>
+      <c r="AH16" s="57"/>
+      <c r="AI16" s="57"/>
+      <c r="AJ16" s="87"/>
+      <c r="AK16" s="88"/>
+      <c r="AL16" s="89"/>
+      <c r="AM16" s="57"/>
+      <c r="AN16" s="57"/>
+      <c r="AO16" s="57"/>
+      <c r="AP16" s="57"/>
+      <c r="AQ16" s="57"/>
+      <c r="AR16" s="57"/>
+      <c r="AS16" s="57"/>
+      <c r="AT16" s="57"/>
+      <c r="AU16" s="57"/>
+      <c r="AV16" s="57"/>
+      <c r="AW16" s="57"/>
     </row>
     <row r="17" spans="2:49" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="45"/>
-      <c r="M17" s="45"/>
-      <c r="N17" s="45"/>
-      <c r="O17" s="45"/>
-      <c r="P17" s="45"/>
-      <c r="Q17" s="45"/>
-      <c r="R17" s="45"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="57"/>
+      <c r="O17" s="57"/>
+      <c r="P17" s="57"/>
+      <c r="Q17" s="57"/>
+      <c r="R17" s="57"/>
       <c r="S17" s="42"/>
       <c r="T17" s="43"/>
       <c r="U17" s="44"/>
-      <c r="V17" s="45"/>
-      <c r="W17" s="45"/>
-      <c r="X17" s="45"/>
-      <c r="Y17" s="45"/>
-      <c r="Z17" s="45"/>
-      <c r="AA17" s="45"/>
-      <c r="AB17" s="45"/>
-      <c r="AC17" s="45"/>
-      <c r="AD17" s="45"/>
-      <c r="AE17" s="45"/>
-      <c r="AF17" s="45"/>
-      <c r="AG17" s="45"/>
-      <c r="AH17" s="45"/>
-      <c r="AI17" s="45"/>
-      <c r="AJ17" s="61"/>
-      <c r="AK17" s="62"/>
-      <c r="AL17" s="63"/>
-      <c r="AM17" s="45"/>
-      <c r="AN17" s="45"/>
-      <c r="AO17" s="45"/>
-      <c r="AP17" s="45"/>
-      <c r="AQ17" s="45"/>
-      <c r="AR17" s="45"/>
-      <c r="AS17" s="45"/>
-      <c r="AT17" s="45"/>
-      <c r="AU17" s="45"/>
-      <c r="AV17" s="45"/>
-      <c r="AW17" s="45"/>
+      <c r="V17" s="57"/>
+      <c r="W17" s="57"/>
+      <c r="X17" s="57"/>
+      <c r="Y17" s="57"/>
+      <c r="Z17" s="57"/>
+      <c r="AA17" s="57"/>
+      <c r="AB17" s="57"/>
+      <c r="AC17" s="57"/>
+      <c r="AD17" s="57"/>
+      <c r="AE17" s="57"/>
+      <c r="AF17" s="57"/>
+      <c r="AG17" s="57"/>
+      <c r="AH17" s="57"/>
+      <c r="AI17" s="57"/>
+      <c r="AJ17" s="87"/>
+      <c r="AK17" s="88"/>
+      <c r="AL17" s="89"/>
+      <c r="AM17" s="57"/>
+      <c r="AN17" s="57"/>
+      <c r="AO17" s="57"/>
+      <c r="AP17" s="57"/>
+      <c r="AQ17" s="57"/>
+      <c r="AR17" s="57"/>
+      <c r="AS17" s="57"/>
+      <c r="AT17" s="57"/>
+      <c r="AU17" s="57"/>
+      <c r="AV17" s="57"/>
+      <c r="AW17" s="57"/>
     </row>
     <row r="18" spans="2:49" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="45"/>
-      <c r="M18" s="45"/>
-      <c r="N18" s="45"/>
-      <c r="O18" s="45"/>
-      <c r="P18" s="45"/>
-      <c r="Q18" s="45"/>
-      <c r="R18" s="45"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="57"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="57"/>
+      <c r="P18" s="57"/>
+      <c r="Q18" s="57"/>
+      <c r="R18" s="57"/>
       <c r="S18" s="42"/>
       <c r="T18" s="43"/>
       <c r="U18" s="44"/>
-      <c r="V18" s="45"/>
-      <c r="W18" s="45"/>
-      <c r="X18" s="45"/>
-      <c r="Y18" s="45"/>
-      <c r="Z18" s="45"/>
-      <c r="AA18" s="45"/>
-      <c r="AB18" s="45"/>
-      <c r="AC18" s="45"/>
-      <c r="AD18" s="45"/>
-      <c r="AE18" s="45"/>
-      <c r="AF18" s="45"/>
-      <c r="AG18" s="45"/>
-      <c r="AH18" s="45"/>
-      <c r="AI18" s="45"/>
-      <c r="AJ18" s="61"/>
-      <c r="AK18" s="62"/>
-      <c r="AL18" s="63"/>
-      <c r="AM18" s="45"/>
-      <c r="AN18" s="45"/>
-      <c r="AO18" s="45"/>
-      <c r="AP18" s="45"/>
-      <c r="AQ18" s="45"/>
-      <c r="AR18" s="45"/>
-      <c r="AS18" s="45"/>
-      <c r="AT18" s="45"/>
-      <c r="AU18" s="45"/>
-      <c r="AV18" s="45"/>
-      <c r="AW18" s="45"/>
+      <c r="V18" s="57"/>
+      <c r="W18" s="57"/>
+      <c r="X18" s="57"/>
+      <c r="Y18" s="57"/>
+      <c r="Z18" s="57"/>
+      <c r="AA18" s="57"/>
+      <c r="AB18" s="57"/>
+      <c r="AC18" s="57"/>
+      <c r="AD18" s="57"/>
+      <c r="AE18" s="57"/>
+      <c r="AF18" s="57"/>
+      <c r="AG18" s="57"/>
+      <c r="AH18" s="57"/>
+      <c r="AI18" s="57"/>
+      <c r="AJ18" s="87"/>
+      <c r="AK18" s="88"/>
+      <c r="AL18" s="89"/>
+      <c r="AM18" s="57"/>
+      <c r="AN18" s="57"/>
+      <c r="AO18" s="57"/>
+      <c r="AP18" s="57"/>
+      <c r="AQ18" s="57"/>
+      <c r="AR18" s="57"/>
+      <c r="AS18" s="57"/>
+      <c r="AT18" s="57"/>
+      <c r="AU18" s="57"/>
+      <c r="AV18" s="57"/>
+      <c r="AW18" s="57"/>
     </row>
     <row r="19" spans="2:49" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="45"/>
-      <c r="M19" s="45"/>
-      <c r="N19" s="45"/>
-      <c r="O19" s="45"/>
-      <c r="P19" s="45"/>
-      <c r="Q19" s="45"/>
-      <c r="R19" s="45"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="57"/>
+      <c r="O19" s="57"/>
+      <c r="P19" s="57"/>
+      <c r="Q19" s="57"/>
+      <c r="R19" s="57"/>
       <c r="S19" s="42"/>
       <c r="T19" s="43"/>
       <c r="U19" s="44"/>
-      <c r="V19" s="45"/>
-      <c r="W19" s="45"/>
-      <c r="X19" s="45"/>
-      <c r="Y19" s="45"/>
-      <c r="Z19" s="45"/>
-      <c r="AA19" s="45"/>
-      <c r="AB19" s="45"/>
-      <c r="AC19" s="45"/>
-      <c r="AD19" s="45"/>
-      <c r="AE19" s="45"/>
-      <c r="AF19" s="45"/>
-      <c r="AG19" s="45"/>
-      <c r="AH19" s="45"/>
-      <c r="AI19" s="45"/>
-      <c r="AJ19" s="61"/>
-      <c r="AK19" s="62"/>
-      <c r="AL19" s="63"/>
-      <c r="AM19" s="45"/>
-      <c r="AN19" s="45"/>
-      <c r="AO19" s="45"/>
-      <c r="AP19" s="45"/>
-      <c r="AQ19" s="45"/>
-      <c r="AR19" s="45"/>
-      <c r="AS19" s="45"/>
-      <c r="AT19" s="45"/>
-      <c r="AU19" s="45"/>
-      <c r="AV19" s="45"/>
-      <c r="AW19" s="45"/>
+      <c r="V19" s="57"/>
+      <c r="W19" s="57"/>
+      <c r="X19" s="57"/>
+      <c r="Y19" s="57"/>
+      <c r="Z19" s="57"/>
+      <c r="AA19" s="57"/>
+      <c r="AB19" s="57"/>
+      <c r="AC19" s="57"/>
+      <c r="AD19" s="57"/>
+      <c r="AE19" s="57"/>
+      <c r="AF19" s="57"/>
+      <c r="AG19" s="57"/>
+      <c r="AH19" s="57"/>
+      <c r="AI19" s="57"/>
+      <c r="AJ19" s="87"/>
+      <c r="AK19" s="88"/>
+      <c r="AL19" s="89"/>
+      <c r="AM19" s="57"/>
+      <c r="AN19" s="57"/>
+      <c r="AO19" s="57"/>
+      <c r="AP19" s="57"/>
+      <c r="AQ19" s="57"/>
+      <c r="AR19" s="57"/>
+      <c r="AS19" s="57"/>
+      <c r="AT19" s="57"/>
+      <c r="AU19" s="57"/>
+      <c r="AV19" s="57"/>
+      <c r="AW19" s="57"/>
     </row>
     <row r="20" spans="2:49" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="45"/>
-      <c r="M20" s="45"/>
-      <c r="N20" s="45"/>
-      <c r="O20" s="45"/>
-      <c r="P20" s="45"/>
-      <c r="Q20" s="45"/>
-      <c r="R20" s="45"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="57"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="57"/>
+      <c r="P20" s="57"/>
+      <c r="Q20" s="57"/>
+      <c r="R20" s="57"/>
       <c r="S20" s="42"/>
       <c r="T20" s="43"/>
       <c r="U20" s="44"/>
-      <c r="V20" s="45"/>
-      <c r="W20" s="45"/>
-      <c r="X20" s="45"/>
-      <c r="Y20" s="45"/>
-      <c r="Z20" s="45"/>
-      <c r="AA20" s="45"/>
-      <c r="AB20" s="45"/>
-      <c r="AC20" s="45"/>
-      <c r="AD20" s="45"/>
-      <c r="AE20" s="45"/>
-      <c r="AF20" s="45"/>
-      <c r="AG20" s="45"/>
-      <c r="AH20" s="45"/>
-      <c r="AI20" s="45"/>
-      <c r="AJ20" s="61"/>
-      <c r="AK20" s="62"/>
-      <c r="AL20" s="63"/>
-      <c r="AM20" s="45"/>
-      <c r="AN20" s="45"/>
-      <c r="AO20" s="45"/>
-      <c r="AP20" s="45"/>
-      <c r="AQ20" s="45"/>
-      <c r="AR20" s="45"/>
-      <c r="AS20" s="45"/>
-      <c r="AT20" s="45"/>
-      <c r="AU20" s="45"/>
-      <c r="AV20" s="45"/>
-      <c r="AW20" s="45"/>
+      <c r="V20" s="57"/>
+      <c r="W20" s="57"/>
+      <c r="X20" s="57"/>
+      <c r="Y20" s="57"/>
+      <c r="Z20" s="57"/>
+      <c r="AA20" s="57"/>
+      <c r="AB20" s="57"/>
+      <c r="AC20" s="57"/>
+      <c r="AD20" s="57"/>
+      <c r="AE20" s="57"/>
+      <c r="AF20" s="57"/>
+      <c r="AG20" s="57"/>
+      <c r="AH20" s="57"/>
+      <c r="AI20" s="57"/>
+      <c r="AJ20" s="87"/>
+      <c r="AK20" s="88"/>
+      <c r="AL20" s="89"/>
+      <c r="AM20" s="57"/>
+      <c r="AN20" s="57"/>
+      <c r="AO20" s="57"/>
+      <c r="AP20" s="57"/>
+      <c r="AQ20" s="57"/>
+      <c r="AR20" s="57"/>
+      <c r="AS20" s="57"/>
+      <c r="AT20" s="57"/>
+      <c r="AU20" s="57"/>
+      <c r="AV20" s="57"/>
+      <c r="AW20" s="57"/>
     </row>
     <row r="21" spans="2:49" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="45"/>
-      <c r="M21" s="45"/>
-      <c r="N21" s="45"/>
-      <c r="O21" s="45"/>
-      <c r="P21" s="45"/>
-      <c r="Q21" s="45"/>
-      <c r="R21" s="45"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="57"/>
+      <c r="N21" s="57"/>
+      <c r="O21" s="57"/>
+      <c r="P21" s="57"/>
+      <c r="Q21" s="57"/>
+      <c r="R21" s="57"/>
       <c r="S21" s="42"/>
       <c r="T21" s="43"/>
       <c r="U21" s="44"/>
-      <c r="V21" s="45"/>
-      <c r="W21" s="45"/>
-      <c r="X21" s="45"/>
-      <c r="Y21" s="45"/>
-      <c r="Z21" s="45"/>
-      <c r="AA21" s="45"/>
-      <c r="AB21" s="45"/>
-      <c r="AC21" s="45"/>
-      <c r="AD21" s="45"/>
-      <c r="AE21" s="45"/>
-      <c r="AF21" s="45"/>
-      <c r="AG21" s="45"/>
-      <c r="AH21" s="45"/>
-      <c r="AI21" s="45"/>
-      <c r="AJ21" s="61"/>
-      <c r="AK21" s="62"/>
-      <c r="AL21" s="63"/>
-      <c r="AM21" s="45"/>
-      <c r="AN21" s="45"/>
-      <c r="AO21" s="45"/>
-      <c r="AP21" s="45"/>
-      <c r="AQ21" s="45"/>
-      <c r="AR21" s="45"/>
-      <c r="AS21" s="45"/>
-      <c r="AT21" s="45"/>
-      <c r="AU21" s="45"/>
-      <c r="AV21" s="45"/>
-      <c r="AW21" s="45"/>
+      <c r="V21" s="57"/>
+      <c r="W21" s="57"/>
+      <c r="X21" s="57"/>
+      <c r="Y21" s="57"/>
+      <c r="Z21" s="57"/>
+      <c r="AA21" s="57"/>
+      <c r="AB21" s="57"/>
+      <c r="AC21" s="57"/>
+      <c r="AD21" s="57"/>
+      <c r="AE21" s="57"/>
+      <c r="AF21" s="57"/>
+      <c r="AG21" s="57"/>
+      <c r="AH21" s="57"/>
+      <c r="AI21" s="57"/>
+      <c r="AJ21" s="87"/>
+      <c r="AK21" s="88"/>
+      <c r="AL21" s="89"/>
+      <c r="AM21" s="57"/>
+      <c r="AN21" s="57"/>
+      <c r="AO21" s="57"/>
+      <c r="AP21" s="57"/>
+      <c r="AQ21" s="57"/>
+      <c r="AR21" s="57"/>
+      <c r="AS21" s="57"/>
+      <c r="AT21" s="57"/>
+      <c r="AU21" s="57"/>
+      <c r="AV21" s="57"/>
+      <c r="AW21" s="57"/>
     </row>
     <row r="22" spans="2:49" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="45"/>
-      <c r="M22" s="45"/>
-      <c r="N22" s="45"/>
-      <c r="O22" s="45"/>
-      <c r="P22" s="45"/>
-      <c r="Q22" s="45"/>
-      <c r="R22" s="45"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="57"/>
+      <c r="L22" s="57"/>
+      <c r="M22" s="57"/>
+      <c r="N22" s="57"/>
+      <c r="O22" s="57"/>
+      <c r="P22" s="57"/>
+      <c r="Q22" s="57"/>
+      <c r="R22" s="57"/>
       <c r="S22" s="42"/>
       <c r="T22" s="43"/>
       <c r="U22" s="44"/>
-      <c r="V22" s="45"/>
-      <c r="W22" s="45"/>
-      <c r="X22" s="45"/>
-      <c r="Y22" s="45"/>
-      <c r="Z22" s="45"/>
-      <c r="AA22" s="45"/>
-      <c r="AB22" s="45"/>
-      <c r="AC22" s="45"/>
-      <c r="AD22" s="45"/>
-      <c r="AE22" s="45"/>
-      <c r="AF22" s="45"/>
-      <c r="AG22" s="45"/>
-      <c r="AH22" s="45"/>
-      <c r="AI22" s="45"/>
-      <c r="AJ22" s="61"/>
-      <c r="AK22" s="62"/>
-      <c r="AL22" s="63"/>
-      <c r="AM22" s="45"/>
-      <c r="AN22" s="45"/>
-      <c r="AO22" s="45"/>
-      <c r="AP22" s="45"/>
-      <c r="AQ22" s="45"/>
-      <c r="AR22" s="45"/>
-      <c r="AS22" s="45"/>
-      <c r="AT22" s="45"/>
-      <c r="AU22" s="45"/>
-      <c r="AV22" s="45"/>
-      <c r="AW22" s="45"/>
+      <c r="V22" s="57"/>
+      <c r="W22" s="57"/>
+      <c r="X22" s="57"/>
+      <c r="Y22" s="57"/>
+      <c r="Z22" s="57"/>
+      <c r="AA22" s="57"/>
+      <c r="AB22" s="57"/>
+      <c r="AC22" s="57"/>
+      <c r="AD22" s="57"/>
+      <c r="AE22" s="57"/>
+      <c r="AF22" s="57"/>
+      <c r="AG22" s="57"/>
+      <c r="AH22" s="57"/>
+      <c r="AI22" s="57"/>
+      <c r="AJ22" s="87"/>
+      <c r="AK22" s="88"/>
+      <c r="AL22" s="89"/>
+      <c r="AM22" s="57"/>
+      <c r="AN22" s="57"/>
+      <c r="AO22" s="57"/>
+      <c r="AP22" s="57"/>
+      <c r="AQ22" s="57"/>
+      <c r="AR22" s="57"/>
+      <c r="AS22" s="57"/>
+      <c r="AT22" s="57"/>
+      <c r="AU22" s="57"/>
+      <c r="AV22" s="57"/>
+      <c r="AW22" s="57"/>
     </row>
     <row r="23" spans="2:49" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="45"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="45"/>
-      <c r="L23" s="45"/>
-      <c r="M23" s="45"/>
-      <c r="N23" s="45"/>
-      <c r="O23" s="45"/>
-      <c r="P23" s="45"/>
-      <c r="Q23" s="45"/>
-      <c r="R23" s="45"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="57"/>
+      <c r="L23" s="57"/>
+      <c r="M23" s="57"/>
+      <c r="N23" s="57"/>
+      <c r="O23" s="57"/>
+      <c r="P23" s="57"/>
+      <c r="Q23" s="57"/>
+      <c r="R23" s="57"/>
       <c r="S23" s="42"/>
       <c r="T23" s="43"/>
       <c r="U23" s="44"/>
-      <c r="V23" s="45"/>
-      <c r="W23" s="45"/>
-      <c r="X23" s="45"/>
-      <c r="Y23" s="45"/>
-      <c r="Z23" s="45"/>
-      <c r="AA23" s="45"/>
-      <c r="AB23" s="45"/>
-      <c r="AC23" s="45"/>
-      <c r="AD23" s="45"/>
-      <c r="AE23" s="45"/>
-      <c r="AF23" s="45"/>
-      <c r="AG23" s="45"/>
-      <c r="AH23" s="45"/>
-      <c r="AI23" s="45"/>
-      <c r="AJ23" s="61"/>
-      <c r="AK23" s="62"/>
-      <c r="AL23" s="63"/>
-      <c r="AM23" s="45"/>
-      <c r="AN23" s="45"/>
-      <c r="AO23" s="45"/>
-      <c r="AP23" s="45"/>
-      <c r="AQ23" s="45"/>
-      <c r="AR23" s="45"/>
-      <c r="AS23" s="45"/>
-      <c r="AT23" s="45"/>
-      <c r="AU23" s="45"/>
-      <c r="AV23" s="45"/>
-      <c r="AW23" s="45"/>
+      <c r="V23" s="57"/>
+      <c r="W23" s="57"/>
+      <c r="X23" s="57"/>
+      <c r="Y23" s="57"/>
+      <c r="Z23" s="57"/>
+      <c r="AA23" s="57"/>
+      <c r="AB23" s="57"/>
+      <c r="AC23" s="57"/>
+      <c r="AD23" s="57"/>
+      <c r="AE23" s="57"/>
+      <c r="AF23" s="57"/>
+      <c r="AG23" s="57"/>
+      <c r="AH23" s="57"/>
+      <c r="AI23" s="57"/>
+      <c r="AJ23" s="87"/>
+      <c r="AK23" s="88"/>
+      <c r="AL23" s="89"/>
+      <c r="AM23" s="57"/>
+      <c r="AN23" s="57"/>
+      <c r="AO23" s="57"/>
+      <c r="AP23" s="57"/>
+      <c r="AQ23" s="57"/>
+      <c r="AR23" s="57"/>
+      <c r="AS23" s="57"/>
+      <c r="AT23" s="57"/>
+      <c r="AU23" s="57"/>
+      <c r="AV23" s="57"/>
+      <c r="AW23" s="57"/>
     </row>
     <row r="24" spans="2:49" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="45"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="45"/>
-      <c r="L24" s="45"/>
-      <c r="M24" s="45"/>
-      <c r="N24" s="45"/>
-      <c r="O24" s="45"/>
-      <c r="P24" s="45"/>
-      <c r="Q24" s="45"/>
-      <c r="R24" s="45"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="57"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="57"/>
+      <c r="N24" s="57"/>
+      <c r="O24" s="57"/>
+      <c r="P24" s="57"/>
+      <c r="Q24" s="57"/>
+      <c r="R24" s="57"/>
       <c r="S24" s="42"/>
       <c r="T24" s="43"/>
       <c r="U24" s="44"/>
-      <c r="V24" s="45"/>
-      <c r="W24" s="45"/>
-      <c r="X24" s="45"/>
-      <c r="Y24" s="45"/>
-      <c r="Z24" s="45"/>
-      <c r="AA24" s="45"/>
-      <c r="AB24" s="45"/>
-      <c r="AC24" s="45"/>
-      <c r="AD24" s="45"/>
-      <c r="AE24" s="45"/>
-      <c r="AF24" s="45"/>
-      <c r="AG24" s="45"/>
-      <c r="AH24" s="45"/>
-      <c r="AI24" s="45"/>
-      <c r="AJ24" s="61"/>
-      <c r="AK24" s="62"/>
-      <c r="AL24" s="63"/>
-      <c r="AM24" s="45"/>
-      <c r="AN24" s="45"/>
-      <c r="AO24" s="45"/>
-      <c r="AP24" s="45"/>
-      <c r="AQ24" s="45"/>
-      <c r="AR24" s="45"/>
-      <c r="AS24" s="45"/>
-      <c r="AT24" s="45"/>
-      <c r="AU24" s="45"/>
-      <c r="AV24" s="45"/>
-      <c r="AW24" s="45"/>
+      <c r="V24" s="57"/>
+      <c r="W24" s="57"/>
+      <c r="X24" s="57"/>
+      <c r="Y24" s="57"/>
+      <c r="Z24" s="57"/>
+      <c r="AA24" s="57"/>
+      <c r="AB24" s="57"/>
+      <c r="AC24" s="57"/>
+      <c r="AD24" s="57"/>
+      <c r="AE24" s="57"/>
+      <c r="AF24" s="57"/>
+      <c r="AG24" s="57"/>
+      <c r="AH24" s="57"/>
+      <c r="AI24" s="57"/>
+      <c r="AJ24" s="87"/>
+      <c r="AK24" s="88"/>
+      <c r="AL24" s="89"/>
+      <c r="AM24" s="57"/>
+      <c r="AN24" s="57"/>
+      <c r="AO24" s="57"/>
+      <c r="AP24" s="57"/>
+      <c r="AQ24" s="57"/>
+      <c r="AR24" s="57"/>
+      <c r="AS24" s="57"/>
+      <c r="AT24" s="57"/>
+      <c r="AU24" s="57"/>
+      <c r="AV24" s="57"/>
+      <c r="AW24" s="57"/>
     </row>
     <row r="25" spans="2:49" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="45"/>
-      <c r="O25" s="45"/>
-      <c r="P25" s="45"/>
-      <c r="Q25" s="45"/>
-      <c r="R25" s="45"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="57"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="57"/>
+      <c r="M25" s="57"/>
+      <c r="N25" s="57"/>
+      <c r="O25" s="57"/>
+      <c r="P25" s="57"/>
+      <c r="Q25" s="57"/>
+      <c r="R25" s="57"/>
       <c r="S25" s="42"/>
       <c r="T25" s="43"/>
       <c r="U25" s="44"/>
-      <c r="V25" s="45"/>
-      <c r="W25" s="45"/>
-      <c r="X25" s="45"/>
-      <c r="Y25" s="45"/>
-      <c r="Z25" s="45"/>
-      <c r="AA25" s="45"/>
-      <c r="AB25" s="45"/>
-      <c r="AC25" s="45"/>
-      <c r="AD25" s="45"/>
-      <c r="AE25" s="45"/>
-      <c r="AF25" s="45"/>
-      <c r="AG25" s="45"/>
-      <c r="AH25" s="45"/>
-      <c r="AI25" s="45"/>
-      <c r="AJ25" s="61"/>
-      <c r="AK25" s="62"/>
-      <c r="AL25" s="63"/>
-      <c r="AM25" s="45"/>
-      <c r="AN25" s="45"/>
-      <c r="AO25" s="45"/>
-      <c r="AP25" s="45"/>
-      <c r="AQ25" s="45"/>
-      <c r="AR25" s="45"/>
-      <c r="AS25" s="45"/>
-      <c r="AT25" s="45"/>
-      <c r="AU25" s="45"/>
-      <c r="AV25" s="45"/>
-      <c r="AW25" s="45"/>
+      <c r="V25" s="57"/>
+      <c r="W25" s="57"/>
+      <c r="X25" s="57"/>
+      <c r="Y25" s="57"/>
+      <c r="Z25" s="57"/>
+      <c r="AA25" s="57"/>
+      <c r="AB25" s="57"/>
+      <c r="AC25" s="57"/>
+      <c r="AD25" s="57"/>
+      <c r="AE25" s="57"/>
+      <c r="AF25" s="57"/>
+      <c r="AG25" s="57"/>
+      <c r="AH25" s="57"/>
+      <c r="AI25" s="57"/>
+      <c r="AJ25" s="87"/>
+      <c r="AK25" s="88"/>
+      <c r="AL25" s="89"/>
+      <c r="AM25" s="57"/>
+      <c r="AN25" s="57"/>
+      <c r="AO25" s="57"/>
+      <c r="AP25" s="57"/>
+      <c r="AQ25" s="57"/>
+      <c r="AR25" s="57"/>
+      <c r="AS25" s="57"/>
+      <c r="AT25" s="57"/>
+      <c r="AU25" s="57"/>
+      <c r="AV25" s="57"/>
+      <c r="AW25" s="57"/>
     </row>
     <row r="26" spans="2:49" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="45"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="45"/>
-      <c r="L26" s="45"/>
-      <c r="M26" s="45"/>
-      <c r="N26" s="45"/>
-      <c r="O26" s="45"/>
-      <c r="P26" s="45"/>
-      <c r="Q26" s="45"/>
-      <c r="R26" s="45"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="57"/>
+      <c r="L26" s="57"/>
+      <c r="M26" s="57"/>
+      <c r="N26" s="57"/>
+      <c r="O26" s="57"/>
+      <c r="P26" s="57"/>
+      <c r="Q26" s="57"/>
+      <c r="R26" s="57"/>
       <c r="S26" s="42"/>
       <c r="T26" s="43"/>
       <c r="U26" s="44"/>
-      <c r="V26" s="45"/>
-      <c r="W26" s="45"/>
-      <c r="X26" s="45"/>
-      <c r="Y26" s="45"/>
-      <c r="Z26" s="45"/>
-      <c r="AA26" s="45"/>
-      <c r="AB26" s="45"/>
-      <c r="AC26" s="45"/>
-      <c r="AD26" s="45"/>
-      <c r="AE26" s="45"/>
-      <c r="AF26" s="45"/>
-      <c r="AG26" s="45"/>
-      <c r="AH26" s="45"/>
-      <c r="AI26" s="45"/>
-      <c r="AJ26" s="61"/>
-      <c r="AK26" s="62"/>
-      <c r="AL26" s="63"/>
-      <c r="AM26" s="45"/>
-      <c r="AN26" s="45"/>
-      <c r="AO26" s="45"/>
-      <c r="AP26" s="45"/>
-      <c r="AQ26" s="45"/>
-      <c r="AR26" s="45"/>
-      <c r="AS26" s="45"/>
-      <c r="AT26" s="45"/>
-      <c r="AU26" s="45"/>
-      <c r="AV26" s="45"/>
-      <c r="AW26" s="45"/>
+      <c r="V26" s="57"/>
+      <c r="W26" s="57"/>
+      <c r="X26" s="57"/>
+      <c r="Y26" s="57"/>
+      <c r="Z26" s="57"/>
+      <c r="AA26" s="57"/>
+      <c r="AB26" s="57"/>
+      <c r="AC26" s="57"/>
+      <c r="AD26" s="57"/>
+      <c r="AE26" s="57"/>
+      <c r="AF26" s="57"/>
+      <c r="AG26" s="57"/>
+      <c r="AH26" s="57"/>
+      <c r="AI26" s="57"/>
+      <c r="AJ26" s="87"/>
+      <c r="AK26" s="88"/>
+      <c r="AL26" s="89"/>
+      <c r="AM26" s="57"/>
+      <c r="AN26" s="57"/>
+      <c r="AO26" s="57"/>
+      <c r="AP26" s="57"/>
+      <c r="AQ26" s="57"/>
+      <c r="AR26" s="57"/>
+      <c r="AS26" s="57"/>
+      <c r="AT26" s="57"/>
+      <c r="AU26" s="57"/>
+      <c r="AV26" s="57"/>
+      <c r="AW26" s="57"/>
     </row>
     <row r="27" spans="2:49" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="45"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="45"/>
-      <c r="J27" s="45"/>
-      <c r="K27" s="45"/>
-      <c r="L27" s="45"/>
-      <c r="M27" s="45"/>
-      <c r="N27" s="45"/>
-      <c r="O27" s="45"/>
-      <c r="P27" s="45"/>
-      <c r="Q27" s="45"/>
-      <c r="R27" s="45"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="57"/>
+      <c r="L27" s="57"/>
+      <c r="M27" s="57"/>
+      <c r="N27" s="57"/>
+      <c r="O27" s="57"/>
+      <c r="P27" s="57"/>
+      <c r="Q27" s="57"/>
+      <c r="R27" s="57"/>
       <c r="S27" s="42"/>
       <c r="T27" s="43"/>
       <c r="U27" s="44"/>
-      <c r="V27" s="45"/>
-      <c r="W27" s="45"/>
-      <c r="X27" s="45"/>
-      <c r="Y27" s="45"/>
-      <c r="Z27" s="45"/>
-      <c r="AA27" s="45"/>
-      <c r="AB27" s="45"/>
-      <c r="AC27" s="45"/>
-      <c r="AD27" s="45"/>
-      <c r="AE27" s="45"/>
-      <c r="AF27" s="45"/>
-      <c r="AG27" s="45"/>
-      <c r="AH27" s="45"/>
-      <c r="AI27" s="45"/>
-      <c r="AJ27" s="61"/>
-      <c r="AK27" s="62"/>
-      <c r="AL27" s="63"/>
-      <c r="AM27" s="45"/>
-      <c r="AN27" s="45"/>
-      <c r="AO27" s="45"/>
-      <c r="AP27" s="45"/>
-      <c r="AQ27" s="45"/>
-      <c r="AR27" s="45"/>
-      <c r="AS27" s="45"/>
-      <c r="AT27" s="45"/>
-      <c r="AU27" s="45"/>
-      <c r="AV27" s="45"/>
-      <c r="AW27" s="45"/>
+      <c r="V27" s="57"/>
+      <c r="W27" s="57"/>
+      <c r="X27" s="57"/>
+      <c r="Y27" s="57"/>
+      <c r="Z27" s="57"/>
+      <c r="AA27" s="57"/>
+      <c r="AB27" s="57"/>
+      <c r="AC27" s="57"/>
+      <c r="AD27" s="57"/>
+      <c r="AE27" s="57"/>
+      <c r="AF27" s="57"/>
+      <c r="AG27" s="57"/>
+      <c r="AH27" s="57"/>
+      <c r="AI27" s="57"/>
+      <c r="AJ27" s="87"/>
+      <c r="AK27" s="88"/>
+      <c r="AL27" s="89"/>
+      <c r="AM27" s="57"/>
+      <c r="AN27" s="57"/>
+      <c r="AO27" s="57"/>
+      <c r="AP27" s="57"/>
+      <c r="AQ27" s="57"/>
+      <c r="AR27" s="57"/>
+      <c r="AS27" s="57"/>
+      <c r="AT27" s="57"/>
+      <c r="AU27" s="57"/>
+      <c r="AV27" s="57"/>
+      <c r="AW27" s="57"/>
     </row>
     <row r="28" spans="2:49" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="45"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="45"/>
-      <c r="L28" s="45"/>
-      <c r="M28" s="45"/>
-      <c r="N28" s="45"/>
-      <c r="O28" s="45"/>
-      <c r="P28" s="45"/>
-      <c r="Q28" s="45"/>
-      <c r="R28" s="45"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="57"/>
+      <c r="L28" s="57"/>
+      <c r="M28" s="57"/>
+      <c r="N28" s="57"/>
+      <c r="O28" s="57"/>
+      <c r="P28" s="57"/>
+      <c r="Q28" s="57"/>
+      <c r="R28" s="57"/>
       <c r="S28" s="42"/>
       <c r="T28" s="43"/>
       <c r="U28" s="44"/>
-      <c r="V28" s="45"/>
-      <c r="W28" s="45"/>
-      <c r="X28" s="45"/>
-      <c r="Y28" s="45"/>
-      <c r="Z28" s="45"/>
-      <c r="AA28" s="45"/>
-      <c r="AB28" s="45"/>
-      <c r="AC28" s="45"/>
-      <c r="AD28" s="45"/>
-      <c r="AE28" s="45"/>
-      <c r="AF28" s="45"/>
-      <c r="AG28" s="45"/>
-      <c r="AH28" s="45"/>
-      <c r="AI28" s="45"/>
-      <c r="AJ28" s="61"/>
-      <c r="AK28" s="62"/>
-      <c r="AL28" s="63"/>
-      <c r="AM28" s="45"/>
-      <c r="AN28" s="45"/>
-      <c r="AO28" s="45"/>
-      <c r="AP28" s="45"/>
-      <c r="AQ28" s="45"/>
-      <c r="AR28" s="45"/>
-      <c r="AS28" s="45"/>
-      <c r="AT28" s="45"/>
-      <c r="AU28" s="45"/>
-      <c r="AV28" s="45"/>
-      <c r="AW28" s="45"/>
+      <c r="V28" s="57"/>
+      <c r="W28" s="57"/>
+      <c r="X28" s="57"/>
+      <c r="Y28" s="57"/>
+      <c r="Z28" s="57"/>
+      <c r="AA28" s="57"/>
+      <c r="AB28" s="57"/>
+      <c r="AC28" s="57"/>
+      <c r="AD28" s="57"/>
+      <c r="AE28" s="57"/>
+      <c r="AF28" s="57"/>
+      <c r="AG28" s="57"/>
+      <c r="AH28" s="57"/>
+      <c r="AI28" s="57"/>
+      <c r="AJ28" s="87"/>
+      <c r="AK28" s="88"/>
+      <c r="AL28" s="89"/>
+      <c r="AM28" s="57"/>
+      <c r="AN28" s="57"/>
+      <c r="AO28" s="57"/>
+      <c r="AP28" s="57"/>
+      <c r="AQ28" s="57"/>
+      <c r="AR28" s="57"/>
+      <c r="AS28" s="57"/>
+      <c r="AT28" s="57"/>
+      <c r="AU28" s="57"/>
+      <c r="AV28" s="57"/>
+      <c r="AW28" s="57"/>
     </row>
     <row r="29" spans="2:49" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="45"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="45"/>
-      <c r="K29" s="45"/>
-      <c r="L29" s="45"/>
-      <c r="M29" s="45"/>
-      <c r="N29" s="45"/>
-      <c r="O29" s="45"/>
-      <c r="P29" s="45"/>
-      <c r="Q29" s="45"/>
-      <c r="R29" s="45"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="57"/>
+      <c r="K29" s="57"/>
+      <c r="L29" s="57"/>
+      <c r="M29" s="57"/>
+      <c r="N29" s="57"/>
+      <c r="O29" s="57"/>
+      <c r="P29" s="57"/>
+      <c r="Q29" s="57"/>
+      <c r="R29" s="57"/>
       <c r="S29" s="42"/>
       <c r="T29" s="43"/>
       <c r="U29" s="44"/>
-      <c r="V29" s="45"/>
-      <c r="W29" s="45"/>
-      <c r="X29" s="45"/>
-      <c r="Y29" s="45"/>
-      <c r="Z29" s="45"/>
-      <c r="AA29" s="45"/>
-      <c r="AB29" s="45"/>
-      <c r="AC29" s="45"/>
-      <c r="AD29" s="45"/>
-      <c r="AE29" s="45"/>
-      <c r="AF29" s="45"/>
-      <c r="AG29" s="45"/>
-      <c r="AH29" s="45"/>
-      <c r="AI29" s="45"/>
-      <c r="AJ29" s="61"/>
-      <c r="AK29" s="62"/>
-      <c r="AL29" s="63"/>
-      <c r="AM29" s="45"/>
-      <c r="AN29" s="45"/>
-      <c r="AO29" s="45"/>
-      <c r="AP29" s="45"/>
-      <c r="AQ29" s="45"/>
-      <c r="AR29" s="45"/>
-      <c r="AS29" s="45"/>
-      <c r="AT29" s="45"/>
-      <c r="AU29" s="45"/>
-      <c r="AV29" s="45"/>
-      <c r="AW29" s="45"/>
+      <c r="V29" s="57"/>
+      <c r="W29" s="57"/>
+      <c r="X29" s="57"/>
+      <c r="Y29" s="57"/>
+      <c r="Z29" s="57"/>
+      <c r="AA29" s="57"/>
+      <c r="AB29" s="57"/>
+      <c r="AC29" s="57"/>
+      <c r="AD29" s="57"/>
+      <c r="AE29" s="57"/>
+      <c r="AF29" s="57"/>
+      <c r="AG29" s="57"/>
+      <c r="AH29" s="57"/>
+      <c r="AI29" s="57"/>
+      <c r="AJ29" s="87"/>
+      <c r="AK29" s="88"/>
+      <c r="AL29" s="89"/>
+      <c r="AM29" s="57"/>
+      <c r="AN29" s="57"/>
+      <c r="AO29" s="57"/>
+      <c r="AP29" s="57"/>
+      <c r="AQ29" s="57"/>
+      <c r="AR29" s="57"/>
+      <c r="AS29" s="57"/>
+      <c r="AT29" s="57"/>
+      <c r="AU29" s="57"/>
+      <c r="AV29" s="57"/>
+      <c r="AW29" s="57"/>
     </row>
     <row r="30" spans="2:49" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="45"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="45"/>
-      <c r="K30" s="45"/>
-      <c r="L30" s="45"/>
-      <c r="M30" s="45"/>
-      <c r="N30" s="45"/>
-      <c r="O30" s="45"/>
-      <c r="P30" s="45"/>
-      <c r="Q30" s="45"/>
-      <c r="R30" s="45"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="57"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="57"/>
+      <c r="L30" s="57"/>
+      <c r="M30" s="57"/>
+      <c r="N30" s="57"/>
+      <c r="O30" s="57"/>
+      <c r="P30" s="57"/>
+      <c r="Q30" s="57"/>
+      <c r="R30" s="57"/>
       <c r="S30" s="42"/>
       <c r="T30" s="43"/>
       <c r="U30" s="44"/>
-      <c r="V30" s="45"/>
-      <c r="W30" s="45"/>
-      <c r="X30" s="45"/>
-      <c r="Y30" s="45"/>
-      <c r="Z30" s="45"/>
-      <c r="AA30" s="45"/>
-      <c r="AB30" s="45"/>
-      <c r="AC30" s="45"/>
-      <c r="AD30" s="45"/>
-      <c r="AE30" s="45"/>
-      <c r="AF30" s="45"/>
-      <c r="AG30" s="45"/>
-      <c r="AH30" s="45"/>
-      <c r="AI30" s="45"/>
-      <c r="AJ30" s="61"/>
-      <c r="AK30" s="62"/>
-      <c r="AL30" s="63"/>
-      <c r="AM30" s="45"/>
-      <c r="AN30" s="45"/>
-      <c r="AO30" s="45"/>
-      <c r="AP30" s="45"/>
-      <c r="AQ30" s="45"/>
-      <c r="AR30" s="45"/>
-      <c r="AS30" s="45"/>
-      <c r="AT30" s="45"/>
-      <c r="AU30" s="45"/>
-      <c r="AV30" s="45"/>
-      <c r="AW30" s="45"/>
+      <c r="V30" s="57"/>
+      <c r="W30" s="57"/>
+      <c r="X30" s="57"/>
+      <c r="Y30" s="57"/>
+      <c r="Z30" s="57"/>
+      <c r="AA30" s="57"/>
+      <c r="AB30" s="57"/>
+      <c r="AC30" s="57"/>
+      <c r="AD30" s="57"/>
+      <c r="AE30" s="57"/>
+      <c r="AF30" s="57"/>
+      <c r="AG30" s="57"/>
+      <c r="AH30" s="57"/>
+      <c r="AI30" s="57"/>
+      <c r="AJ30" s="87"/>
+      <c r="AK30" s="88"/>
+      <c r="AL30" s="89"/>
+      <c r="AM30" s="57"/>
+      <c r="AN30" s="57"/>
+      <c r="AO30" s="57"/>
+      <c r="AP30" s="57"/>
+      <c r="AQ30" s="57"/>
+      <c r="AR30" s="57"/>
+      <c r="AS30" s="57"/>
+      <c r="AT30" s="57"/>
+      <c r="AU30" s="57"/>
+      <c r="AV30" s="57"/>
+      <c r="AW30" s="57"/>
     </row>
     <row r="31" spans="2:49" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="45"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="45"/>
-      <c r="K31" s="45"/>
-      <c r="L31" s="45"/>
-      <c r="M31" s="45"/>
-      <c r="N31" s="45"/>
-      <c r="O31" s="45"/>
-      <c r="P31" s="45"/>
-      <c r="Q31" s="45"/>
-      <c r="R31" s="45"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="57"/>
+      <c r="J31" s="57"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="57"/>
+      <c r="M31" s="57"/>
+      <c r="N31" s="57"/>
+      <c r="O31" s="57"/>
+      <c r="P31" s="57"/>
+      <c r="Q31" s="57"/>
+      <c r="R31" s="57"/>
       <c r="S31" s="42"/>
       <c r="T31" s="43"/>
       <c r="U31" s="44"/>
-      <c r="V31" s="45"/>
-      <c r="W31" s="45"/>
-      <c r="X31" s="45"/>
-      <c r="Y31" s="45"/>
-      <c r="Z31" s="45"/>
-      <c r="AA31" s="45"/>
-      <c r="AB31" s="45"/>
-      <c r="AC31" s="45"/>
-      <c r="AD31" s="45"/>
-      <c r="AE31" s="45"/>
-      <c r="AF31" s="45"/>
-      <c r="AG31" s="45"/>
-      <c r="AH31" s="45"/>
-      <c r="AI31" s="45"/>
-      <c r="AJ31" s="61"/>
-      <c r="AK31" s="62"/>
-      <c r="AL31" s="63"/>
-      <c r="AM31" s="45"/>
-      <c r="AN31" s="45"/>
-      <c r="AO31" s="45"/>
-      <c r="AP31" s="45"/>
-      <c r="AQ31" s="45"/>
-      <c r="AR31" s="45"/>
-      <c r="AS31" s="45"/>
-      <c r="AT31" s="45"/>
-      <c r="AU31" s="45"/>
-      <c r="AV31" s="45"/>
-      <c r="AW31" s="45"/>
+      <c r="V31" s="57"/>
+      <c r="W31" s="57"/>
+      <c r="X31" s="57"/>
+      <c r="Y31" s="57"/>
+      <c r="Z31" s="57"/>
+      <c r="AA31" s="57"/>
+      <c r="AB31" s="57"/>
+      <c r="AC31" s="57"/>
+      <c r="AD31" s="57"/>
+      <c r="AE31" s="57"/>
+      <c r="AF31" s="57"/>
+      <c r="AG31" s="57"/>
+      <c r="AH31" s="57"/>
+      <c r="AI31" s="57"/>
+      <c r="AJ31" s="87"/>
+      <c r="AK31" s="88"/>
+      <c r="AL31" s="89"/>
+      <c r="AM31" s="57"/>
+      <c r="AN31" s="57"/>
+      <c r="AO31" s="57"/>
+      <c r="AP31" s="57"/>
+      <c r="AQ31" s="57"/>
+      <c r="AR31" s="57"/>
+      <c r="AS31" s="57"/>
+      <c r="AT31" s="57"/>
+      <c r="AU31" s="57"/>
+      <c r="AV31" s="57"/>
+      <c r="AW31" s="57"/>
     </row>
     <row r="32" spans="2:49" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="45"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="45"/>
-      <c r="J32" s="45"/>
-      <c r="K32" s="45"/>
-      <c r="L32" s="45"/>
-      <c r="M32" s="45"/>
-      <c r="N32" s="45"/>
-      <c r="O32" s="45"/>
-      <c r="P32" s="45"/>
-      <c r="Q32" s="45"/>
-      <c r="R32" s="45"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="57"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="57"/>
+      <c r="L32" s="57"/>
+      <c r="M32" s="57"/>
+      <c r="N32" s="57"/>
+      <c r="O32" s="57"/>
+      <c r="P32" s="57"/>
+      <c r="Q32" s="57"/>
+      <c r="R32" s="57"/>
       <c r="S32" s="42"/>
       <c r="T32" s="43"/>
       <c r="U32" s="44"/>
-      <c r="V32" s="45"/>
-      <c r="W32" s="45"/>
-      <c r="X32" s="45"/>
-      <c r="Y32" s="45"/>
-      <c r="Z32" s="45"/>
-      <c r="AA32" s="45"/>
-      <c r="AB32" s="45"/>
-      <c r="AC32" s="45"/>
-      <c r="AD32" s="45"/>
-      <c r="AE32" s="45"/>
-      <c r="AF32" s="45"/>
-      <c r="AG32" s="45"/>
-      <c r="AH32" s="45"/>
-      <c r="AI32" s="45"/>
-      <c r="AJ32" s="61"/>
-      <c r="AK32" s="62"/>
-      <c r="AL32" s="63"/>
-      <c r="AM32" s="45"/>
-      <c r="AN32" s="45"/>
-      <c r="AO32" s="45"/>
-      <c r="AP32" s="45"/>
-      <c r="AQ32" s="45"/>
-      <c r="AR32" s="45"/>
-      <c r="AS32" s="45"/>
-      <c r="AT32" s="45"/>
-      <c r="AU32" s="45"/>
-      <c r="AV32" s="45"/>
-      <c r="AW32" s="45"/>
+      <c r="V32" s="57"/>
+      <c r="W32" s="57"/>
+      <c r="X32" s="57"/>
+      <c r="Y32" s="57"/>
+      <c r="Z32" s="57"/>
+      <c r="AA32" s="57"/>
+      <c r="AB32" s="57"/>
+      <c r="AC32" s="57"/>
+      <c r="AD32" s="57"/>
+      <c r="AE32" s="57"/>
+      <c r="AF32" s="57"/>
+      <c r="AG32" s="57"/>
+      <c r="AH32" s="57"/>
+      <c r="AI32" s="57"/>
+      <c r="AJ32" s="87"/>
+      <c r="AK32" s="88"/>
+      <c r="AL32" s="89"/>
+      <c r="AM32" s="57"/>
+      <c r="AN32" s="57"/>
+      <c r="AO32" s="57"/>
+      <c r="AP32" s="57"/>
+      <c r="AQ32" s="57"/>
+      <c r="AR32" s="57"/>
+      <c r="AS32" s="57"/>
+      <c r="AT32" s="57"/>
+      <c r="AU32" s="57"/>
+      <c r="AV32" s="57"/>
+      <c r="AW32" s="57"/>
     </row>
     <row r="33" spans="2:49" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="45"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="45"/>
-      <c r="J33" s="45"/>
-      <c r="K33" s="45"/>
-      <c r="L33" s="45"/>
-      <c r="M33" s="45"/>
-      <c r="N33" s="45"/>
-      <c r="O33" s="45"/>
-      <c r="P33" s="45"/>
-      <c r="Q33" s="45"/>
-      <c r="R33" s="45"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="57"/>
+      <c r="J33" s="57"/>
+      <c r="K33" s="57"/>
+      <c r="L33" s="57"/>
+      <c r="M33" s="57"/>
+      <c r="N33" s="57"/>
+      <c r="O33" s="57"/>
+      <c r="P33" s="57"/>
+      <c r="Q33" s="57"/>
+      <c r="R33" s="57"/>
       <c r="S33" s="42"/>
       <c r="T33" s="43"/>
       <c r="U33" s="44"/>
-      <c r="V33" s="45"/>
-      <c r="W33" s="45"/>
-      <c r="X33" s="45"/>
-      <c r="Y33" s="45"/>
-      <c r="Z33" s="45"/>
-      <c r="AA33" s="45"/>
-      <c r="AB33" s="45"/>
-      <c r="AC33" s="45"/>
-      <c r="AD33" s="45"/>
-      <c r="AE33" s="45"/>
-      <c r="AF33" s="45"/>
-      <c r="AG33" s="45"/>
-      <c r="AH33" s="45"/>
-      <c r="AI33" s="45"/>
-      <c r="AJ33" s="61"/>
-      <c r="AK33" s="62"/>
-      <c r="AL33" s="63"/>
-      <c r="AM33" s="45"/>
-      <c r="AN33" s="45"/>
-      <c r="AO33" s="45"/>
-      <c r="AP33" s="45"/>
-      <c r="AQ33" s="45"/>
-      <c r="AR33" s="45"/>
-      <c r="AS33" s="45"/>
-      <c r="AT33" s="45"/>
-      <c r="AU33" s="45"/>
-      <c r="AV33" s="45"/>
-      <c r="AW33" s="45"/>
+      <c r="V33" s="57"/>
+      <c r="W33" s="57"/>
+      <c r="X33" s="57"/>
+      <c r="Y33" s="57"/>
+      <c r="Z33" s="57"/>
+      <c r="AA33" s="57"/>
+      <c r="AB33" s="57"/>
+      <c r="AC33" s="57"/>
+      <c r="AD33" s="57"/>
+      <c r="AE33" s="57"/>
+      <c r="AF33" s="57"/>
+      <c r="AG33" s="57"/>
+      <c r="AH33" s="57"/>
+      <c r="AI33" s="57"/>
+      <c r="AJ33" s="87"/>
+      <c r="AK33" s="88"/>
+      <c r="AL33" s="89"/>
+      <c r="AM33" s="57"/>
+      <c r="AN33" s="57"/>
+      <c r="AO33" s="57"/>
+      <c r="AP33" s="57"/>
+      <c r="AQ33" s="57"/>
+      <c r="AR33" s="57"/>
+      <c r="AS33" s="57"/>
+      <c r="AT33" s="57"/>
+      <c r="AU33" s="57"/>
+      <c r="AV33" s="57"/>
+      <c r="AW33" s="57"/>
     </row>
     <row r="34" spans="2:49" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
-      <c r="I34" s="45"/>
-      <c r="J34" s="45"/>
-      <c r="K34" s="45"/>
-      <c r="L34" s="45"/>
-      <c r="M34" s="45"/>
-      <c r="N34" s="45"/>
-      <c r="O34" s="45"/>
-      <c r="P34" s="45"/>
-      <c r="Q34" s="45"/>
-      <c r="R34" s="45"/>
+      <c r="B34" s="57"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="57"/>
+      <c r="J34" s="57"/>
+      <c r="K34" s="57"/>
+      <c r="L34" s="57"/>
+      <c r="M34" s="57"/>
+      <c r="N34" s="57"/>
+      <c r="O34" s="57"/>
+      <c r="P34" s="57"/>
+      <c r="Q34" s="57"/>
+      <c r="R34" s="57"/>
       <c r="S34" s="42"/>
       <c r="T34" s="43"/>
       <c r="U34" s="44"/>
-      <c r="V34" s="45"/>
-      <c r="W34" s="45"/>
-      <c r="X34" s="45"/>
-      <c r="Y34" s="45"/>
-      <c r="Z34" s="45"/>
-      <c r="AA34" s="45"/>
-      <c r="AB34" s="45"/>
-      <c r="AC34" s="45"/>
-      <c r="AD34" s="45"/>
-      <c r="AE34" s="45"/>
-      <c r="AF34" s="45"/>
-      <c r="AG34" s="45"/>
-      <c r="AH34" s="45"/>
-      <c r="AI34" s="45"/>
-      <c r="AJ34" s="61"/>
-      <c r="AK34" s="62"/>
-      <c r="AL34" s="63"/>
-      <c r="AM34" s="45"/>
-      <c r="AN34" s="45"/>
-      <c r="AO34" s="45"/>
-      <c r="AP34" s="45"/>
-      <c r="AQ34" s="45"/>
-      <c r="AR34" s="45"/>
-      <c r="AS34" s="45"/>
-      <c r="AT34" s="45"/>
-      <c r="AU34" s="45"/>
-      <c r="AV34" s="45"/>
-      <c r="AW34" s="45"/>
+      <c r="V34" s="57"/>
+      <c r="W34" s="57"/>
+      <c r="X34" s="57"/>
+      <c r="Y34" s="57"/>
+      <c r="Z34" s="57"/>
+      <c r="AA34" s="57"/>
+      <c r="AB34" s="57"/>
+      <c r="AC34" s="57"/>
+      <c r="AD34" s="57"/>
+      <c r="AE34" s="57"/>
+      <c r="AF34" s="57"/>
+      <c r="AG34" s="57"/>
+      <c r="AH34" s="57"/>
+      <c r="AI34" s="57"/>
+      <c r="AJ34" s="87"/>
+      <c r="AK34" s="88"/>
+      <c r="AL34" s="89"/>
+      <c r="AM34" s="57"/>
+      <c r="AN34" s="57"/>
+      <c r="AO34" s="57"/>
+      <c r="AP34" s="57"/>
+      <c r="AQ34" s="57"/>
+      <c r="AR34" s="57"/>
+      <c r="AS34" s="57"/>
+      <c r="AT34" s="57"/>
+      <c r="AU34" s="57"/>
+      <c r="AV34" s="57"/>
+      <c r="AW34" s="57"/>
     </row>
     <row r="35" spans="2:49" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="45"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="45"/>
-      <c r="G35" s="45"/>
-      <c r="H35" s="45"/>
-      <c r="I35" s="45"/>
-      <c r="J35" s="45"/>
-      <c r="K35" s="45"/>
-      <c r="L35" s="45"/>
-      <c r="M35" s="45"/>
-      <c r="N35" s="45"/>
-      <c r="O35" s="45"/>
-      <c r="P35" s="45"/>
-      <c r="Q35" s="45"/>
-      <c r="R35" s="45"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="57"/>
+      <c r="J35" s="57"/>
+      <c r="K35" s="57"/>
+      <c r="L35" s="57"/>
+      <c r="M35" s="57"/>
+      <c r="N35" s="57"/>
+      <c r="O35" s="57"/>
+      <c r="P35" s="57"/>
+      <c r="Q35" s="57"/>
+      <c r="R35" s="57"/>
       <c r="S35" s="42"/>
       <c r="T35" s="43"/>
       <c r="U35" s="44"/>
-      <c r="V35" s="45"/>
-      <c r="W35" s="45"/>
-      <c r="X35" s="45"/>
-      <c r="Y35" s="45"/>
-      <c r="Z35" s="45"/>
-      <c r="AA35" s="45"/>
-      <c r="AB35" s="45"/>
-      <c r="AC35" s="45"/>
-      <c r="AD35" s="45"/>
-      <c r="AE35" s="45"/>
-      <c r="AF35" s="45"/>
-      <c r="AG35" s="45"/>
-      <c r="AH35" s="45"/>
-      <c r="AI35" s="45"/>
-      <c r="AJ35" s="61"/>
-      <c r="AK35" s="62"/>
-      <c r="AL35" s="63"/>
-      <c r="AM35" s="45"/>
-      <c r="AN35" s="45"/>
-      <c r="AO35" s="45"/>
-      <c r="AP35" s="45"/>
-      <c r="AQ35" s="45"/>
-      <c r="AR35" s="45"/>
-      <c r="AS35" s="45"/>
-      <c r="AT35" s="45"/>
-      <c r="AU35" s="45"/>
-      <c r="AV35" s="45"/>
-      <c r="AW35" s="45"/>
+      <c r="V35" s="57"/>
+      <c r="W35" s="57"/>
+      <c r="X35" s="57"/>
+      <c r="Y35" s="57"/>
+      <c r="Z35" s="57"/>
+      <c r="AA35" s="57"/>
+      <c r="AB35" s="57"/>
+      <c r="AC35" s="57"/>
+      <c r="AD35" s="57"/>
+      <c r="AE35" s="57"/>
+      <c r="AF35" s="57"/>
+      <c r="AG35" s="57"/>
+      <c r="AH35" s="57"/>
+      <c r="AI35" s="57"/>
+      <c r="AJ35" s="87"/>
+      <c r="AK35" s="88"/>
+      <c r="AL35" s="89"/>
+      <c r="AM35" s="57"/>
+      <c r="AN35" s="57"/>
+      <c r="AO35" s="57"/>
+      <c r="AP35" s="57"/>
+      <c r="AQ35" s="57"/>
+      <c r="AR35" s="57"/>
+      <c r="AS35" s="57"/>
+      <c r="AT35" s="57"/>
+      <c r="AU35" s="57"/>
+      <c r="AV35" s="57"/>
+      <c r="AW35" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="264">
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="S34:U34"/>
-    <mergeCell ref="S35:U35"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:R6"/>
-    <mergeCell ref="V6:AI6"/>
-    <mergeCell ref="AR6:AW6"/>
-    <mergeCell ref="AJ6:AL6"/>
-    <mergeCell ref="AM6:AQ6"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="V9:AI9"/>
-    <mergeCell ref="AR9:AW9"/>
-    <mergeCell ref="AJ7:AL9"/>
-    <mergeCell ref="AM7:AQ9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="V8:AI8"/>
-    <mergeCell ref="AR8:AW8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="V7:AI7"/>
-    <mergeCell ref="AR7:AW7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="AM34:AQ34"/>
+    <mergeCell ref="AR34:AW34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="E35:I35"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="M35:R35"/>
+    <mergeCell ref="V35:AI35"/>
+    <mergeCell ref="AJ35:AL35"/>
+    <mergeCell ref="AM35:AQ35"/>
+    <mergeCell ref="AR35:AW35"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="M34:R34"/>
+    <mergeCell ref="V34:AI34"/>
+    <mergeCell ref="AJ34:AL34"/>
+    <mergeCell ref="AM21:AQ21"/>
+    <mergeCell ref="AR21:AW21"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="M33:R33"/>
+    <mergeCell ref="V33:AI33"/>
+    <mergeCell ref="AJ33:AL33"/>
+    <mergeCell ref="AM33:AQ33"/>
+    <mergeCell ref="AR33:AW33"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="V21:AI21"/>
+    <mergeCell ref="AJ21:AL21"/>
+    <mergeCell ref="AM30:AQ30"/>
+    <mergeCell ref="AJ30:AL30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="V29:AI29"/>
+    <mergeCell ref="AR29:AW29"/>
+    <mergeCell ref="AM19:AQ19"/>
+    <mergeCell ref="AR19:AW19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="V20:AI20"/>
+    <mergeCell ref="AJ20:AL20"/>
+    <mergeCell ref="AM20:AQ20"/>
+    <mergeCell ref="AR20:AW20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="V19:AI19"/>
+    <mergeCell ref="AJ19:AL19"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="V18:AI18"/>
+    <mergeCell ref="AJ18:AL18"/>
+    <mergeCell ref="AM18:AQ18"/>
+    <mergeCell ref="AR18:AW18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="V17:AI17"/>
+    <mergeCell ref="AJ17:AL17"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="V30:AI30"/>
+    <mergeCell ref="AR30:AW30"/>
+    <mergeCell ref="AM15:AQ15"/>
+    <mergeCell ref="AR15:AW15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="V16:AI16"/>
+    <mergeCell ref="AJ16:AL16"/>
+    <mergeCell ref="AM16:AQ16"/>
+    <mergeCell ref="AR16:AW16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="V15:AI15"/>
+    <mergeCell ref="AJ15:AL15"/>
+    <mergeCell ref="AM17:AQ17"/>
+    <mergeCell ref="AR17:AW17"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="V32:AI32"/>
+    <mergeCell ref="AR32:AW32"/>
+    <mergeCell ref="AM32:AQ32"/>
+    <mergeCell ref="AJ32:AL32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="V31:AI31"/>
+    <mergeCell ref="AR31:AW31"/>
+    <mergeCell ref="AM31:AQ31"/>
+    <mergeCell ref="AJ31:AL31"/>
+    <mergeCell ref="AM29:AQ29"/>
+    <mergeCell ref="AJ29:AL29"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="V28:AI28"/>
+    <mergeCell ref="AR28:AW28"/>
+    <mergeCell ref="AM28:AQ28"/>
+    <mergeCell ref="AJ28:AL28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="V27:AI27"/>
+    <mergeCell ref="AR27:AW27"/>
+    <mergeCell ref="AM27:AQ27"/>
+    <mergeCell ref="AJ27:AL27"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="V26:AI26"/>
+    <mergeCell ref="AR26:AW26"/>
+    <mergeCell ref="AM26:AQ26"/>
+    <mergeCell ref="AJ26:AL26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="V25:AI25"/>
+    <mergeCell ref="AR25:AW25"/>
+    <mergeCell ref="AM25:AQ25"/>
+    <mergeCell ref="AJ25:AL25"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="V24:AI24"/>
+    <mergeCell ref="AR24:AW24"/>
+    <mergeCell ref="AM24:AQ24"/>
+    <mergeCell ref="AJ24:AL24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="V23:AI23"/>
+    <mergeCell ref="AR23:AW23"/>
+    <mergeCell ref="AM23:AQ23"/>
+    <mergeCell ref="AJ23:AL23"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="V22:AI22"/>
+    <mergeCell ref="AR22:AW22"/>
+    <mergeCell ref="AM22:AQ22"/>
+    <mergeCell ref="AJ22:AL22"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="V14:AI14"/>
+    <mergeCell ref="AR14:AW14"/>
+    <mergeCell ref="AM14:AQ14"/>
+    <mergeCell ref="AJ14:AL14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="V13:AI13"/>
+    <mergeCell ref="AR13:AW13"/>
+    <mergeCell ref="AM13:AQ13"/>
+    <mergeCell ref="AJ13:AL13"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="E12:I12"/>
     <mergeCell ref="J12:L12"/>
@@ -13622,190 +14242,62 @@
     <mergeCell ref="AR10:AW10"/>
     <mergeCell ref="S10:U10"/>
     <mergeCell ref="S11:U11"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="V14:AI14"/>
-    <mergeCell ref="AR14:AW14"/>
-    <mergeCell ref="AM14:AQ14"/>
-    <mergeCell ref="AJ14:AL14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="V13:AI13"/>
-    <mergeCell ref="AR13:AW13"/>
-    <mergeCell ref="AM13:AQ13"/>
-    <mergeCell ref="AJ13:AL13"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="V23:AI23"/>
-    <mergeCell ref="AR23:AW23"/>
-    <mergeCell ref="AM23:AQ23"/>
-    <mergeCell ref="AJ23:AL23"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="V22:AI22"/>
-    <mergeCell ref="AR22:AW22"/>
-    <mergeCell ref="AM22:AQ22"/>
-    <mergeCell ref="AJ22:AL22"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="V25:AI25"/>
-    <mergeCell ref="AR25:AW25"/>
-    <mergeCell ref="AM25:AQ25"/>
-    <mergeCell ref="AJ25:AL25"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="V24:AI24"/>
-    <mergeCell ref="AR24:AW24"/>
-    <mergeCell ref="AM24:AQ24"/>
-    <mergeCell ref="AJ24:AL24"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="V27:AI27"/>
-    <mergeCell ref="AR27:AW27"/>
-    <mergeCell ref="AM27:AQ27"/>
-    <mergeCell ref="AJ27:AL27"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="V26:AI26"/>
-    <mergeCell ref="AR26:AW26"/>
-    <mergeCell ref="AM26:AQ26"/>
-    <mergeCell ref="AJ26:AL26"/>
-    <mergeCell ref="AM29:AQ29"/>
-    <mergeCell ref="AJ29:AL29"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="V28:AI28"/>
-    <mergeCell ref="AR28:AW28"/>
-    <mergeCell ref="AM28:AQ28"/>
-    <mergeCell ref="AJ28:AL28"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="V32:AI32"/>
-    <mergeCell ref="AR32:AW32"/>
-    <mergeCell ref="AM32:AQ32"/>
-    <mergeCell ref="AJ32:AL32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="V31:AI31"/>
-    <mergeCell ref="AR31:AW31"/>
-    <mergeCell ref="AM31:AQ31"/>
-    <mergeCell ref="AJ31:AL31"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="V30:AI30"/>
-    <mergeCell ref="AR30:AW30"/>
-    <mergeCell ref="AM15:AQ15"/>
-    <mergeCell ref="AR15:AW15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="V16:AI16"/>
-    <mergeCell ref="AJ16:AL16"/>
-    <mergeCell ref="AM16:AQ16"/>
-    <mergeCell ref="AR16:AW16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="V15:AI15"/>
-    <mergeCell ref="AJ15:AL15"/>
-    <mergeCell ref="AM17:AQ17"/>
-    <mergeCell ref="AR17:AW17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="V18:AI18"/>
-    <mergeCell ref="AJ18:AL18"/>
-    <mergeCell ref="AM18:AQ18"/>
-    <mergeCell ref="AR18:AW18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="V17:AI17"/>
-    <mergeCell ref="AJ17:AL17"/>
-    <mergeCell ref="AM19:AQ19"/>
-    <mergeCell ref="AR19:AW19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="V20:AI20"/>
-    <mergeCell ref="AJ20:AL20"/>
-    <mergeCell ref="AM20:AQ20"/>
-    <mergeCell ref="AR20:AW20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="V19:AI19"/>
-    <mergeCell ref="AJ19:AL19"/>
-    <mergeCell ref="AM21:AQ21"/>
-    <mergeCell ref="AR21:AW21"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="M33:R33"/>
-    <mergeCell ref="V33:AI33"/>
-    <mergeCell ref="AJ33:AL33"/>
-    <mergeCell ref="AM33:AQ33"/>
-    <mergeCell ref="AR33:AW33"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="V21:AI21"/>
-    <mergeCell ref="AJ21:AL21"/>
-    <mergeCell ref="AM30:AQ30"/>
-    <mergeCell ref="AJ30:AL30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="V29:AI29"/>
-    <mergeCell ref="AR29:AW29"/>
-    <mergeCell ref="AM34:AQ34"/>
-    <mergeCell ref="AR34:AW34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="E35:I35"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="M35:R35"/>
-    <mergeCell ref="V35:AI35"/>
-    <mergeCell ref="AJ35:AL35"/>
-    <mergeCell ref="AM35:AQ35"/>
-    <mergeCell ref="AR35:AW35"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="M34:R34"/>
-    <mergeCell ref="V34:AI34"/>
-    <mergeCell ref="AJ34:AL34"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="V9:AI9"/>
+    <mergeCell ref="AR9:AW9"/>
+    <mergeCell ref="AJ7:AL9"/>
+    <mergeCell ref="AM7:AQ9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="V8:AI8"/>
+    <mergeCell ref="AR8:AW8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="V7:AI7"/>
+    <mergeCell ref="AR7:AW7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:R6"/>
+    <mergeCell ref="V6:AI6"/>
+    <mergeCell ref="AR6:AW6"/>
+    <mergeCell ref="AJ6:AL6"/>
+    <mergeCell ref="AM6:AQ6"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="S34:U34"/>
+    <mergeCell ref="S35:U35"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="S29:U29"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
@@ -13818,7 +14310,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AH103"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
@@ -13892,40 +14384,40 @@
       <c r="AG51" s="7"/>
     </row>
     <row r="52" spans="2:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="138" t="s">
+      <c r="B52" s="96" t="s">
         <v>70</v>
       </c>
-      <c r="C52" s="139"/>
-      <c r="D52" s="139"/>
-      <c r="E52" s="139"/>
-      <c r="F52" s="139"/>
-      <c r="G52" s="139"/>
-      <c r="H52" s="139"/>
-      <c r="I52" s="139"/>
-      <c r="J52" s="139"/>
-      <c r="K52" s="139"/>
-      <c r="L52" s="139"/>
-      <c r="M52" s="139"/>
-      <c r="N52" s="139"/>
-      <c r="O52" s="139"/>
-      <c r="P52" s="139"/>
-      <c r="Q52" s="139"/>
-      <c r="R52" s="139"/>
-      <c r="S52" s="139"/>
-      <c r="T52" s="139"/>
-      <c r="U52" s="139"/>
-      <c r="V52" s="139"/>
-      <c r="W52" s="139"/>
-      <c r="X52" s="139"/>
-      <c r="Y52" s="139"/>
-      <c r="Z52" s="139"/>
-      <c r="AA52" s="139"/>
-      <c r="AB52" s="139"/>
-      <c r="AC52" s="139"/>
-      <c r="AD52" s="139"/>
-      <c r="AE52" s="139"/>
-      <c r="AF52" s="139"/>
-      <c r="AG52" s="140"/>
+      <c r="C52" s="97"/>
+      <c r="D52" s="97"/>
+      <c r="E52" s="97"/>
+      <c r="F52" s="97"/>
+      <c r="G52" s="97"/>
+      <c r="H52" s="97"/>
+      <c r="I52" s="97"/>
+      <c r="J52" s="97"/>
+      <c r="K52" s="97"/>
+      <c r="L52" s="97"/>
+      <c r="M52" s="97"/>
+      <c r="N52" s="97"/>
+      <c r="O52" s="97"/>
+      <c r="P52" s="97"/>
+      <c r="Q52" s="97"/>
+      <c r="R52" s="97"/>
+      <c r="S52" s="97"/>
+      <c r="T52" s="97"/>
+      <c r="U52" s="97"/>
+      <c r="V52" s="97"/>
+      <c r="W52" s="97"/>
+      <c r="X52" s="97"/>
+      <c r="Y52" s="97"/>
+      <c r="Z52" s="97"/>
+      <c r="AA52" s="97"/>
+      <c r="AB52" s="97"/>
+      <c r="AC52" s="97"/>
+      <c r="AD52" s="97"/>
+      <c r="AE52" s="97"/>
+      <c r="AF52" s="97"/>
+      <c r="AG52" s="98"/>
     </row>
     <row r="53" spans="2:33" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B53" s="8"/>
@@ -13963,38 +14455,38 @@
     </row>
     <row r="54" spans="2:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B54" s="8"/>
-      <c r="C54" s="137" t="s">
+      <c r="C54" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="D54" s="137"/>
-      <c r="E54" s="137"/>
-      <c r="F54" s="137"/>
-      <c r="G54" s="137"/>
-      <c r="H54" s="137"/>
-      <c r="I54" s="137"/>
-      <c r="J54" s="137"/>
-      <c r="K54" s="137"/>
-      <c r="L54" s="137"/>
-      <c r="M54" s="137"/>
-      <c r="N54" s="137"/>
-      <c r="O54" s="137"/>
-      <c r="P54" s="137"/>
-      <c r="Q54" s="137"/>
-      <c r="R54" s="137"/>
-      <c r="S54" s="137"/>
-      <c r="T54" s="137"/>
-      <c r="U54" s="137"/>
-      <c r="V54" s="137"/>
-      <c r="W54" s="137"/>
-      <c r="X54" s="137"/>
-      <c r="Y54" s="137"/>
-      <c r="Z54" s="137"/>
-      <c r="AA54" s="137"/>
-      <c r="AB54" s="137"/>
-      <c r="AC54" s="137"/>
-      <c r="AD54" s="137"/>
-      <c r="AE54" s="137"/>
-      <c r="AF54" s="137"/>
+      <c r="D54" s="95"/>
+      <c r="E54" s="95"/>
+      <c r="F54" s="95"/>
+      <c r="G54" s="95"/>
+      <c r="H54" s="95"/>
+      <c r="I54" s="95"/>
+      <c r="J54" s="95"/>
+      <c r="K54" s="95"/>
+      <c r="L54" s="95"/>
+      <c r="M54" s="95"/>
+      <c r="N54" s="95"/>
+      <c r="O54" s="95"/>
+      <c r="P54" s="95"/>
+      <c r="Q54" s="95"/>
+      <c r="R54" s="95"/>
+      <c r="S54" s="95"/>
+      <c r="T54" s="95"/>
+      <c r="U54" s="95"/>
+      <c r="V54" s="95"/>
+      <c r="W54" s="95"/>
+      <c r="X54" s="95"/>
+      <c r="Y54" s="95"/>
+      <c r="Z54" s="95"/>
+      <c r="AA54" s="95"/>
+      <c r="AB54" s="95"/>
+      <c r="AC54" s="95"/>
+      <c r="AD54" s="95"/>
+      <c r="AE54" s="95"/>
+      <c r="AF54" s="95"/>
       <c r="AG54" s="10"/>
     </row>
     <row r="55" spans="2:33" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
@@ -14033,22 +14525,22 @@
     </row>
     <row r="56" spans="2:33" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B56" s="8"/>
-      <c r="C56" s="130" t="s">
+      <c r="C56" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="D56" s="131"/>
-      <c r="E56" s="131"/>
-      <c r="F56" s="131"/>
-      <c r="G56" s="131"/>
-      <c r="H56" s="131"/>
-      <c r="I56" s="132"/>
-      <c r="J56" s="133"/>
-      <c r="K56" s="133"/>
-      <c r="L56" s="133"/>
-      <c r="M56" s="133"/>
-      <c r="N56" s="133"/>
-      <c r="O56" s="133"/>
-      <c r="P56" s="134"/>
+      <c r="D56" s="91"/>
+      <c r="E56" s="91"/>
+      <c r="F56" s="91"/>
+      <c r="G56" s="91"/>
+      <c r="H56" s="91"/>
+      <c r="I56" s="92"/>
+      <c r="J56" s="93"/>
+      <c r="K56" s="93"/>
+      <c r="L56" s="93"/>
+      <c r="M56" s="93"/>
+      <c r="N56" s="93"/>
+      <c r="O56" s="93"/>
+      <c r="P56" s="94"/>
       <c r="Q56" s="9"/>
       <c r="R56" s="9"/>
       <c r="S56" s="9"/>
@@ -14069,22 +14561,22 @@
     </row>
     <row r="57" spans="2:33" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B57" s="8"/>
-      <c r="C57" s="130" t="s">
+      <c r="C57" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="D57" s="131"/>
-      <c r="E57" s="131"/>
-      <c r="F57" s="131"/>
-      <c r="G57" s="131"/>
-      <c r="H57" s="131"/>
-      <c r="I57" s="132"/>
-      <c r="J57" s="133"/>
-      <c r="K57" s="133"/>
-      <c r="L57" s="133"/>
-      <c r="M57" s="133"/>
-      <c r="N57" s="133"/>
-      <c r="O57" s="133"/>
-      <c r="P57" s="134"/>
+      <c r="D57" s="91"/>
+      <c r="E57" s="91"/>
+      <c r="F57" s="91"/>
+      <c r="G57" s="91"/>
+      <c r="H57" s="91"/>
+      <c r="I57" s="92"/>
+      <c r="J57" s="93"/>
+      <c r="K57" s="93"/>
+      <c r="L57" s="93"/>
+      <c r="M57" s="93"/>
+      <c r="N57" s="93"/>
+      <c r="O57" s="93"/>
+      <c r="P57" s="94"/>
       <c r="Q57" s="9"/>
       <c r="R57" s="9"/>
       <c r="S57" s="9"/>
@@ -14105,22 +14597,22 @@
     </row>
     <row r="58" spans="2:33" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="8"/>
-      <c r="C58" s="130" t="s">
+      <c r="C58" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="D58" s="131"/>
-      <c r="E58" s="131"/>
-      <c r="F58" s="131"/>
-      <c r="G58" s="131"/>
-      <c r="H58" s="131"/>
-      <c r="I58" s="132"/>
-      <c r="J58" s="133"/>
-      <c r="K58" s="133"/>
-      <c r="L58" s="133"/>
-      <c r="M58" s="133"/>
-      <c r="N58" s="133"/>
-      <c r="O58" s="133"/>
-      <c r="P58" s="134"/>
+      <c r="D58" s="91"/>
+      <c r="E58" s="91"/>
+      <c r="F58" s="91"/>
+      <c r="G58" s="91"/>
+      <c r="H58" s="91"/>
+      <c r="I58" s="92"/>
+      <c r="J58" s="93"/>
+      <c r="K58" s="93"/>
+      <c r="L58" s="93"/>
+      <c r="M58" s="93"/>
+      <c r="N58" s="93"/>
+      <c r="O58" s="93"/>
+      <c r="P58" s="94"/>
       <c r="Q58" s="9"/>
       <c r="R58" s="9"/>
       <c r="S58" s="9"/>
@@ -14175,38 +14667,38 @@
     </row>
     <row r="60" spans="2:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B60" s="8"/>
-      <c r="C60" s="137" t="s">
+      <c r="C60" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="D60" s="137"/>
-      <c r="E60" s="137"/>
-      <c r="F60" s="137"/>
-      <c r="G60" s="137"/>
-      <c r="H60" s="137"/>
-      <c r="I60" s="137"/>
-      <c r="J60" s="137"/>
-      <c r="K60" s="137"/>
-      <c r="L60" s="137"/>
-      <c r="M60" s="137"/>
-      <c r="N60" s="137"/>
-      <c r="O60" s="137"/>
-      <c r="P60" s="137"/>
-      <c r="Q60" s="137"/>
-      <c r="R60" s="137"/>
-      <c r="S60" s="137"/>
-      <c r="T60" s="137"/>
-      <c r="U60" s="137"/>
-      <c r="V60" s="137"/>
-      <c r="W60" s="137"/>
-      <c r="X60" s="137"/>
-      <c r="Y60" s="137"/>
-      <c r="Z60" s="137"/>
-      <c r="AA60" s="137"/>
-      <c r="AB60" s="137"/>
-      <c r="AC60" s="137"/>
-      <c r="AD60" s="137"/>
-      <c r="AE60" s="137"/>
-      <c r="AF60" s="137"/>
+      <c r="D60" s="95"/>
+      <c r="E60" s="95"/>
+      <c r="F60" s="95"/>
+      <c r="G60" s="95"/>
+      <c r="H60" s="95"/>
+      <c r="I60" s="95"/>
+      <c r="J60" s="95"/>
+      <c r="K60" s="95"/>
+      <c r="L60" s="95"/>
+      <c r="M60" s="95"/>
+      <c r="N60" s="95"/>
+      <c r="O60" s="95"/>
+      <c r="P60" s="95"/>
+      <c r="Q60" s="95"/>
+      <c r="R60" s="95"/>
+      <c r="S60" s="95"/>
+      <c r="T60" s="95"/>
+      <c r="U60" s="95"/>
+      <c r="V60" s="95"/>
+      <c r="W60" s="95"/>
+      <c r="X60" s="95"/>
+      <c r="Y60" s="95"/>
+      <c r="Z60" s="95"/>
+      <c r="AA60" s="95"/>
+      <c r="AB60" s="95"/>
+      <c r="AC60" s="95"/>
+      <c r="AD60" s="95"/>
+      <c r="AE60" s="95"/>
+      <c r="AF60" s="95"/>
       <c r="AG60" s="10"/>
     </row>
     <row r="61" spans="2:33" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
@@ -14245,172 +14737,172 @@
     </row>
     <row r="62" spans="2:33" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B62" s="8"/>
-      <c r="C62" s="130" t="s">
+      <c r="C62" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="D62" s="131"/>
-      <c r="E62" s="131"/>
-      <c r="F62" s="131"/>
-      <c r="G62" s="131"/>
-      <c r="H62" s="131"/>
-      <c r="I62" s="132"/>
-      <c r="J62" s="133"/>
-      <c r="K62" s="133"/>
-      <c r="L62" s="133"/>
-      <c r="M62" s="133"/>
-      <c r="N62" s="133"/>
-      <c r="O62" s="133"/>
-      <c r="P62" s="134"/>
+      <c r="D62" s="91"/>
+      <c r="E62" s="91"/>
+      <c r="F62" s="91"/>
+      <c r="G62" s="91"/>
+      <c r="H62" s="91"/>
+      <c r="I62" s="92"/>
+      <c r="J62" s="93"/>
+      <c r="K62" s="93"/>
+      <c r="L62" s="93"/>
+      <c r="M62" s="93"/>
+      <c r="N62" s="93"/>
+      <c r="O62" s="93"/>
+      <c r="P62" s="94"/>
       <c r="Q62" s="9"/>
       <c r="R62" s="9"/>
-      <c r="S62" s="130" t="s">
+      <c r="S62" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="T62" s="131"/>
-      <c r="U62" s="131"/>
-      <c r="V62" s="131"/>
-      <c r="W62" s="131"/>
-      <c r="X62" s="131"/>
-      <c r="Y62" s="132"/>
-      <c r="Z62" s="133"/>
-      <c r="AA62" s="133"/>
-      <c r="AB62" s="133"/>
-      <c r="AC62" s="133"/>
-      <c r="AD62" s="133"/>
-      <c r="AE62" s="133"/>
-      <c r="AF62" s="134"/>
+      <c r="T62" s="91"/>
+      <c r="U62" s="91"/>
+      <c r="V62" s="91"/>
+      <c r="W62" s="91"/>
+      <c r="X62" s="91"/>
+      <c r="Y62" s="92"/>
+      <c r="Z62" s="93"/>
+      <c r="AA62" s="93"/>
+      <c r="AB62" s="93"/>
+      <c r="AC62" s="93"/>
+      <c r="AD62" s="93"/>
+      <c r="AE62" s="93"/>
+      <c r="AF62" s="94"/>
       <c r="AG62" s="10"/>
     </row>
     <row r="63" spans="2:33" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B63" s="8"/>
-      <c r="C63" s="130" t="s">
+      <c r="C63" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="D63" s="131"/>
-      <c r="E63" s="131"/>
-      <c r="F63" s="131"/>
-      <c r="G63" s="131"/>
-      <c r="H63" s="131"/>
-      <c r="I63" s="132"/>
-      <c r="J63" s="133"/>
-      <c r="K63" s="133"/>
-      <c r="L63" s="133"/>
-      <c r="M63" s="133"/>
-      <c r="N63" s="133"/>
-      <c r="O63" s="133"/>
-      <c r="P63" s="134"/>
+      <c r="D63" s="91"/>
+      <c r="E63" s="91"/>
+      <c r="F63" s="91"/>
+      <c r="G63" s="91"/>
+      <c r="H63" s="91"/>
+      <c r="I63" s="92"/>
+      <c r="J63" s="93"/>
+      <c r="K63" s="93"/>
+      <c r="L63" s="93"/>
+      <c r="M63" s="93"/>
+      <c r="N63" s="93"/>
+      <c r="O63" s="93"/>
+      <c r="P63" s="94"/>
       <c r="Q63" s="9"/>
       <c r="R63" s="9"/>
-      <c r="S63" s="130" t="s">
+      <c r="S63" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="T63" s="131"/>
-      <c r="U63" s="131"/>
-      <c r="V63" s="131"/>
-      <c r="W63" s="131"/>
-      <c r="X63" s="131"/>
-      <c r="Y63" s="132"/>
-      <c r="Z63" s="133"/>
-      <c r="AA63" s="133"/>
-      <c r="AB63" s="133"/>
-      <c r="AC63" s="133"/>
-      <c r="AD63" s="133"/>
-      <c r="AE63" s="133"/>
-      <c r="AF63" s="134"/>
+      <c r="T63" s="91"/>
+      <c r="U63" s="91"/>
+      <c r="V63" s="91"/>
+      <c r="W63" s="91"/>
+      <c r="X63" s="91"/>
+      <c r="Y63" s="92"/>
+      <c r="Z63" s="93"/>
+      <c r="AA63" s="93"/>
+      <c r="AB63" s="93"/>
+      <c r="AC63" s="93"/>
+      <c r="AD63" s="93"/>
+      <c r="AE63" s="93"/>
+      <c r="AF63" s="94"/>
       <c r="AG63" s="10"/>
     </row>
     <row r="64" spans="2:33" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B64" s="8"/>
-      <c r="C64" s="135"/>
-      <c r="D64" s="135"/>
-      <c r="E64" s="135"/>
-      <c r="F64" s="135"/>
-      <c r="G64" s="135"/>
-      <c r="H64" s="135"/>
-      <c r="I64" s="135"/>
-      <c r="J64" s="136"/>
-      <c r="K64" s="136"/>
-      <c r="L64" s="136"/>
-      <c r="M64" s="136"/>
-      <c r="N64" s="136"/>
-      <c r="O64" s="136"/>
-      <c r="P64" s="136"/>
+      <c r="C64" s="99"/>
+      <c r="D64" s="99"/>
+      <c r="E64" s="99"/>
+      <c r="F64" s="99"/>
+      <c r="G64" s="99"/>
+      <c r="H64" s="99"/>
+      <c r="I64" s="99"/>
+      <c r="J64" s="100"/>
+      <c r="K64" s="100"/>
+      <c r="L64" s="100"/>
+      <c r="M64" s="100"/>
+      <c r="N64" s="100"/>
+      <c r="O64" s="100"/>
+      <c r="P64" s="100"/>
       <c r="Q64" s="9"/>
       <c r="R64" s="9"/>
-      <c r="S64" s="130" t="s">
+      <c r="S64" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="T64" s="131"/>
-      <c r="U64" s="131"/>
-      <c r="V64" s="131"/>
-      <c r="W64" s="131"/>
-      <c r="X64" s="131"/>
-      <c r="Y64" s="132"/>
-      <c r="Z64" s="133"/>
-      <c r="AA64" s="133"/>
-      <c r="AB64" s="133"/>
-      <c r="AC64" s="133"/>
-      <c r="AD64" s="133"/>
-      <c r="AE64" s="133"/>
-      <c r="AF64" s="134"/>
+      <c r="T64" s="91"/>
+      <c r="U64" s="91"/>
+      <c r="V64" s="91"/>
+      <c r="W64" s="91"/>
+      <c r="X64" s="91"/>
+      <c r="Y64" s="92"/>
+      <c r="Z64" s="93"/>
+      <c r="AA64" s="93"/>
+      <c r="AB64" s="93"/>
+      <c r="AC64" s="93"/>
+      <c r="AD64" s="93"/>
+      <c r="AE64" s="93"/>
+      <c r="AF64" s="94"/>
       <c r="AG64" s="10"/>
     </row>
     <row r="65" spans="2:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B65" s="8"/>
-      <c r="C65" s="130" t="s">
+      <c r="C65" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="D65" s="131"/>
-      <c r="E65" s="131"/>
-      <c r="F65" s="131"/>
-      <c r="G65" s="131"/>
-      <c r="H65" s="131"/>
-      <c r="I65" s="132"/>
-      <c r="J65" s="133"/>
-      <c r="K65" s="133"/>
-      <c r="L65" s="133"/>
-      <c r="M65" s="133"/>
-      <c r="N65" s="133"/>
-      <c r="O65" s="133"/>
-      <c r="P65" s="134"/>
+      <c r="D65" s="91"/>
+      <c r="E65" s="91"/>
+      <c r="F65" s="91"/>
+      <c r="G65" s="91"/>
+      <c r="H65" s="91"/>
+      <c r="I65" s="92"/>
+      <c r="J65" s="93"/>
+      <c r="K65" s="93"/>
+      <c r="L65" s="93"/>
+      <c r="M65" s="93"/>
+      <c r="N65" s="93"/>
+      <c r="O65" s="93"/>
+      <c r="P65" s="94"/>
       <c r="Q65" s="9"/>
       <c r="R65" s="9"/>
-      <c r="S65" s="130" t="s">
+      <c r="S65" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="T65" s="131"/>
-      <c r="U65" s="131"/>
-      <c r="V65" s="131"/>
-      <c r="W65" s="131"/>
-      <c r="X65" s="131"/>
-      <c r="Y65" s="132"/>
-      <c r="Z65" s="133"/>
-      <c r="AA65" s="133"/>
-      <c r="AB65" s="133"/>
-      <c r="AC65" s="133"/>
-      <c r="AD65" s="133"/>
-      <c r="AE65" s="133"/>
-      <c r="AF65" s="134"/>
+      <c r="T65" s="91"/>
+      <c r="U65" s="91"/>
+      <c r="V65" s="91"/>
+      <c r="W65" s="91"/>
+      <c r="X65" s="91"/>
+      <c r="Y65" s="92"/>
+      <c r="Z65" s="93"/>
+      <c r="AA65" s="93"/>
+      <c r="AB65" s="93"/>
+      <c r="AC65" s="93"/>
+      <c r="AD65" s="93"/>
+      <c r="AE65" s="93"/>
+      <c r="AF65" s="94"/>
       <c r="AG65" s="10"/>
     </row>
     <row r="66" spans="2:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B66" s="8"/>
-      <c r="C66" s="130" t="s">
+      <c r="C66" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="D66" s="131"/>
-      <c r="E66" s="131"/>
-      <c r="F66" s="131"/>
-      <c r="G66" s="131"/>
-      <c r="H66" s="131"/>
-      <c r="I66" s="132"/>
-      <c r="J66" s="133"/>
-      <c r="K66" s="133"/>
-      <c r="L66" s="133"/>
-      <c r="M66" s="133"/>
-      <c r="N66" s="133"/>
-      <c r="O66" s="133"/>
-      <c r="P66" s="134"/>
+      <c r="D66" s="91"/>
+      <c r="E66" s="91"/>
+      <c r="F66" s="91"/>
+      <c r="G66" s="91"/>
+      <c r="H66" s="91"/>
+      <c r="I66" s="92"/>
+      <c r="J66" s="93"/>
+      <c r="K66" s="93"/>
+      <c r="L66" s="93"/>
+      <c r="M66" s="93"/>
+      <c r="N66" s="93"/>
+      <c r="O66" s="93"/>
+      <c r="P66" s="94"/>
       <c r="Q66" s="9"/>
       <c r="R66" s="9"/>
       <c r="S66" s="9"/>
@@ -14431,22 +14923,22 @@
     </row>
     <row r="67" spans="2:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B67" s="8"/>
-      <c r="C67" s="130" t="s">
+      <c r="C67" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="D67" s="131"/>
-      <c r="E67" s="131"/>
-      <c r="F67" s="131"/>
-      <c r="G67" s="131"/>
-      <c r="H67" s="131"/>
-      <c r="I67" s="132"/>
-      <c r="J67" s="133"/>
-      <c r="K67" s="133"/>
-      <c r="L67" s="133"/>
-      <c r="M67" s="133"/>
-      <c r="N67" s="133"/>
-      <c r="O67" s="133"/>
-      <c r="P67" s="134"/>
+      <c r="D67" s="91"/>
+      <c r="E67" s="91"/>
+      <c r="F67" s="91"/>
+      <c r="G67" s="91"/>
+      <c r="H67" s="91"/>
+      <c r="I67" s="92"/>
+      <c r="J67" s="93"/>
+      <c r="K67" s="93"/>
+      <c r="L67" s="93"/>
+      <c r="M67" s="93"/>
+      <c r="N67" s="93"/>
+      <c r="O67" s="93"/>
+      <c r="P67" s="94"/>
       <c r="Q67" s="9"/>
       <c r="R67" s="9"/>
       <c r="S67" s="9"/>
@@ -14467,22 +14959,22 @@
     </row>
     <row r="68" spans="2:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B68" s="8"/>
-      <c r="C68" s="130" t="s">
+      <c r="C68" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="D68" s="131"/>
-      <c r="E68" s="131"/>
-      <c r="F68" s="131"/>
-      <c r="G68" s="131"/>
-      <c r="H68" s="131"/>
-      <c r="I68" s="132"/>
-      <c r="J68" s="133"/>
-      <c r="K68" s="133"/>
-      <c r="L68" s="133"/>
-      <c r="M68" s="133"/>
-      <c r="N68" s="133"/>
-      <c r="O68" s="133"/>
-      <c r="P68" s="134"/>
+      <c r="D68" s="91"/>
+      <c r="E68" s="91"/>
+      <c r="F68" s="91"/>
+      <c r="G68" s="91"/>
+      <c r="H68" s="91"/>
+      <c r="I68" s="92"/>
+      <c r="J68" s="93"/>
+      <c r="K68" s="93"/>
+      <c r="L68" s="93"/>
+      <c r="M68" s="93"/>
+      <c r="N68" s="93"/>
+      <c r="O68" s="93"/>
+      <c r="P68" s="94"/>
       <c r="Q68" s="9"/>
       <c r="R68" s="9"/>
       <c r="S68" s="9"/>
@@ -14503,22 +14995,22 @@
     </row>
     <row r="69" spans="2:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B69" s="8"/>
-      <c r="C69" s="130" t="s">
+      <c r="C69" s="90" t="s">
         <v>31</v>
       </c>
-      <c r="D69" s="131"/>
-      <c r="E69" s="131"/>
-      <c r="F69" s="131"/>
-      <c r="G69" s="131"/>
-      <c r="H69" s="131"/>
-      <c r="I69" s="132"/>
-      <c r="J69" s="133"/>
-      <c r="K69" s="133"/>
-      <c r="L69" s="133"/>
-      <c r="M69" s="133"/>
-      <c r="N69" s="133"/>
-      <c r="O69" s="133"/>
-      <c r="P69" s="134"/>
+      <c r="D69" s="91"/>
+      <c r="E69" s="91"/>
+      <c r="F69" s="91"/>
+      <c r="G69" s="91"/>
+      <c r="H69" s="91"/>
+      <c r="I69" s="92"/>
+      <c r="J69" s="93"/>
+      <c r="K69" s="93"/>
+      <c r="L69" s="93"/>
+      <c r="M69" s="93"/>
+      <c r="N69" s="93"/>
+      <c r="O69" s="93"/>
+      <c r="P69" s="94"/>
       <c r="Q69" s="9"/>
       <c r="R69" s="9"/>
       <c r="S69" s="9"/>
@@ -14680,160 +15172,160 @@
       </c>
     </row>
     <row r="78" spans="2:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B78" s="93" t="s">
+      <c r="B78" s="108" t="s">
         <v>32</v>
       </c>
-      <c r="C78" s="93" t="s">
+      <c r="C78" s="108" t="s">
         <v>33</v>
       </c>
-      <c r="D78" s="93"/>
-      <c r="E78" s="93"/>
-      <c r="F78" s="93"/>
-      <c r="G78" s="93"/>
-      <c r="H78" s="93"/>
-      <c r="I78" s="123" t="s">
+      <c r="D78" s="108"/>
+      <c r="E78" s="108"/>
+      <c r="F78" s="108"/>
+      <c r="G78" s="108"/>
+      <c r="H78" s="108"/>
+      <c r="I78" s="109" t="s">
         <v>127</v>
       </c>
-      <c r="J78" s="93"/>
-      <c r="K78" s="93" t="s">
+      <c r="J78" s="108"/>
+      <c r="K78" s="108" t="s">
         <v>34</v>
       </c>
-      <c r="L78" s="93"/>
-      <c r="M78" s="124" t="s">
+      <c r="L78" s="108"/>
+      <c r="M78" s="110" t="s">
         <v>35</v>
       </c>
-      <c r="N78" s="125"/>
-      <c r="O78" s="125"/>
-      <c r="P78" s="125"/>
-      <c r="Q78" s="125"/>
-      <c r="R78" s="125"/>
-      <c r="S78" s="125"/>
-      <c r="T78" s="125"/>
-      <c r="U78" s="125"/>
-      <c r="V78" s="125"/>
-      <c r="W78" s="125"/>
-      <c r="X78" s="126"/>
-      <c r="Y78" s="93" t="s">
+      <c r="N78" s="111"/>
+      <c r="O78" s="111"/>
+      <c r="P78" s="111"/>
+      <c r="Q78" s="111"/>
+      <c r="R78" s="111"/>
+      <c r="S78" s="111"/>
+      <c r="T78" s="111"/>
+      <c r="U78" s="111"/>
+      <c r="V78" s="111"/>
+      <c r="W78" s="111"/>
+      <c r="X78" s="112"/>
+      <c r="Y78" s="108" t="s">
         <v>36</v>
       </c>
-      <c r="Z78" s="93"/>
-      <c r="AA78" s="93"/>
-      <c r="AB78" s="93"/>
-      <c r="AC78" s="93"/>
-      <c r="AD78" s="93"/>
-      <c r="AE78" s="93"/>
-      <c r="AF78" s="93"/>
-      <c r="AG78" s="93"/>
-      <c r="AH78" s="93"/>
+      <c r="Z78" s="108"/>
+      <c r="AA78" s="108"/>
+      <c r="AB78" s="108"/>
+      <c r="AC78" s="108"/>
+      <c r="AD78" s="108"/>
+      <c r="AE78" s="108"/>
+      <c r="AF78" s="108"/>
+      <c r="AG78" s="108"/>
+      <c r="AH78" s="108"/>
     </row>
     <row r="79" spans="2:34" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B79" s="52"/>
-      <c r="C79" s="52"/>
-      <c r="D79" s="52"/>
-      <c r="E79" s="52"/>
-      <c r="F79" s="52"/>
-      <c r="G79" s="52"/>
-      <c r="H79" s="52"/>
-      <c r="I79" s="52"/>
-      <c r="J79" s="52"/>
-      <c r="K79" s="52"/>
-      <c r="L79" s="52"/>
-      <c r="M79" s="127"/>
-      <c r="N79" s="128"/>
-      <c r="O79" s="128"/>
-      <c r="P79" s="128"/>
-      <c r="Q79" s="128"/>
-      <c r="R79" s="128"/>
-      <c r="S79" s="128"/>
-      <c r="T79" s="128"/>
-      <c r="U79" s="128"/>
-      <c r="V79" s="128"/>
-      <c r="W79" s="128"/>
-      <c r="X79" s="129"/>
-      <c r="Y79" s="52" t="s">
+      <c r="B79" s="51"/>
+      <c r="C79" s="51"/>
+      <c r="D79" s="51"/>
+      <c r="E79" s="51"/>
+      <c r="F79" s="51"/>
+      <c r="G79" s="51"/>
+      <c r="H79" s="51"/>
+      <c r="I79" s="51"/>
+      <c r="J79" s="51"/>
+      <c r="K79" s="51"/>
+      <c r="L79" s="51"/>
+      <c r="M79" s="113"/>
+      <c r="N79" s="114"/>
+      <c r="O79" s="114"/>
+      <c r="P79" s="114"/>
+      <c r="Q79" s="114"/>
+      <c r="R79" s="114"/>
+      <c r="S79" s="114"/>
+      <c r="T79" s="114"/>
+      <c r="U79" s="114"/>
+      <c r="V79" s="114"/>
+      <c r="W79" s="114"/>
+      <c r="X79" s="115"/>
+      <c r="Y79" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="Z79" s="52"/>
-      <c r="AA79" s="52"/>
-      <c r="AB79" s="52"/>
-      <c r="AC79" s="52"/>
-      <c r="AD79" s="52" t="s">
+      <c r="Z79" s="51"/>
+      <c r="AA79" s="51"/>
+      <c r="AB79" s="51"/>
+      <c r="AC79" s="51"/>
+      <c r="AD79" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="AE79" s="52"/>
-      <c r="AF79" s="52"/>
-      <c r="AG79" s="52"/>
-      <c r="AH79" s="52"/>
+      <c r="AE79" s="51"/>
+      <c r="AF79" s="51"/>
+      <c r="AG79" s="51"/>
+      <c r="AH79" s="51"/>
     </row>
     <row r="80" spans="2:34" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B80" s="14">
         <v>1</v>
       </c>
-      <c r="C80" s="116" t="s">
+      <c r="C80" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="D80" s="117"/>
-      <c r="E80" s="117"/>
-      <c r="F80" s="117"/>
-      <c r="G80" s="117"/>
-      <c r="H80" s="118"/>
-      <c r="I80" s="119" t="s">
+      <c r="D80" s="102"/>
+      <c r="E80" s="102"/>
+      <c r="F80" s="102"/>
+      <c r="G80" s="102"/>
+      <c r="H80" s="103"/>
+      <c r="I80" s="104" t="s">
         <v>40</v>
       </c>
-      <c r="J80" s="120"/>
-      <c r="K80" s="121">
+      <c r="J80" s="105"/>
+      <c r="K80" s="106">
         <v>32</v>
       </c>
-      <c r="L80" s="122"/>
-      <c r="M80" s="58" t="s">
+      <c r="L80" s="107"/>
+      <c r="M80" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="N80" s="59"/>
-      <c r="O80" s="59"/>
-      <c r="P80" s="59"/>
-      <c r="Q80" s="59"/>
-      <c r="R80" s="59"/>
-      <c r="S80" s="59"/>
-      <c r="T80" s="59"/>
-      <c r="U80" s="59"/>
-      <c r="V80" s="59"/>
-      <c r="W80" s="59"/>
-      <c r="X80" s="60"/>
-      <c r="Y80" s="116" t="s">
+      <c r="N80" s="49"/>
+      <c r="O80" s="49"/>
+      <c r="P80" s="49"/>
+      <c r="Q80" s="49"/>
+      <c r="R80" s="49"/>
+      <c r="S80" s="49"/>
+      <c r="T80" s="49"/>
+      <c r="U80" s="49"/>
+      <c r="V80" s="49"/>
+      <c r="W80" s="49"/>
+      <c r="X80" s="50"/>
+      <c r="Y80" s="101" t="s">
         <v>75</v>
       </c>
-      <c r="Z80" s="117"/>
-      <c r="AA80" s="117"/>
-      <c r="AB80" s="117"/>
-      <c r="AC80" s="118"/>
-      <c r="AD80" s="116" t="s">
+      <c r="Z80" s="102"/>
+      <c r="AA80" s="102"/>
+      <c r="AB80" s="102"/>
+      <c r="AC80" s="103"/>
+      <c r="AD80" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="AE80" s="117"/>
-      <c r="AF80" s="117"/>
-      <c r="AG80" s="117"/>
-      <c r="AH80" s="118"/>
+      <c r="AE80" s="102"/>
+      <c r="AF80" s="102"/>
+      <c r="AG80" s="102"/>
+      <c r="AH80" s="103"/>
     </row>
     <row r="81" spans="2:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B81" s="15">
         <v>2</v>
       </c>
-      <c r="C81" s="90" t="s">
+      <c r="C81" s="116" t="s">
         <v>41</v>
       </c>
-      <c r="D81" s="91"/>
-      <c r="E81" s="91"/>
-      <c r="F81" s="91"/>
-      <c r="G81" s="91"/>
-      <c r="H81" s="92"/>
-      <c r="I81" s="99" t="s">
+      <c r="D81" s="117"/>
+      <c r="E81" s="117"/>
+      <c r="F81" s="117"/>
+      <c r="G81" s="117"/>
+      <c r="H81" s="118"/>
+      <c r="I81" s="119" t="s">
         <v>40</v>
       </c>
-      <c r="J81" s="100"/>
-      <c r="K81" s="101">
+      <c r="J81" s="120"/>
+      <c r="K81" s="121">
         <v>32</v>
       </c>
-      <c r="L81" s="102"/>
+      <c r="L81" s="122"/>
       <c r="M81" s="42" t="s">
         <v>73</v>
       </c>
@@ -14848,41 +15340,41 @@
       <c r="V81" s="43"/>
       <c r="W81" s="43"/>
       <c r="X81" s="44"/>
-      <c r="Y81" s="90" t="s">
+      <c r="Y81" s="116" t="s">
         <v>75</v>
       </c>
-      <c r="Z81" s="91"/>
-      <c r="AA81" s="91"/>
-      <c r="AB81" s="91"/>
-      <c r="AC81" s="92"/>
-      <c r="AD81" s="90" t="s">
+      <c r="Z81" s="117"/>
+      <c r="AA81" s="117"/>
+      <c r="AB81" s="117"/>
+      <c r="AC81" s="118"/>
+      <c r="AD81" s="116" t="s">
         <v>42</v>
       </c>
-      <c r="AE81" s="91"/>
-      <c r="AF81" s="91"/>
-      <c r="AG81" s="91"/>
-      <c r="AH81" s="92"/>
+      <c r="AE81" s="117"/>
+      <c r="AF81" s="117"/>
+      <c r="AG81" s="117"/>
+      <c r="AH81" s="118"/>
     </row>
     <row r="82" spans="2:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B82" s="15">
         <v>3</v>
       </c>
-      <c r="C82" s="90" t="s">
+      <c r="C82" s="116" t="s">
         <v>43</v>
       </c>
-      <c r="D82" s="91"/>
-      <c r="E82" s="91"/>
-      <c r="F82" s="91"/>
-      <c r="G82" s="91"/>
-      <c r="H82" s="92"/>
-      <c r="I82" s="99" t="s">
+      <c r="D82" s="117"/>
+      <c r="E82" s="117"/>
+      <c r="F82" s="117"/>
+      <c r="G82" s="117"/>
+      <c r="H82" s="118"/>
+      <c r="I82" s="119" t="s">
         <v>40</v>
       </c>
-      <c r="J82" s="100"/>
-      <c r="K82" s="101">
+      <c r="J82" s="120"/>
+      <c r="K82" s="121">
         <v>32</v>
       </c>
-      <c r="L82" s="102"/>
+      <c r="L82" s="122"/>
       <c r="M82" s="42" t="s">
         <v>74</v>
       </c>
@@ -14897,41 +15389,41 @@
       <c r="V82" s="43"/>
       <c r="W82" s="43"/>
       <c r="X82" s="44"/>
-      <c r="Y82" s="90" t="s">
+      <c r="Y82" s="116" t="s">
         <v>75</v>
       </c>
-      <c r="Z82" s="91"/>
-      <c r="AA82" s="91"/>
-      <c r="AB82" s="91"/>
-      <c r="AC82" s="92"/>
-      <c r="AD82" s="90" t="s">
+      <c r="Z82" s="117"/>
+      <c r="AA82" s="117"/>
+      <c r="AB82" s="117"/>
+      <c r="AC82" s="118"/>
+      <c r="AD82" s="116" t="s">
         <v>42</v>
       </c>
-      <c r="AE82" s="91"/>
-      <c r="AF82" s="91"/>
-      <c r="AG82" s="91"/>
-      <c r="AH82" s="92"/>
+      <c r="AE82" s="117"/>
+      <c r="AF82" s="117"/>
+      <c r="AG82" s="117"/>
+      <c r="AH82" s="118"/>
     </row>
     <row r="83" spans="2:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B83" s="15">
         <v>4</v>
       </c>
-      <c r="C83" s="90" t="s">
+      <c r="C83" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="D83" s="91"/>
-      <c r="E83" s="91"/>
-      <c r="F83" s="91"/>
-      <c r="G83" s="91"/>
-      <c r="H83" s="92"/>
-      <c r="I83" s="99" t="s">
+      <c r="D83" s="117"/>
+      <c r="E83" s="117"/>
+      <c r="F83" s="117"/>
+      <c r="G83" s="117"/>
+      <c r="H83" s="118"/>
+      <c r="I83" s="119" t="s">
         <v>40</v>
       </c>
-      <c r="J83" s="100"/>
-      <c r="K83" s="101">
+      <c r="J83" s="120"/>
+      <c r="K83" s="121">
         <v>25</v>
       </c>
-      <c r="L83" s="102"/>
+      <c r="L83" s="122"/>
       <c r="M83" s="42" t="s">
         <v>128</v>
       </c>
@@ -14946,41 +15438,41 @@
       <c r="V83" s="43"/>
       <c r="W83" s="43"/>
       <c r="X83" s="44"/>
-      <c r="Y83" s="90" t="s">
+      <c r="Y83" s="116" t="s">
         <v>76</v>
       </c>
-      <c r="Z83" s="91"/>
-      <c r="AA83" s="91"/>
-      <c r="AB83" s="91"/>
-      <c r="AC83" s="92"/>
+      <c r="Z83" s="117"/>
+      <c r="AA83" s="117"/>
+      <c r="AB83" s="117"/>
+      <c r="AC83" s="118"/>
       <c r="AD83" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="AE83" s="91"/>
-      <c r="AF83" s="91"/>
-      <c r="AG83" s="91"/>
-      <c r="AH83" s="92"/>
+      <c r="AE83" s="117"/>
+      <c r="AF83" s="117"/>
+      <c r="AG83" s="117"/>
+      <c r="AH83" s="118"/>
     </row>
     <row r="84" spans="2:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B84" s="15">
         <v>5</v>
       </c>
-      <c r="C84" s="90" t="s">
+      <c r="C84" s="116" t="s">
         <v>23</v>
       </c>
-      <c r="D84" s="91"/>
-      <c r="E84" s="91"/>
-      <c r="F84" s="91"/>
-      <c r="G84" s="91"/>
-      <c r="H84" s="92"/>
-      <c r="I84" s="99" t="s">
+      <c r="D84" s="117"/>
+      <c r="E84" s="117"/>
+      <c r="F84" s="117"/>
+      <c r="G84" s="117"/>
+      <c r="H84" s="118"/>
+      <c r="I84" s="119" t="s">
         <v>44</v>
       </c>
-      <c r="J84" s="100"/>
-      <c r="K84" s="101">
+      <c r="J84" s="120"/>
+      <c r="K84" s="121">
         <v>25</v>
       </c>
-      <c r="L84" s="102"/>
+      <c r="L84" s="122"/>
       <c r="M84" s="42" t="s">
         <v>129</v>
       </c>
@@ -14995,41 +15487,41 @@
       <c r="V84" s="43"/>
       <c r="W84" s="43"/>
       <c r="X84" s="44"/>
-      <c r="Y84" s="90" t="s">
+      <c r="Y84" s="116" t="s">
         <v>76</v>
       </c>
-      <c r="Z84" s="91"/>
-      <c r="AA84" s="91"/>
-      <c r="AB84" s="91"/>
-      <c r="AC84" s="92"/>
+      <c r="Z84" s="117"/>
+      <c r="AA84" s="117"/>
+      <c r="AB84" s="117"/>
+      <c r="AC84" s="118"/>
       <c r="AD84" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="AE84" s="91"/>
-      <c r="AF84" s="91"/>
-      <c r="AG84" s="91"/>
-      <c r="AH84" s="92"/>
+      <c r="AE84" s="117"/>
+      <c r="AF84" s="117"/>
+      <c r="AG84" s="117"/>
+      <c r="AH84" s="118"/>
     </row>
     <row r="85" spans="2:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B85" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C85" s="90" t="s">
+      <c r="C85" s="116" t="s">
         <v>46</v>
       </c>
-      <c r="D85" s="91"/>
-      <c r="E85" s="91"/>
-      <c r="F85" s="91"/>
-      <c r="G85" s="91"/>
-      <c r="H85" s="92"/>
-      <c r="I85" s="99" t="s">
+      <c r="D85" s="117"/>
+      <c r="E85" s="117"/>
+      <c r="F85" s="117"/>
+      <c r="G85" s="117"/>
+      <c r="H85" s="118"/>
+      <c r="I85" s="119" t="s">
         <v>47</v>
       </c>
-      <c r="J85" s="100"/>
-      <c r="K85" s="101" t="s">
+      <c r="J85" s="120"/>
+      <c r="K85" s="121" t="s">
         <v>47</v>
       </c>
-      <c r="L85" s="102"/>
+      <c r="L85" s="122"/>
       <c r="M85" s="42" t="s">
         <v>71</v>
       </c>
@@ -15044,33 +15536,33 @@
       <c r="V85" s="43"/>
       <c r="W85" s="43"/>
       <c r="X85" s="44"/>
-      <c r="Y85" s="90" t="s">
+      <c r="Y85" s="116" t="s">
         <v>46</v>
       </c>
-      <c r="Z85" s="91"/>
-      <c r="AA85" s="91"/>
-      <c r="AB85" s="91"/>
-      <c r="AC85" s="92"/>
-      <c r="AD85" s="90" t="s">
+      <c r="Z85" s="117"/>
+      <c r="AA85" s="117"/>
+      <c r="AB85" s="117"/>
+      <c r="AC85" s="118"/>
+      <c r="AD85" s="116" t="s">
         <v>46</v>
       </c>
-      <c r="AE85" s="91"/>
-      <c r="AF85" s="91"/>
-      <c r="AG85" s="91"/>
-      <c r="AH85" s="92"/>
+      <c r="AE85" s="117"/>
+      <c r="AF85" s="117"/>
+      <c r="AG85" s="117"/>
+      <c r="AH85" s="118"/>
     </row>
     <row r="86" spans="2:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B86" s="15"/>
-      <c r="C86" s="90"/>
-      <c r="D86" s="91"/>
-      <c r="E86" s="91"/>
-      <c r="F86" s="91"/>
-      <c r="G86" s="91"/>
-      <c r="H86" s="92"/>
-      <c r="I86" s="99"/>
-      <c r="J86" s="100"/>
-      <c r="K86" s="101"/>
-      <c r="L86" s="102"/>
+      <c r="C86" s="116"/>
+      <c r="D86" s="117"/>
+      <c r="E86" s="117"/>
+      <c r="F86" s="117"/>
+      <c r="G86" s="117"/>
+      <c r="H86" s="118"/>
+      <c r="I86" s="119"/>
+      <c r="J86" s="120"/>
+      <c r="K86" s="121"/>
+      <c r="L86" s="122"/>
       <c r="M86" s="42"/>
       <c r="N86" s="43"/>
       <c r="O86" s="43"/>
@@ -15083,29 +15575,29 @@
       <c r="V86" s="43"/>
       <c r="W86" s="43"/>
       <c r="X86" s="44"/>
-      <c r="Y86" s="90"/>
-      <c r="Z86" s="91"/>
-      <c r="AA86" s="91"/>
-      <c r="AB86" s="91"/>
-      <c r="AC86" s="92"/>
-      <c r="AD86" s="90"/>
-      <c r="AE86" s="91"/>
-      <c r="AF86" s="91"/>
-      <c r="AG86" s="91"/>
-      <c r="AH86" s="92"/>
+      <c r="Y86" s="116"/>
+      <c r="Z86" s="117"/>
+      <c r="AA86" s="117"/>
+      <c r="AB86" s="117"/>
+      <c r="AC86" s="118"/>
+      <c r="AD86" s="116"/>
+      <c r="AE86" s="117"/>
+      <c r="AF86" s="117"/>
+      <c r="AG86" s="117"/>
+      <c r="AH86" s="118"/>
     </row>
     <row r="87" spans="2:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B87" s="15"/>
-      <c r="C87" s="90"/>
-      <c r="D87" s="91"/>
-      <c r="E87" s="91"/>
-      <c r="F87" s="91"/>
-      <c r="G87" s="91"/>
-      <c r="H87" s="92"/>
-      <c r="I87" s="99"/>
-      <c r="J87" s="100"/>
-      <c r="K87" s="101"/>
-      <c r="L87" s="102"/>
+      <c r="C87" s="116"/>
+      <c r="D87" s="117"/>
+      <c r="E87" s="117"/>
+      <c r="F87" s="117"/>
+      <c r="G87" s="117"/>
+      <c r="H87" s="118"/>
+      <c r="I87" s="119"/>
+      <c r="J87" s="120"/>
+      <c r="K87" s="121"/>
+      <c r="L87" s="122"/>
       <c r="M87" s="42"/>
       <c r="N87" s="43"/>
       <c r="O87" s="43"/>
@@ -15118,29 +15610,29 @@
       <c r="V87" s="43"/>
       <c r="W87" s="43"/>
       <c r="X87" s="44"/>
-      <c r="Y87" s="90"/>
-      <c r="Z87" s="91"/>
-      <c r="AA87" s="91"/>
-      <c r="AB87" s="91"/>
-      <c r="AC87" s="92"/>
-      <c r="AD87" s="90"/>
-      <c r="AE87" s="91"/>
-      <c r="AF87" s="91"/>
-      <c r="AG87" s="91"/>
-      <c r="AH87" s="92"/>
+      <c r="Y87" s="116"/>
+      <c r="Z87" s="117"/>
+      <c r="AA87" s="117"/>
+      <c r="AB87" s="117"/>
+      <c r="AC87" s="118"/>
+      <c r="AD87" s="116"/>
+      <c r="AE87" s="117"/>
+      <c r="AF87" s="117"/>
+      <c r="AG87" s="117"/>
+      <c r="AH87" s="118"/>
     </row>
     <row r="88" spans="2:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B88" s="15"/>
-      <c r="C88" s="90"/>
-      <c r="D88" s="91"/>
-      <c r="E88" s="91"/>
-      <c r="F88" s="91"/>
-      <c r="G88" s="91"/>
-      <c r="H88" s="92"/>
-      <c r="I88" s="99"/>
-      <c r="J88" s="100"/>
-      <c r="K88" s="101"/>
-      <c r="L88" s="102"/>
+      <c r="C88" s="116"/>
+      <c r="D88" s="117"/>
+      <c r="E88" s="117"/>
+      <c r="F88" s="117"/>
+      <c r="G88" s="117"/>
+      <c r="H88" s="118"/>
+      <c r="I88" s="119"/>
+      <c r="J88" s="120"/>
+      <c r="K88" s="121"/>
+      <c r="L88" s="122"/>
       <c r="M88" s="42"/>
       <c r="N88" s="43"/>
       <c r="O88" s="43"/>
@@ -15153,29 +15645,29 @@
       <c r="V88" s="43"/>
       <c r="W88" s="43"/>
       <c r="X88" s="44"/>
-      <c r="Y88" s="90"/>
-      <c r="Z88" s="91"/>
-      <c r="AA88" s="91"/>
-      <c r="AB88" s="91"/>
-      <c r="AC88" s="92"/>
-      <c r="AD88" s="90"/>
-      <c r="AE88" s="91"/>
-      <c r="AF88" s="91"/>
-      <c r="AG88" s="91"/>
-      <c r="AH88" s="92"/>
+      <c r="Y88" s="116"/>
+      <c r="Z88" s="117"/>
+      <c r="AA88" s="117"/>
+      <c r="AB88" s="117"/>
+      <c r="AC88" s="118"/>
+      <c r="AD88" s="116"/>
+      <c r="AE88" s="117"/>
+      <c r="AF88" s="117"/>
+      <c r="AG88" s="117"/>
+      <c r="AH88" s="118"/>
     </row>
     <row r="89" spans="2:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B89" s="15"/>
-      <c r="C89" s="90"/>
-      <c r="D89" s="91"/>
-      <c r="E89" s="91"/>
-      <c r="F89" s="91"/>
-      <c r="G89" s="91"/>
-      <c r="H89" s="92"/>
-      <c r="I89" s="99"/>
-      <c r="J89" s="100"/>
-      <c r="K89" s="101"/>
-      <c r="L89" s="102"/>
+      <c r="C89" s="116"/>
+      <c r="D89" s="117"/>
+      <c r="E89" s="117"/>
+      <c r="F89" s="117"/>
+      <c r="G89" s="117"/>
+      <c r="H89" s="118"/>
+      <c r="I89" s="119"/>
+      <c r="J89" s="120"/>
+      <c r="K89" s="121"/>
+      <c r="L89" s="122"/>
       <c r="M89" s="42"/>
       <c r="N89" s="43"/>
       <c r="O89" s="43"/>
@@ -15188,29 +15680,29 @@
       <c r="V89" s="43"/>
       <c r="W89" s="43"/>
       <c r="X89" s="44"/>
-      <c r="Y89" s="90"/>
-      <c r="Z89" s="91"/>
-      <c r="AA89" s="91"/>
-      <c r="AB89" s="91"/>
-      <c r="AC89" s="92"/>
-      <c r="AD89" s="90"/>
-      <c r="AE89" s="91"/>
-      <c r="AF89" s="91"/>
-      <c r="AG89" s="91"/>
-      <c r="AH89" s="92"/>
+      <c r="Y89" s="116"/>
+      <c r="Z89" s="117"/>
+      <c r="AA89" s="117"/>
+      <c r="AB89" s="117"/>
+      <c r="AC89" s="118"/>
+      <c r="AD89" s="116"/>
+      <c r="AE89" s="117"/>
+      <c r="AF89" s="117"/>
+      <c r="AG89" s="117"/>
+      <c r="AH89" s="118"/>
     </row>
     <row r="90" spans="2:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B90" s="15"/>
-      <c r="C90" s="90"/>
-      <c r="D90" s="91"/>
-      <c r="E90" s="91"/>
-      <c r="F90" s="91"/>
-      <c r="G90" s="91"/>
-      <c r="H90" s="92"/>
-      <c r="I90" s="99"/>
-      <c r="J90" s="100"/>
-      <c r="K90" s="101"/>
-      <c r="L90" s="102"/>
+      <c r="C90" s="116"/>
+      <c r="D90" s="117"/>
+      <c r="E90" s="117"/>
+      <c r="F90" s="117"/>
+      <c r="G90" s="117"/>
+      <c r="H90" s="118"/>
+      <c r="I90" s="119"/>
+      <c r="J90" s="120"/>
+      <c r="K90" s="121"/>
+      <c r="L90" s="122"/>
       <c r="M90" s="42"/>
       <c r="N90" s="43"/>
       <c r="O90" s="43"/>
@@ -15223,29 +15715,29 @@
       <c r="V90" s="43"/>
       <c r="W90" s="43"/>
       <c r="X90" s="44"/>
-      <c r="Y90" s="90"/>
-      <c r="Z90" s="91"/>
-      <c r="AA90" s="91"/>
-      <c r="AB90" s="91"/>
-      <c r="AC90" s="92"/>
-      <c r="AD90" s="90"/>
-      <c r="AE90" s="91"/>
-      <c r="AF90" s="91"/>
-      <c r="AG90" s="91"/>
-      <c r="AH90" s="92"/>
+      <c r="Y90" s="116"/>
+      <c r="Z90" s="117"/>
+      <c r="AA90" s="117"/>
+      <c r="AB90" s="117"/>
+      <c r="AC90" s="118"/>
+      <c r="AD90" s="116"/>
+      <c r="AE90" s="117"/>
+      <c r="AF90" s="117"/>
+      <c r="AG90" s="117"/>
+      <c r="AH90" s="118"/>
     </row>
     <row r="91" spans="2:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B91" s="15"/>
-      <c r="C91" s="90"/>
-      <c r="D91" s="91"/>
-      <c r="E91" s="91"/>
-      <c r="F91" s="91"/>
-      <c r="G91" s="91"/>
-      <c r="H91" s="92"/>
-      <c r="I91" s="99"/>
-      <c r="J91" s="100"/>
-      <c r="K91" s="101"/>
-      <c r="L91" s="102"/>
+      <c r="C91" s="116"/>
+      <c r="D91" s="117"/>
+      <c r="E91" s="117"/>
+      <c r="F91" s="117"/>
+      <c r="G91" s="117"/>
+      <c r="H91" s="118"/>
+      <c r="I91" s="119"/>
+      <c r="J91" s="120"/>
+      <c r="K91" s="121"/>
+      <c r="L91" s="122"/>
       <c r="M91" s="42"/>
       <c r="N91" s="43"/>
       <c r="O91" s="43"/>
@@ -15258,16 +15750,16 @@
       <c r="V91" s="43"/>
       <c r="W91" s="43"/>
       <c r="X91" s="44"/>
-      <c r="Y91" s="90"/>
-      <c r="Z91" s="91"/>
-      <c r="AA91" s="91"/>
-      <c r="AB91" s="91"/>
-      <c r="AC91" s="92"/>
-      <c r="AD91" s="90"/>
-      <c r="AE91" s="91"/>
-      <c r="AF91" s="91"/>
-      <c r="AG91" s="91"/>
-      <c r="AH91" s="92"/>
+      <c r="Y91" s="116"/>
+      <c r="Z91" s="117"/>
+      <c r="AA91" s="117"/>
+      <c r="AB91" s="117"/>
+      <c r="AC91" s="118"/>
+      <c r="AD91" s="116"/>
+      <c r="AE91" s="117"/>
+      <c r="AF91" s="117"/>
+      <c r="AG91" s="117"/>
+      <c r="AH91" s="118"/>
     </row>
     <row r="93" spans="2:34" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B93" s="2" t="s">
@@ -15278,103 +15770,103 @@
       <c r="B95" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="C95" s="52" t="s">
+      <c r="C95" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="D95" s="52"/>
-      <c r="E95" s="52"/>
-      <c r="F95" s="52"/>
-      <c r="G95" s="52"/>
-      <c r="H95" s="52"/>
-      <c r="I95" s="49" t="s">
+      <c r="D95" s="51"/>
+      <c r="E95" s="51"/>
+      <c r="F95" s="51"/>
+      <c r="G95" s="51"/>
+      <c r="H95" s="51"/>
+      <c r="I95" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="J95" s="50"/>
-      <c r="K95" s="50"/>
-      <c r="L95" s="50"/>
-      <c r="M95" s="50"/>
-      <c r="N95" s="50"/>
-      <c r="O95" s="50"/>
-      <c r="P95" s="50"/>
-      <c r="Q95" s="50"/>
-      <c r="R95" s="50"/>
-      <c r="S95" s="50"/>
-      <c r="T95" s="50"/>
-      <c r="U95" s="50"/>
-      <c r="V95" s="50"/>
-      <c r="W95" s="94" t="s">
+      <c r="J95" s="46"/>
+      <c r="K95" s="46"/>
+      <c r="L95" s="46"/>
+      <c r="M95" s="46"/>
+      <c r="N95" s="46"/>
+      <c r="O95" s="46"/>
+      <c r="P95" s="46"/>
+      <c r="Q95" s="46"/>
+      <c r="R95" s="46"/>
+      <c r="S95" s="46"/>
+      <c r="T95" s="46"/>
+      <c r="U95" s="46"/>
+      <c r="V95" s="46"/>
+      <c r="W95" s="138" t="s">
         <v>141</v>
       </c>
-      <c r="X95" s="95"/>
-      <c r="Y95" s="95"/>
-      <c r="Z95" s="96"/>
-      <c r="AA95" s="49" t="s">
+      <c r="X95" s="139"/>
+      <c r="Y95" s="139"/>
+      <c r="Z95" s="140"/>
+      <c r="AA95" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="AB95" s="50"/>
-      <c r="AC95" s="50"/>
-      <c r="AD95" s="50"/>
-      <c r="AE95" s="50"/>
-      <c r="AF95" s="50"/>
-      <c r="AG95" s="50"/>
-      <c r="AH95" s="51"/>
+      <c r="AB95" s="46"/>
+      <c r="AC95" s="46"/>
+      <c r="AD95" s="46"/>
+      <c r="AE95" s="46"/>
+      <c r="AF95" s="46"/>
+      <c r="AG95" s="46"/>
+      <c r="AH95" s="47"/>
     </row>
     <row r="96" spans="2:34" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B96" s="16">
         <v>1</v>
       </c>
-      <c r="C96" s="98" t="s">
+      <c r="C96" s="124" t="s">
         <v>98</v>
       </c>
-      <c r="D96" s="98"/>
-      <c r="E96" s="98"/>
-      <c r="F96" s="98"/>
-      <c r="G96" s="98"/>
-      <c r="H96" s="98"/>
-      <c r="I96" s="113" t="s">
+      <c r="D96" s="124"/>
+      <c r="E96" s="124"/>
+      <c r="F96" s="124"/>
+      <c r="G96" s="124"/>
+      <c r="H96" s="124"/>
+      <c r="I96" s="135" t="s">
         <v>99</v>
       </c>
-      <c r="J96" s="114"/>
-      <c r="K96" s="114"/>
-      <c r="L96" s="114"/>
-      <c r="M96" s="114"/>
-      <c r="N96" s="114"/>
-      <c r="O96" s="114"/>
-      <c r="P96" s="114"/>
-      <c r="Q96" s="114"/>
-      <c r="R96" s="114"/>
-      <c r="S96" s="114"/>
-      <c r="T96" s="114"/>
-      <c r="U96" s="114"/>
-      <c r="V96" s="115"/>
-      <c r="W96" s="107" t="s">
+      <c r="J96" s="136"/>
+      <c r="K96" s="136"/>
+      <c r="L96" s="136"/>
+      <c r="M96" s="136"/>
+      <c r="N96" s="136"/>
+      <c r="O96" s="136"/>
+      <c r="P96" s="136"/>
+      <c r="Q96" s="136"/>
+      <c r="R96" s="136"/>
+      <c r="S96" s="136"/>
+      <c r="T96" s="136"/>
+      <c r="U96" s="136"/>
+      <c r="V96" s="137"/>
+      <c r="W96" s="129" t="s">
         <v>142</v>
       </c>
-      <c r="X96" s="108"/>
-      <c r="Y96" s="108"/>
-      <c r="Z96" s="109"/>
-      <c r="AA96" s="103"/>
-      <c r="AB96" s="104"/>
-      <c r="AC96" s="104"/>
-      <c r="AD96" s="104"/>
-      <c r="AE96" s="104"/>
-      <c r="AF96" s="104"/>
-      <c r="AG96" s="104"/>
-      <c r="AH96" s="105"/>
+      <c r="X96" s="130"/>
+      <c r="Y96" s="130"/>
+      <c r="Z96" s="131"/>
+      <c r="AA96" s="125"/>
+      <c r="AB96" s="126"/>
+      <c r="AC96" s="126"/>
+      <c r="AD96" s="126"/>
+      <c r="AE96" s="126"/>
+      <c r="AF96" s="126"/>
+      <c r="AG96" s="126"/>
+      <c r="AH96" s="127"/>
     </row>
     <row r="97" spans="2:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B97" s="15">
         <f>B96+1</f>
         <v>2</v>
       </c>
-      <c r="C97" s="97" t="s">
+      <c r="C97" s="123" t="s">
         <v>163</v>
       </c>
-      <c r="D97" s="97"/>
-      <c r="E97" s="97"/>
-      <c r="F97" s="97"/>
-      <c r="G97" s="97"/>
-      <c r="H97" s="97"/>
+      <c r="D97" s="123"/>
+      <c r="E97" s="123"/>
+      <c r="F97" s="123"/>
+      <c r="G97" s="123"/>
+      <c r="H97" s="123"/>
       <c r="I97" s="42" t="s">
         <v>50</v>
       </c>
@@ -15391,34 +15883,34 @@
       <c r="T97" s="43"/>
       <c r="U97" s="43"/>
       <c r="V97" s="44"/>
-      <c r="W97" s="110" t="s">
+      <c r="W97" s="132" t="s">
         <v>143</v>
       </c>
-      <c r="X97" s="111"/>
-      <c r="Y97" s="111"/>
-      <c r="Z97" s="112"/>
-      <c r="AA97" s="99"/>
-      <c r="AB97" s="106"/>
-      <c r="AC97" s="106"/>
-      <c r="AD97" s="106"/>
-      <c r="AE97" s="106"/>
-      <c r="AF97" s="106"/>
-      <c r="AG97" s="106"/>
-      <c r="AH97" s="100"/>
+      <c r="X97" s="133"/>
+      <c r="Y97" s="133"/>
+      <c r="Z97" s="134"/>
+      <c r="AA97" s="119"/>
+      <c r="AB97" s="128"/>
+      <c r="AC97" s="128"/>
+      <c r="AD97" s="128"/>
+      <c r="AE97" s="128"/>
+      <c r="AF97" s="128"/>
+      <c r="AG97" s="128"/>
+      <c r="AH97" s="120"/>
     </row>
     <row r="98" spans="2:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B98" s="15">
         <f t="shared" ref="B98:B99" si="0">B97+1</f>
         <v>3</v>
       </c>
-      <c r="C98" s="97" t="s">
+      <c r="C98" s="123" t="s">
         <v>51</v>
       </c>
-      <c r="D98" s="97"/>
-      <c r="E98" s="97"/>
-      <c r="F98" s="97"/>
-      <c r="G98" s="97"/>
-      <c r="H98" s="97"/>
+      <c r="D98" s="123"/>
+      <c r="E98" s="123"/>
+      <c r="F98" s="123"/>
+      <c r="G98" s="123"/>
+      <c r="H98" s="123"/>
       <c r="I98" s="42" t="s">
         <v>52</v>
       </c>
@@ -15435,34 +15927,34 @@
       <c r="T98" s="43"/>
       <c r="U98" s="43"/>
       <c r="V98" s="44"/>
-      <c r="W98" s="110" t="s">
+      <c r="W98" s="132" t="s">
         <v>143</v>
       </c>
-      <c r="X98" s="111"/>
-      <c r="Y98" s="111"/>
-      <c r="Z98" s="112"/>
-      <c r="AA98" s="99"/>
-      <c r="AB98" s="106"/>
-      <c r="AC98" s="106"/>
-      <c r="AD98" s="106"/>
-      <c r="AE98" s="106"/>
-      <c r="AF98" s="106"/>
-      <c r="AG98" s="106"/>
-      <c r="AH98" s="100"/>
+      <c r="X98" s="133"/>
+      <c r="Y98" s="133"/>
+      <c r="Z98" s="134"/>
+      <c r="AA98" s="119"/>
+      <c r="AB98" s="128"/>
+      <c r="AC98" s="128"/>
+      <c r="AD98" s="128"/>
+      <c r="AE98" s="128"/>
+      <c r="AF98" s="128"/>
+      <c r="AG98" s="128"/>
+      <c r="AH98" s="120"/>
     </row>
     <row r="99" spans="2:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B99" s="15">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C99" s="97" t="s">
+      <c r="C99" s="123" t="s">
         <v>53</v>
       </c>
-      <c r="D99" s="97"/>
-      <c r="E99" s="97"/>
-      <c r="F99" s="97"/>
-      <c r="G99" s="97"/>
-      <c r="H99" s="97"/>
+      <c r="D99" s="123"/>
+      <c r="E99" s="123"/>
+      <c r="F99" s="123"/>
+      <c r="G99" s="123"/>
+      <c r="H99" s="123"/>
       <c r="I99" s="42" t="s">
         <v>83</v>
       </c>
@@ -15479,20 +15971,20 @@
       <c r="T99" s="43"/>
       <c r="U99" s="43"/>
       <c r="V99" s="44"/>
-      <c r="W99" s="110" t="s">
+      <c r="W99" s="132" t="s">
         <v>143</v>
       </c>
-      <c r="X99" s="111"/>
-      <c r="Y99" s="111"/>
-      <c r="Z99" s="112"/>
-      <c r="AA99" s="99"/>
-      <c r="AB99" s="106"/>
-      <c r="AC99" s="106"/>
-      <c r="AD99" s="106"/>
-      <c r="AE99" s="106"/>
-      <c r="AF99" s="106"/>
-      <c r="AG99" s="106"/>
-      <c r="AH99" s="100"/>
+      <c r="X99" s="133"/>
+      <c r="Y99" s="133"/>
+      <c r="Z99" s="134"/>
+      <c r="AA99" s="119"/>
+      <c r="AB99" s="128"/>
+      <c r="AC99" s="128"/>
+      <c r="AD99" s="128"/>
+      <c r="AE99" s="128"/>
+      <c r="AF99" s="128"/>
+      <c r="AG99" s="128"/>
+      <c r="AH99" s="120"/>
     </row>
     <row r="101" spans="2:34" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B101" s="2" t="s">
@@ -15506,103 +15998,18 @@
     </row>
   </sheetData>
   <mergeCells count="133">
-    <mergeCell ref="C58:I58"/>
-    <mergeCell ref="J58:P58"/>
-    <mergeCell ref="C60:AF60"/>
-    <mergeCell ref="C62:I62"/>
-    <mergeCell ref="J62:P62"/>
-    <mergeCell ref="S62:Y62"/>
-    <mergeCell ref="Z62:AF62"/>
-    <mergeCell ref="B52:AG52"/>
-    <mergeCell ref="C54:AF54"/>
-    <mergeCell ref="C56:I56"/>
-    <mergeCell ref="J56:P56"/>
-    <mergeCell ref="C57:I57"/>
-    <mergeCell ref="J57:P57"/>
-    <mergeCell ref="Z65:AF65"/>
-    <mergeCell ref="C66:I66"/>
-    <mergeCell ref="J66:P66"/>
-    <mergeCell ref="C63:I63"/>
-    <mergeCell ref="J63:P63"/>
-    <mergeCell ref="S63:Y63"/>
-    <mergeCell ref="Z63:AF63"/>
-    <mergeCell ref="C64:I64"/>
-    <mergeCell ref="J64:P64"/>
-    <mergeCell ref="S64:Y64"/>
-    <mergeCell ref="Z64:AF64"/>
-    <mergeCell ref="C67:I67"/>
-    <mergeCell ref="J67:P67"/>
-    <mergeCell ref="C68:I68"/>
-    <mergeCell ref="J68:P68"/>
-    <mergeCell ref="C69:I69"/>
-    <mergeCell ref="J69:P69"/>
-    <mergeCell ref="C65:I65"/>
-    <mergeCell ref="J65:P65"/>
-    <mergeCell ref="S65:Y65"/>
-    <mergeCell ref="C80:H80"/>
-    <mergeCell ref="I80:J80"/>
-    <mergeCell ref="K80:L80"/>
-    <mergeCell ref="Y80:AC80"/>
-    <mergeCell ref="AD80:AH80"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="C78:H79"/>
-    <mergeCell ref="I78:J79"/>
-    <mergeCell ref="K78:L79"/>
-    <mergeCell ref="M78:X79"/>
-    <mergeCell ref="M80:X80"/>
-    <mergeCell ref="C82:H82"/>
-    <mergeCell ref="I82:J82"/>
-    <mergeCell ref="K82:L82"/>
-    <mergeCell ref="Y82:AC82"/>
-    <mergeCell ref="AD82:AH82"/>
-    <mergeCell ref="C81:H81"/>
-    <mergeCell ref="I81:J81"/>
-    <mergeCell ref="K81:L81"/>
-    <mergeCell ref="Y81:AC81"/>
-    <mergeCell ref="M81:X81"/>
-    <mergeCell ref="M82:X82"/>
-    <mergeCell ref="C84:H84"/>
-    <mergeCell ref="I84:J84"/>
-    <mergeCell ref="K84:L84"/>
-    <mergeCell ref="Y84:AC84"/>
-    <mergeCell ref="AD84:AH84"/>
-    <mergeCell ref="C83:H83"/>
-    <mergeCell ref="I83:J83"/>
-    <mergeCell ref="K83:L83"/>
-    <mergeCell ref="Y83:AC83"/>
-    <mergeCell ref="M83:X83"/>
-    <mergeCell ref="M84:X84"/>
-    <mergeCell ref="C86:H86"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="K86:L86"/>
-    <mergeCell ref="Y86:AC86"/>
-    <mergeCell ref="AD86:AH86"/>
-    <mergeCell ref="C85:H85"/>
-    <mergeCell ref="I85:J85"/>
-    <mergeCell ref="K85:L85"/>
-    <mergeCell ref="Y85:AC85"/>
-    <mergeCell ref="M85:X85"/>
-    <mergeCell ref="M86:X86"/>
-    <mergeCell ref="C88:H88"/>
-    <mergeCell ref="I88:J88"/>
-    <mergeCell ref="K88:L88"/>
-    <mergeCell ref="Y88:AC88"/>
-    <mergeCell ref="C87:H87"/>
-    <mergeCell ref="I87:J87"/>
-    <mergeCell ref="K87:L87"/>
-    <mergeCell ref="Y87:AC87"/>
-    <mergeCell ref="M87:X87"/>
-    <mergeCell ref="C90:H90"/>
-    <mergeCell ref="I90:J90"/>
-    <mergeCell ref="K90:L90"/>
-    <mergeCell ref="Y90:AC90"/>
-    <mergeCell ref="C89:H89"/>
-    <mergeCell ref="I89:J89"/>
-    <mergeCell ref="K89:L89"/>
-    <mergeCell ref="Y89:AC89"/>
-    <mergeCell ref="AD89:AH89"/>
-    <mergeCell ref="M89:X89"/>
-    <mergeCell ref="AD90:AH90"/>
+    <mergeCell ref="AD88:AH88"/>
+    <mergeCell ref="AD87:AH87"/>
+    <mergeCell ref="AD83:AH83"/>
+    <mergeCell ref="AD81:AH81"/>
+    <mergeCell ref="Y78:AH78"/>
+    <mergeCell ref="Y79:AC79"/>
+    <mergeCell ref="AD79:AH79"/>
+    <mergeCell ref="W95:Z95"/>
+    <mergeCell ref="AD91:AH91"/>
+    <mergeCell ref="M90:X90"/>
+    <mergeCell ref="M88:X88"/>
+    <mergeCell ref="AD85:AH85"/>
     <mergeCell ref="C98:H98"/>
     <mergeCell ref="C99:H99"/>
     <mergeCell ref="C95:H95"/>
@@ -15627,18 +16034,103 @@
     <mergeCell ref="I98:V98"/>
     <mergeCell ref="I99:V99"/>
     <mergeCell ref="M91:X91"/>
-    <mergeCell ref="AD88:AH88"/>
-    <mergeCell ref="AD87:AH87"/>
-    <mergeCell ref="AD83:AH83"/>
-    <mergeCell ref="AD81:AH81"/>
-    <mergeCell ref="Y78:AH78"/>
-    <mergeCell ref="Y79:AC79"/>
-    <mergeCell ref="AD79:AH79"/>
-    <mergeCell ref="W95:Z95"/>
-    <mergeCell ref="AD91:AH91"/>
-    <mergeCell ref="M90:X90"/>
-    <mergeCell ref="M88:X88"/>
-    <mergeCell ref="AD85:AH85"/>
+    <mergeCell ref="C90:H90"/>
+    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="K90:L90"/>
+    <mergeCell ref="Y90:AC90"/>
+    <mergeCell ref="C89:H89"/>
+    <mergeCell ref="I89:J89"/>
+    <mergeCell ref="K89:L89"/>
+    <mergeCell ref="Y89:AC89"/>
+    <mergeCell ref="AD89:AH89"/>
+    <mergeCell ref="M89:X89"/>
+    <mergeCell ref="AD90:AH90"/>
+    <mergeCell ref="C88:H88"/>
+    <mergeCell ref="I88:J88"/>
+    <mergeCell ref="K88:L88"/>
+    <mergeCell ref="Y88:AC88"/>
+    <mergeCell ref="C87:H87"/>
+    <mergeCell ref="I87:J87"/>
+    <mergeCell ref="K87:L87"/>
+    <mergeCell ref="Y87:AC87"/>
+    <mergeCell ref="M87:X87"/>
+    <mergeCell ref="C86:H86"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="K86:L86"/>
+    <mergeCell ref="Y86:AC86"/>
+    <mergeCell ref="AD86:AH86"/>
+    <mergeCell ref="C85:H85"/>
+    <mergeCell ref="I85:J85"/>
+    <mergeCell ref="K85:L85"/>
+    <mergeCell ref="Y85:AC85"/>
+    <mergeCell ref="M85:X85"/>
+    <mergeCell ref="M86:X86"/>
+    <mergeCell ref="C84:H84"/>
+    <mergeCell ref="I84:J84"/>
+    <mergeCell ref="K84:L84"/>
+    <mergeCell ref="Y84:AC84"/>
+    <mergeCell ref="AD84:AH84"/>
+    <mergeCell ref="C83:H83"/>
+    <mergeCell ref="I83:J83"/>
+    <mergeCell ref="K83:L83"/>
+    <mergeCell ref="Y83:AC83"/>
+    <mergeCell ref="M83:X83"/>
+    <mergeCell ref="M84:X84"/>
+    <mergeCell ref="C82:H82"/>
+    <mergeCell ref="I82:J82"/>
+    <mergeCell ref="K82:L82"/>
+    <mergeCell ref="Y82:AC82"/>
+    <mergeCell ref="AD82:AH82"/>
+    <mergeCell ref="C81:H81"/>
+    <mergeCell ref="I81:J81"/>
+    <mergeCell ref="K81:L81"/>
+    <mergeCell ref="Y81:AC81"/>
+    <mergeCell ref="M81:X81"/>
+    <mergeCell ref="M82:X82"/>
+    <mergeCell ref="C80:H80"/>
+    <mergeCell ref="I80:J80"/>
+    <mergeCell ref="K80:L80"/>
+    <mergeCell ref="Y80:AC80"/>
+    <mergeCell ref="AD80:AH80"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="C78:H79"/>
+    <mergeCell ref="I78:J79"/>
+    <mergeCell ref="K78:L79"/>
+    <mergeCell ref="M78:X79"/>
+    <mergeCell ref="M80:X80"/>
+    <mergeCell ref="C67:I67"/>
+    <mergeCell ref="J67:P67"/>
+    <mergeCell ref="C68:I68"/>
+    <mergeCell ref="J68:P68"/>
+    <mergeCell ref="C69:I69"/>
+    <mergeCell ref="J69:P69"/>
+    <mergeCell ref="C65:I65"/>
+    <mergeCell ref="J65:P65"/>
+    <mergeCell ref="S65:Y65"/>
+    <mergeCell ref="Z65:AF65"/>
+    <mergeCell ref="C66:I66"/>
+    <mergeCell ref="J66:P66"/>
+    <mergeCell ref="C63:I63"/>
+    <mergeCell ref="J63:P63"/>
+    <mergeCell ref="S63:Y63"/>
+    <mergeCell ref="Z63:AF63"/>
+    <mergeCell ref="C64:I64"/>
+    <mergeCell ref="J64:P64"/>
+    <mergeCell ref="S64:Y64"/>
+    <mergeCell ref="Z64:AF64"/>
+    <mergeCell ref="C58:I58"/>
+    <mergeCell ref="J58:P58"/>
+    <mergeCell ref="C60:AF60"/>
+    <mergeCell ref="C62:I62"/>
+    <mergeCell ref="J62:P62"/>
+    <mergeCell ref="S62:Y62"/>
+    <mergeCell ref="Z62:AF62"/>
+    <mergeCell ref="B52:AG52"/>
+    <mergeCell ref="C54:AF54"/>
+    <mergeCell ref="C56:I56"/>
+    <mergeCell ref="J56:P56"/>
+    <mergeCell ref="C57:I57"/>
+    <mergeCell ref="J57:P57"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
